--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="144">
   <si>
     <t>TOC</t>
   </si>
@@ -621,14 +621,29 @@
     <t>law</t>
   </si>
   <si>
-    <t>G12</t>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>add age 18 and 19 to 20</t>
+  </si>
+  <si>
+    <t>add age 18 -20 to 21</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>I12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +732,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -760,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -946,6 +974,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -968,16 +1006,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>132659</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>94559</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>170669</xdr:rowOff>
+      <xdr:rowOff>113519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,7 +1038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="971550"/>
+          <a:off x="6553200" y="914400"/>
           <a:ext cx="5523809" cy="6247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1012,16 +1050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>246983</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75195</xdr:rowOff>
+      <xdr:colOff>589883</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>151395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1044,7 +1082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11772900" y="990600"/>
+          <a:off x="12115800" y="876300"/>
           <a:ext cx="5333333" cy="8038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1543,7 +1581,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -2686,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
         <v>91</v>
@@ -2739,6 +2777,12 @@
       <c r="G6" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2759,6 +2803,12 @@
       <c r="G7" s="10">
         <v>3391</v>
       </c>
+      <c r="H7" s="72">
+        <v>94752</v>
+      </c>
+      <c r="I7" s="72">
+        <v>210539</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -2779,6 +2829,12 @@
       <c r="G8" s="10">
         <v>47</v>
       </c>
+      <c r="H8" s="72">
+        <v>2327</v>
+      </c>
+      <c r="I8" s="72">
+        <v>5204</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -2799,6 +2855,12 @@
       <c r="G9" s="10">
         <v>1023</v>
       </c>
+      <c r="H9" s="72">
+        <v>42859</v>
+      </c>
+      <c r="I9" s="72">
+        <v>100355</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
@@ -2819,6 +2881,14 @@
       <c r="G10" s="10">
         <v>2717</v>
       </c>
+      <c r="H10" s="72">
+        <f>58465 * 175121/189480</f>
+        <v>54034.458861093517</v>
+      </c>
+      <c r="I10" s="72">
+        <f>131015 * 175121/189480</f>
+        <v>121086.54113890648</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -2839,6 +2909,12 @@
       <c r="G11" s="10">
         <v>181</v>
       </c>
+      <c r="H11" s="72">
+        <v>3917</v>
+      </c>
+      <c r="I11" s="72">
+        <v>8125</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
@@ -2858,6 +2934,14 @@
       </c>
       <c r="G12" s="10">
         <v>418</v>
+      </c>
+      <c r="H12" s="72">
+        <f>58465* 14359/189480</f>
+        <v>4430.5411389064811</v>
+      </c>
+      <c r="I12" s="72">
+        <f>131015* 14359/189480</f>
+        <v>9928.4588610935189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2874,20 +2958,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2903,45 +2990,42 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29">
-        <v>42739</v>
+      <c r="E6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>9</v>
       </c>
+      <c r="L6" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="M6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -2952,76 +3036,70 @@
       <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="42">
-        <v>0</v>
+      <c r="E7" s="5">
+        <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J7" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K7" s="5">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="5">
-        <v>37</v>
-      </c>
-      <c r="N7" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="42">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>95</v>
+      <c r="E8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>19</v>
       </c>
@@ -3034,14 +3112,14 @@
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43">
-        <v>3133</v>
-      </c>
-      <c r="F9" s="44">
-        <v>4463</v>
+      <c r="E9" s="45">
+        <v>7596</v>
+      </c>
+      <c r="F9" s="45">
+        <v>24</v>
       </c>
       <c r="G9" s="45">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H9" s="45">
         <v>0</v>
@@ -3061,11 +3139,8 @@
       <c r="M9" s="45">
         <v>0</v>
       </c>
-      <c r="N9" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -3076,14 +3151,14 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="43">
-        <v>13197</v>
-      </c>
-      <c r="F10" s="44">
-        <v>31396</v>
-      </c>
-      <c r="G10" s="44">
+      <c r="E10" s="45">
+        <v>23889.751053185886</v>
+      </c>
+      <c r="F10" s="45">
         <v>33188</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
       </c>
       <c r="H10" s="45">
         <v>0</v>
@@ -3103,11 +3178,8 @@
       <c r="M10" s="45">
         <v>0</v>
       </c>
-      <c r="N10" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
@@ -3120,17 +3192,17 @@
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="43">
-        <v>3433</v>
-      </c>
-      <c r="F11" s="44">
-        <v>19491</v>
-      </c>
-      <c r="G11" s="44">
+      <c r="E11" s="45">
+        <v>22924</v>
+      </c>
+      <c r="F11" s="45">
         <v>4228</v>
       </c>
+      <c r="G11" s="45">
+        <v>47</v>
+      </c>
       <c r="H11" s="45">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I11" s="45">
         <v>0</v>
@@ -3147,11 +3219,8 @@
       <c r="M11" s="45">
         <v>0</v>
       </c>
-      <c r="N11" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -3162,17 +3231,17 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="43">
-        <v>11972</v>
-      </c>
-      <c r="F12" s="44">
-        <v>34951</v>
-      </c>
-      <c r="G12" s="44">
+      <c r="E12" s="45">
+        <v>31509.763435700577</v>
+      </c>
+      <c r="F12" s="45">
         <v>38849</v>
       </c>
-      <c r="H12" s="44">
+      <c r="G12" s="45">
         <v>34271</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
       </c>
       <c r="I12" s="45">
         <v>0</v>
@@ -3189,11 +3258,8 @@
       <c r="M12" s="45">
         <v>0</v>
       </c>
-      <c r="N12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -3206,20 +3272,20 @@
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="43">
-        <v>1996</v>
-      </c>
-      <c r="F13" s="44">
-        <v>11335</v>
-      </c>
-      <c r="G13" s="44">
+      <c r="E13" s="45">
+        <v>13331</v>
+      </c>
+      <c r="F13" s="45">
         <v>12275</v>
       </c>
-      <c r="H13" s="44">
+      <c r="G13" s="45">
         <v>5254</v>
       </c>
+      <c r="H13" s="45">
+        <v>44</v>
+      </c>
       <c r="I13" s="45">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J13" s="45">
         <v>0</v>
@@ -3233,11 +3299,8 @@
       <c r="M13" s="45">
         <v>0</v>
       </c>
-      <c r="N13" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="6" t="s">
         <v>22</v>
@@ -3248,20 +3311,20 @@
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="43">
-        <v>11844</v>
-      </c>
-      <c r="F14" s="44">
-        <v>36331</v>
-      </c>
-      <c r="G14" s="44">
+      <c r="E14" s="45">
+        <v>32664.654489535667</v>
+      </c>
+      <c r="F14" s="45">
         <v>41433</v>
       </c>
-      <c r="H14" s="44">
+      <c r="G14" s="45">
         <v>44010</v>
       </c>
-      <c r="I14" s="44">
+      <c r="H14" s="45">
         <v>36946</v>
+      </c>
+      <c r="I14" s="45">
+        <v>0</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -3275,11 +3338,8 @@
       <c r="M14" s="45">
         <v>0</v>
       </c>
-      <c r="N14" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
@@ -3292,23 +3352,23 @@
       <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="43">
-        <v>1583</v>
-      </c>
-      <c r="F15" s="44">
-        <v>9086</v>
-      </c>
-      <c r="G15" s="44">
+      <c r="E15" s="45">
+        <v>10669</v>
+      </c>
+      <c r="F15" s="45">
         <v>8478</v>
       </c>
-      <c r="H15" s="44">
+      <c r="G15" s="45">
         <v>11561</v>
       </c>
-      <c r="I15" s="44">
+      <c r="H15" s="45">
         <v>4160</v>
       </c>
+      <c r="I15" s="45">
+        <v>28</v>
+      </c>
       <c r="J15" s="45">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K15" s="45">
         <v>0</v>
@@ -3319,11 +3379,8 @@
       <c r="M15" s="45">
         <v>0</v>
       </c>
-      <c r="N15" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -3334,23 +3391,23 @@
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="43">
-        <v>11580</v>
-      </c>
-      <c r="F16" s="44">
-        <v>37168</v>
-      </c>
-      <c r="G16" s="44">
+      <c r="E16" s="45">
+        <v>33371.411378760895</v>
+      </c>
+      <c r="F16" s="45">
         <v>43362</v>
       </c>
-      <c r="H16" s="44">
+      <c r="G16" s="45">
         <v>47684</v>
       </c>
-      <c r="I16" s="44">
+      <c r="H16" s="45">
         <v>49582</v>
       </c>
-      <c r="J16" s="44">
+      <c r="I16" s="45">
         <v>41296</v>
+      </c>
+      <c r="J16" s="45">
+        <v>0</v>
       </c>
       <c r="K16" s="45">
         <v>0</v>
@@ -3361,11 +3418,8 @@
       <c r="M16" s="45">
         <v>0</v>
       </c>
-      <c r="N16" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
@@ -3378,26 +3432,26 @@
       <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="43">
-        <v>1457</v>
-      </c>
-      <c r="F17" s="44">
-        <v>8263</v>
-      </c>
-      <c r="G17" s="44">
+      <c r="E17" s="45">
+        <v>9720</v>
+      </c>
+      <c r="F17" s="45">
         <v>7955</v>
       </c>
-      <c r="H17" s="44">
+      <c r="G17" s="45">
         <v>8565</v>
       </c>
-      <c r="I17" s="44">
+      <c r="H17" s="45">
         <v>10108</v>
       </c>
-      <c r="J17" s="44">
+      <c r="I17" s="45">
         <v>3204</v>
       </c>
+      <c r="J17" s="45">
+        <v>28</v>
+      </c>
       <c r="K17" s="45">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L17" s="45">
         <v>0</v>
@@ -3405,11 +3459,8 @@
       <c r="M17" s="45">
         <v>0</v>
       </c>
-      <c r="N17" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
@@ -3420,26 +3471,26 @@
       <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="43">
-        <v>11317</v>
-      </c>
-      <c r="F18" s="44">
-        <v>36726</v>
-      </c>
-      <c r="G18" s="44">
+      <c r="E18" s="45">
+        <v>32917.264094650207</v>
+      </c>
+      <c r="F18" s="45">
         <v>43009</v>
       </c>
-      <c r="H18" s="44">
+      <c r="G18" s="45">
         <v>46544</v>
       </c>
-      <c r="I18" s="44">
+      <c r="H18" s="45">
         <v>52315</v>
       </c>
-      <c r="J18" s="44">
+      <c r="I18" s="45">
         <v>54962</v>
       </c>
-      <c r="K18" s="44">
+      <c r="J18" s="45">
         <v>47316</v>
+      </c>
+      <c r="K18" s="45">
+        <v>0</v>
       </c>
       <c r="L18" s="45">
         <v>0</v>
@@ -3447,11 +3498,8 @@
       <c r="M18" s="45">
         <v>0</v>
       </c>
-      <c r="N18" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>28</v>
       </c>
@@ -3464,38 +3512,35 @@
       <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="43">
-        <v>1386</v>
-      </c>
-      <c r="F19" s="44">
-        <v>8105</v>
-      </c>
-      <c r="G19" s="44">
+      <c r="E19" s="45">
+        <v>9491</v>
+      </c>
+      <c r="F19" s="45">
         <v>8552</v>
       </c>
-      <c r="H19" s="44">
+      <c r="G19" s="45">
         <v>9082</v>
       </c>
-      <c r="I19" s="44">
+      <c r="H19" s="45">
         <v>8192</v>
       </c>
-      <c r="J19" s="44">
+      <c r="I19" s="45">
         <v>8470</v>
       </c>
-      <c r="K19" s="44">
+      <c r="J19" s="45">
         <v>2795</v>
       </c>
+      <c r="K19" s="45">
+        <v>28</v>
+      </c>
       <c r="L19" s="45">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M19" s="45">
         <v>0</v>
       </c>
-      <c r="N19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="6" t="s">
         <v>22</v>
@@ -3506,38 +3551,35 @@
       <c r="D20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="43">
-        <v>10989</v>
-      </c>
-      <c r="F20" s="44">
-        <v>36827</v>
-      </c>
-      <c r="G20" s="44">
+      <c r="E20" s="45">
+        <v>33053.797176272259</v>
+      </c>
+      <c r="F20" s="45">
         <v>42136</v>
       </c>
-      <c r="H20" s="44">
+      <c r="G20" s="45">
         <v>45079</v>
       </c>
-      <c r="I20" s="44">
+      <c r="H20" s="45">
         <v>49222</v>
       </c>
-      <c r="J20" s="44">
+      <c r="I20" s="45">
         <v>56824</v>
       </c>
-      <c r="K20" s="44">
+      <c r="J20" s="45">
         <v>58018</v>
       </c>
-      <c r="L20" s="44">
+      <c r="K20" s="45">
         <v>48339</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0</v>
       </c>
       <c r="M20" s="45">
         <v>0</v>
       </c>
-      <c r="N20" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>30</v>
       </c>
@@ -3550,38 +3592,35 @@
       <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="43">
-        <v>1053</v>
-      </c>
-      <c r="F21" s="44">
-        <v>6609</v>
-      </c>
-      <c r="G21" s="44">
+      <c r="E21" s="45">
+        <v>7662</v>
+      </c>
+      <c r="F21" s="45">
         <v>7366</v>
       </c>
-      <c r="H21" s="44">
+      <c r="G21" s="45">
         <v>8490</v>
       </c>
-      <c r="I21" s="44">
+      <c r="H21" s="45">
         <v>7613</v>
       </c>
-      <c r="J21" s="44">
+      <c r="I21" s="45">
         <v>5525</v>
       </c>
-      <c r="K21" s="44">
+      <c r="J21" s="45">
         <v>5883</v>
       </c>
-      <c r="L21" s="44">
+      <c r="K21" s="45">
         <v>1165</v>
       </c>
+      <c r="L21" s="45">
+        <v>12</v>
+      </c>
       <c r="M21" s="45">
-        <v>12</v>
-      </c>
-      <c r="N21" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>22</v>
@@ -3592,38 +3631,35 @@
       <c r="D22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="43">
-        <v>10993</v>
-      </c>
-      <c r="F22" s="44">
-        <v>37067</v>
-      </c>
-      <c r="G22" s="44">
+      <c r="E22" s="45">
+        <v>33483.611589663276</v>
+      </c>
+      <c r="F22" s="45">
         <v>41508</v>
       </c>
-      <c r="H22" s="44">
+      <c r="G22" s="45">
         <v>43036</v>
       </c>
-      <c r="I22" s="44">
+      <c r="H22" s="45">
         <v>45366</v>
       </c>
-      <c r="J22" s="44">
+      <c r="I22" s="45">
         <v>52660</v>
       </c>
-      <c r="K22" s="44">
+      <c r="J22" s="45">
         <v>59991</v>
       </c>
-      <c r="L22" s="44">
+      <c r="K22" s="45">
         <v>62425</v>
       </c>
-      <c r="M22" s="44">
+      <c r="L22" s="45">
         <v>55639</v>
       </c>
-      <c r="N22" s="45">
+      <c r="M22" s="45">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>32</v>
       </c>
@@ -3636,38 +3672,35 @@
       <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="46">
-        <v>835</v>
-      </c>
-      <c r="F23" s="44">
-        <v>5263</v>
-      </c>
-      <c r="G23" s="44">
+      <c r="E23" s="45">
+        <v>6098</v>
+      </c>
+      <c r="F23" s="45">
         <v>6276</v>
       </c>
-      <c r="H23" s="44">
+      <c r="G23" s="45">
         <v>7742</v>
       </c>
-      <c r="I23" s="44">
+      <c r="H23" s="45">
         <v>7426</v>
       </c>
-      <c r="J23" s="44">
+      <c r="I23" s="45">
         <v>5668</v>
       </c>
-      <c r="K23" s="44">
+      <c r="J23" s="45">
         <v>4320</v>
       </c>
-      <c r="L23" s="44">
+      <c r="K23" s="45">
         <v>1877</v>
       </c>
+      <c r="L23" s="45">
+        <v>438</v>
+      </c>
       <c r="M23" s="45">
-        <v>438</v>
-      </c>
-      <c r="N23" s="45">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
@@ -3678,38 +3711,35 @@
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="43">
-        <v>11252</v>
-      </c>
-      <c r="F24" s="44">
-        <v>38265</v>
-      </c>
-      <c r="G24" s="44">
+      <c r="E24" s="45">
+        <v>34566.106100360776</v>
+      </c>
+      <c r="F24" s="45">
         <v>41942</v>
       </c>
-      <c r="H24" s="44">
+      <c r="G24" s="45">
         <v>43008</v>
       </c>
-      <c r="I24" s="44">
+      <c r="H24" s="45">
         <v>44935</v>
       </c>
-      <c r="J24" s="44">
+      <c r="I24" s="45">
         <v>50237</v>
       </c>
-      <c r="K24" s="44">
+      <c r="J24" s="45">
         <v>57311</v>
       </c>
-      <c r="L24" s="44">
+      <c r="K24" s="45">
         <v>66244</v>
       </c>
-      <c r="M24" s="44">
+      <c r="L24" s="45">
         <v>64962</v>
       </c>
-      <c r="N24" s="44">
+      <c r="M24" s="45">
         <v>48924</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>34</v>
       </c>
@@ -3722,38 +3752,35 @@
       <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="46">
-        <v>360</v>
-      </c>
-      <c r="F25" s="44">
-        <v>2946</v>
-      </c>
-      <c r="G25" s="44">
+      <c r="E25" s="45">
+        <v>3306</v>
+      </c>
+      <c r="F25" s="45">
         <v>4453</v>
       </c>
-      <c r="H25" s="44">
+      <c r="G25" s="45">
         <v>5078</v>
       </c>
-      <c r="I25" s="44">
+      <c r="H25" s="45">
         <v>4609</v>
       </c>
-      <c r="J25" s="44">
+      <c r="I25" s="45">
         <v>3688</v>
       </c>
-      <c r="K25" s="44">
+      <c r="J25" s="45">
         <v>2455</v>
       </c>
-      <c r="L25" s="44">
+      <c r="K25" s="45">
         <v>1074</v>
       </c>
+      <c r="L25" s="45">
+        <v>562</v>
+      </c>
       <c r="M25" s="45">
-        <v>562</v>
-      </c>
-      <c r="N25" s="45">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>22</v>
@@ -3764,38 +3791,35 @@
       <c r="D26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="43">
-        <v>12460</v>
-      </c>
-      <c r="F26" s="44">
-        <v>39812</v>
-      </c>
-      <c r="G26" s="44">
+      <c r="E26" s="45">
+        <v>36833.560798548096</v>
+      </c>
+      <c r="F26" s="45">
         <v>43110</v>
       </c>
-      <c r="H26" s="44">
+      <c r="G26" s="45">
         <v>44455</v>
       </c>
-      <c r="I26" s="44">
+      <c r="H26" s="45">
         <v>47180</v>
       </c>
-      <c r="J26" s="44">
+      <c r="I26" s="45">
         <v>51659</v>
       </c>
-      <c r="K26" s="44">
+      <c r="J26" s="45">
         <v>57871</v>
       </c>
-      <c r="L26" s="44">
+      <c r="K26" s="45">
         <v>67674</v>
       </c>
-      <c r="M26" s="44">
+      <c r="L26" s="45">
         <v>74075</v>
       </c>
-      <c r="N26" s="44">
+      <c r="M26" s="45">
         <v>70447</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>92</v>
       </c>
@@ -3808,38 +3832,35 @@
       <c r="D27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="46">
-        <v>115</v>
+      <c r="E27" s="45">
+        <v>943</v>
       </c>
       <c r="F27" s="45">
-        <v>828</v>
-      </c>
-      <c r="G27" s="44">
         <v>1520</v>
       </c>
-      <c r="H27" s="44">
+      <c r="G27" s="45">
         <v>1702</v>
       </c>
-      <c r="I27" s="44">
+      <c r="H27" s="45">
         <v>1227</v>
       </c>
+      <c r="I27" s="45">
+        <v>876</v>
+      </c>
       <c r="J27" s="45">
-        <v>876</v>
+        <v>495</v>
       </c>
       <c r="K27" s="45">
-        <v>495</v>
+        <v>297</v>
       </c>
       <c r="L27" s="45">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="M27" s="45">
-        <v>213</v>
-      </c>
-      <c r="N27" s="45">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="6" t="s">
         <v>22</v>
@@ -3850,38 +3871,35 @@
       <c r="D28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="43">
-        <v>10206</v>
-      </c>
-      <c r="F28" s="44">
-        <v>41638</v>
-      </c>
-      <c r="G28" s="44">
+      <c r="E28" s="45">
+        <v>37804.829268292684</v>
+      </c>
+      <c r="F28" s="45">
         <v>46084</v>
       </c>
-      <c r="H28" s="44">
+      <c r="G28" s="45">
         <v>49316</v>
       </c>
-      <c r="I28" s="44">
+      <c r="H28" s="45">
         <v>50306</v>
       </c>
-      <c r="J28" s="44">
+      <c r="I28" s="45">
         <v>55555</v>
       </c>
-      <c r="K28" s="44">
+      <c r="J28" s="45">
         <v>65985</v>
       </c>
-      <c r="L28" s="44">
+      <c r="K28" s="45">
         <v>80804</v>
       </c>
-      <c r="M28" s="44">
+      <c r="L28" s="45">
         <v>78630</v>
       </c>
-      <c r="N28" s="44">
+      <c r="M28" s="45">
         <v>76983</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>93</v>
       </c>
@@ -3894,38 +3912,35 @@
       <c r="D29" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="46">
-        <v>42</v>
+      <c r="E29" s="45">
+        <v>301</v>
       </c>
       <c r="F29" s="45">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="G29" s="45">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="H29" s="45">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="I29" s="45">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="J29" s="45">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="K29" s="45">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="L29" s="45">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M29" s="45">
-        <v>59</v>
-      </c>
-      <c r="N29" s="45">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="6" t="s">
         <v>22</v>
@@ -3936,34 +3951,31 @@
       <c r="D30" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="43">
-        <v>14371</v>
-      </c>
-      <c r="F30" s="44">
-        <v>36682</v>
-      </c>
-      <c r="G30" s="44">
+      <c r="E30" s="45">
+        <v>33568.837209302328</v>
+      </c>
+      <c r="F30" s="45">
         <v>38150</v>
       </c>
-      <c r="H30" s="44">
+      <c r="G30" s="45">
         <v>43310</v>
       </c>
-      <c r="I30" s="44">
+      <c r="H30" s="45">
         <v>44930</v>
       </c>
-      <c r="J30" s="44">
+      <c r="I30" s="45">
         <v>54768</v>
       </c>
-      <c r="K30" s="44">
+      <c r="J30" s="45">
         <v>60439</v>
       </c>
-      <c r="L30" s="44">
+      <c r="K30" s="45">
         <v>70819</v>
       </c>
-      <c r="M30" s="44">
+      <c r="L30" s="45">
         <v>84630</v>
       </c>
-      <c r="N30" s="44">
+      <c r="M30" s="45">
         <v>92039</v>
       </c>
     </row>
@@ -3977,20 +3989,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3998,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4018,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
@@ -4017,38 +4029,41 @@
       <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="29">
-        <v>42739</v>
+      <c r="F6" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="J6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="L6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="M6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="N6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="O6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -4066,31 +4081,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
         <v>7</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>12</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>17</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>22</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>27</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>32</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>37</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -4103,32 +4121,35 @@
       <c r="F8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>19</v>
       </c>
@@ -4147,11 +4168,12 @@
       <c r="F9" s="44">
         <v>4463</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
+        <f>E9+F9</f>
+        <v>7596</v>
+      </c>
+      <c r="H9" s="45">
         <v>24</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
       </c>
       <c r="I9" s="45">
         <v>0</v>
@@ -4171,11 +4193,14 @@
       <c r="N9" s="45">
         <v>0</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="37">
         <v>7620</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -4193,10 +4218,11 @@
         <v>31396</v>
       </c>
       <c r="G10" s="44">
+        <f>(E10*E9+F10*F9)/G9</f>
+        <v>23889.751053185886</v>
+      </c>
+      <c r="H10" s="44">
         <v>33188</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0</v>
       </c>
       <c r="I10" s="45">
         <v>0</v>
@@ -4216,11 +4242,14 @@
       <c r="N10" s="45">
         <v>0</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="45">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
         <v>23919</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
@@ -4240,13 +4269,14 @@
         <v>19491</v>
       </c>
       <c r="G11" s="44">
+        <f>E11+F11</f>
+        <v>22924</v>
+      </c>
+      <c r="H11" s="44">
         <v>4228</v>
       </c>
-      <c r="H11" s="45">
+      <c r="I11" s="45">
         <v>47</v>
-      </c>
-      <c r="I11" s="45">
-        <v>0</v>
       </c>
       <c r="J11" s="45">
         <v>0</v>
@@ -4263,11 +4293,14 @@
       <c r="N11" s="45">
         <v>0</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="45">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
         <v>27199</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -4285,13 +4318,14 @@
         <v>34951</v>
       </c>
       <c r="G12" s="44">
+        <f>(E12*E11+F12*F11)/G11</f>
+        <v>31509.763435700577</v>
+      </c>
+      <c r="H12" s="44">
         <v>38849</v>
       </c>
-      <c r="H12" s="44">
+      <c r="I12" s="44">
         <v>34271</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0</v>
       </c>
       <c r="J12" s="45">
         <v>0</v>
@@ -4308,11 +4342,14 @@
       <c r="N12" s="45">
         <v>0</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="45">
+        <v>0</v>
+      </c>
+      <c r="P12" s="37">
         <v>32655</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>24</v>
       </c>
@@ -4332,16 +4369,17 @@
         <v>11335</v>
       </c>
       <c r="G13" s="44">
+        <f>E13+F13</f>
+        <v>13331</v>
+      </c>
+      <c r="H13" s="44">
         <v>12275</v>
       </c>
-      <c r="H13" s="44">
+      <c r="I13" s="44">
         <v>5254</v>
       </c>
-      <c r="I13" s="45">
+      <c r="J13" s="45">
         <v>44</v>
-      </c>
-      <c r="J13" s="45">
-        <v>0</v>
       </c>
       <c r="K13" s="45">
         <v>0</v>
@@ -4355,11 +4393,14 @@
       <c r="N13" s="45">
         <v>0</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="45">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
         <v>30904</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="6" t="s">
         <v>22</v>
@@ -4377,16 +4418,17 @@
         <v>36331</v>
       </c>
       <c r="G14" s="44">
+        <f>(E14*E13+F14*F13)/G13</f>
+        <v>32664.654489535667</v>
+      </c>
+      <c r="H14" s="44">
         <v>41433</v>
       </c>
-      <c r="H14" s="44">
+      <c r="I14" s="44">
         <v>44010</v>
       </c>
-      <c r="I14" s="44">
+      <c r="J14" s="44">
         <v>36946</v>
-      </c>
-      <c r="J14" s="45">
-        <v>0</v>
       </c>
       <c r="K14" s="45">
         <v>0</v>
@@ -4400,11 +4442,14 @@
       <c r="N14" s="45">
         <v>0</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="45">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37">
         <v>38082</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
@@ -4424,19 +4469,20 @@
         <v>9086</v>
       </c>
       <c r="G15" s="44">
+        <f>E15+F15</f>
+        <v>10669</v>
+      </c>
+      <c r="H15" s="44">
         <v>8478</v>
       </c>
-      <c r="H15" s="44">
+      <c r="I15" s="44">
         <v>11561</v>
       </c>
-      <c r="I15" s="44">
+      <c r="J15" s="44">
         <v>4160</v>
       </c>
-      <c r="J15" s="45">
+      <c r="K15" s="45">
         <v>28</v>
-      </c>
-      <c r="K15" s="45">
-        <v>0</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
@@ -4447,11 +4493,14 @@
       <c r="N15" s="45">
         <v>0</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="45">
+        <v>0</v>
+      </c>
+      <c r="P15" s="37">
         <v>34896</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -4469,19 +4518,20 @@
         <v>37168</v>
       </c>
       <c r="G16" s="44">
+        <f>(E16*E15+F16*F15)/G15</f>
+        <v>33371.411378760895</v>
+      </c>
+      <c r="H16" s="44">
         <v>43362</v>
       </c>
-      <c r="H16" s="44">
+      <c r="I16" s="44">
         <v>47684</v>
       </c>
-      <c r="I16" s="44">
+      <c r="J16" s="44">
         <v>49582</v>
       </c>
-      <c r="J16" s="44">
+      <c r="K16" s="44">
         <v>41296</v>
-      </c>
-      <c r="K16" s="45">
-        <v>0</v>
       </c>
       <c r="L16" s="45">
         <v>0</v>
@@ -4492,11 +4542,14 @@
       <c r="N16" s="45">
         <v>0</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="45">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37">
         <v>42479</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>26</v>
       </c>
@@ -4516,22 +4569,23 @@
         <v>8263</v>
       </c>
       <c r="G17" s="44">
+        <f>E17+F17</f>
+        <v>9720</v>
+      </c>
+      <c r="H17" s="44">
         <v>7955</v>
       </c>
-      <c r="H17" s="44">
+      <c r="I17" s="44">
         <v>8565</v>
       </c>
-      <c r="I17" s="44">
+      <c r="J17" s="44">
         <v>10108</v>
       </c>
-      <c r="J17" s="44">
+      <c r="K17" s="44">
         <v>3204</v>
       </c>
-      <c r="K17" s="45">
+      <c r="L17" s="45">
         <v>28</v>
-      </c>
-      <c r="L17" s="45">
-        <v>0</v>
       </c>
       <c r="M17" s="45">
         <v>0</v>
@@ -4539,11 +4593,14 @@
       <c r="N17" s="45">
         <v>0</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="45">
+        <v>0</v>
+      </c>
+      <c r="P17" s="37">
         <v>39580</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
@@ -4561,22 +4618,23 @@
         <v>36726</v>
       </c>
       <c r="G18" s="44">
+        <f>(E18*E17+F18*F17)/G17</f>
+        <v>32917.264094650207</v>
+      </c>
+      <c r="H18" s="44">
         <v>43009</v>
       </c>
-      <c r="H18" s="44">
+      <c r="I18" s="44">
         <v>46544</v>
       </c>
-      <c r="I18" s="44">
+      <c r="J18" s="44">
         <v>52315</v>
       </c>
-      <c r="J18" s="44">
+      <c r="K18" s="44">
         <v>54962</v>
       </c>
-      <c r="K18" s="44">
+      <c r="L18" s="44">
         <v>47316</v>
-      </c>
-      <c r="L18" s="45">
-        <v>0</v>
       </c>
       <c r="M18" s="45">
         <v>0</v>
@@ -4584,11 +4642,14 @@
       <c r="N18" s="45">
         <v>0</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="45">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
         <v>44643</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>28</v>
       </c>
@@ -4608,34 +4669,38 @@
         <v>8105</v>
       </c>
       <c r="G19" s="44">
+        <f>E19+F19</f>
+        <v>9491</v>
+      </c>
+      <c r="H19" s="44">
         <v>8552</v>
       </c>
-      <c r="H19" s="44">
+      <c r="I19" s="44">
         <v>9082</v>
       </c>
-      <c r="I19" s="44">
+      <c r="J19" s="44">
         <v>8192</v>
       </c>
-      <c r="J19" s="44">
+      <c r="K19" s="44">
         <v>8470</v>
       </c>
-      <c r="K19" s="44">
+      <c r="L19" s="44">
         <v>2795</v>
       </c>
-      <c r="L19" s="45">
+      <c r="M19" s="45">
         <v>28</v>
-      </c>
-      <c r="M19" s="45">
-        <v>0</v>
       </c>
       <c r="N19" s="45">
         <v>0</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="45">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
         <v>46610</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="6" t="s">
         <v>22</v>
@@ -4653,34 +4718,38 @@
         <v>36827</v>
       </c>
       <c r="G20" s="44">
+        <f>(E20*E19+F20*F19)/G19</f>
+        <v>33053.797176272259</v>
+      </c>
+      <c r="H20" s="44">
         <v>42136</v>
       </c>
-      <c r="H20" s="44">
+      <c r="I20" s="44">
         <v>45079</v>
       </c>
-      <c r="I20" s="44">
+      <c r="J20" s="44">
         <v>49222</v>
       </c>
-      <c r="J20" s="44">
+      <c r="K20" s="44">
         <v>56824</v>
       </c>
-      <c r="K20" s="44">
+      <c r="L20" s="44">
         <v>58018</v>
       </c>
-      <c r="L20" s="44">
+      <c r="M20" s="44">
         <v>48339</v>
-      </c>
-      <c r="M20" s="45">
-        <v>0</v>
       </c>
       <c r="N20" s="45">
         <v>0</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="45">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
         <v>45731</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>30</v>
       </c>
@@ -4700,34 +4769,38 @@
         <v>6609</v>
       </c>
       <c r="G21" s="44">
+        <f>E21+F21</f>
+        <v>7662</v>
+      </c>
+      <c r="H21" s="44">
         <v>7366</v>
       </c>
-      <c r="H21" s="44">
+      <c r="I21" s="44">
         <v>8490</v>
       </c>
-      <c r="I21" s="44">
+      <c r="J21" s="44">
         <v>7613</v>
       </c>
-      <c r="J21" s="44">
+      <c r="K21" s="44">
         <v>5525</v>
       </c>
-      <c r="K21" s="44">
+      <c r="L21" s="44">
         <v>5883</v>
       </c>
-      <c r="L21" s="44">
+      <c r="M21" s="44">
         <v>1165</v>
       </c>
-      <c r="M21" s="45">
+      <c r="N21" s="45">
         <v>12</v>
       </c>
-      <c r="N21" s="45">
+      <c r="O21" s="45">
         <v>0</v>
       </c>
-      <c r="O21" s="37">
+      <c r="P21" s="37">
         <v>43716</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>22</v>
@@ -4745,34 +4818,38 @@
         <v>37067</v>
       </c>
       <c r="G22" s="44">
+        <f>(E22*E21+F22*F21)/G21</f>
+        <v>33483.611589663276</v>
+      </c>
+      <c r="H22" s="44">
         <v>41508</v>
       </c>
-      <c r="H22" s="44">
+      <c r="I22" s="44">
         <v>43036</v>
       </c>
-      <c r="I22" s="44">
+      <c r="J22" s="44">
         <v>45366</v>
       </c>
-      <c r="J22" s="44">
+      <c r="K22" s="44">
         <v>52660</v>
       </c>
-      <c r="K22" s="44">
+      <c r="L22" s="44">
         <v>59991</v>
       </c>
-      <c r="L22" s="44">
+      <c r="M22" s="44">
         <v>62425</v>
       </c>
-      <c r="M22" s="44">
+      <c r="N22" s="44">
         <v>55639</v>
       </c>
-      <c r="N22" s="45">
+      <c r="O22" s="45">
         <v>0</v>
       </c>
-      <c r="O22" s="37">
+      <c r="P22" s="37">
         <v>45528</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>32</v>
       </c>
@@ -4792,34 +4869,38 @@
         <v>5263</v>
       </c>
       <c r="G23" s="44">
+        <f>E23+F23</f>
+        <v>6098</v>
+      </c>
+      <c r="H23" s="44">
         <v>6276</v>
       </c>
-      <c r="H23" s="44">
+      <c r="I23" s="44">
         <v>7742</v>
       </c>
-      <c r="I23" s="44">
+      <c r="J23" s="44">
         <v>7426</v>
       </c>
-      <c r="J23" s="44">
+      <c r="K23" s="44">
         <v>5668</v>
       </c>
-      <c r="K23" s="44">
+      <c r="L23" s="44">
         <v>4320</v>
       </c>
-      <c r="L23" s="44">
+      <c r="M23" s="44">
         <v>1877</v>
       </c>
-      <c r="M23" s="45">
+      <c r="N23" s="45">
         <v>438</v>
       </c>
-      <c r="N23" s="45">
+      <c r="O23" s="45">
         <v>7</v>
       </c>
-      <c r="O23" s="37">
+      <c r="P23" s="37">
         <v>39852</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
@@ -4837,34 +4918,38 @@
         <v>38265</v>
       </c>
       <c r="G24" s="44">
+        <f>(E24*E23+F24*F23)/G23</f>
+        <v>34566.106100360776</v>
+      </c>
+      <c r="H24" s="44">
         <v>41942</v>
       </c>
-      <c r="H24" s="44">
+      <c r="I24" s="44">
         <v>43008</v>
       </c>
-      <c r="I24" s="44">
+      <c r="J24" s="44">
         <v>44935</v>
       </c>
-      <c r="J24" s="44">
+      <c r="K24" s="44">
         <v>50237</v>
       </c>
-      <c r="K24" s="44">
+      <c r="L24" s="44">
         <v>57311</v>
       </c>
-      <c r="L24" s="44">
+      <c r="M24" s="44">
         <v>66244</v>
       </c>
-      <c r="M24" s="44">
+      <c r="N24" s="44">
         <v>64962</v>
       </c>
-      <c r="N24" s="44">
+      <c r="O24" s="44">
         <v>48924</v>
       </c>
-      <c r="O24" s="37">
+      <c r="P24" s="37">
         <v>45823</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>34</v>
       </c>
@@ -4884,34 +4969,38 @@
         <v>2946</v>
       </c>
       <c r="G25" s="44">
+        <f>E25+F25</f>
+        <v>3306</v>
+      </c>
+      <c r="H25" s="44">
         <v>4453</v>
       </c>
-      <c r="H25" s="44">
+      <c r="I25" s="44">
         <v>5078</v>
       </c>
-      <c r="I25" s="44">
+      <c r="J25" s="44">
         <v>4609</v>
       </c>
-      <c r="J25" s="44">
+      <c r="K25" s="44">
         <v>3688</v>
       </c>
-      <c r="K25" s="44">
+      <c r="L25" s="44">
         <v>2455</v>
       </c>
-      <c r="L25" s="44">
+      <c r="M25" s="44">
         <v>1074</v>
       </c>
-      <c r="M25" s="45">
+      <c r="N25" s="45">
         <v>562</v>
       </c>
-      <c r="N25" s="45">
+      <c r="O25" s="45">
         <v>167</v>
       </c>
-      <c r="O25" s="37">
+      <c r="P25" s="37">
         <v>25392</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>22</v>
@@ -4929,34 +5018,38 @@
         <v>39812</v>
       </c>
       <c r="G26" s="44">
+        <f>(E26*E25+F26*F25)/G25</f>
+        <v>36833.560798548096</v>
+      </c>
+      <c r="H26" s="44">
         <v>43110</v>
       </c>
-      <c r="H26" s="44">
+      <c r="I26" s="44">
         <v>44455</v>
       </c>
-      <c r="I26" s="44">
+      <c r="J26" s="44">
         <v>47180</v>
       </c>
-      <c r="J26" s="44">
+      <c r="K26" s="44">
         <v>51659</v>
       </c>
-      <c r="K26" s="44">
+      <c r="L26" s="44">
         <v>57871</v>
       </c>
-      <c r="L26" s="44">
+      <c r="M26" s="44">
         <v>67674</v>
       </c>
-      <c r="M26" s="44">
+      <c r="N26" s="44">
         <v>74075</v>
       </c>
-      <c r="N26" s="44">
+      <c r="O26" s="44">
         <v>70447</v>
       </c>
-      <c r="O26" s="37">
+      <c r="P26" s="37">
         <v>47874</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>92</v>
       </c>
@@ -4976,34 +5069,38 @@
         <v>828</v>
       </c>
       <c r="G27" s="44">
+        <f>E27+F27</f>
+        <v>943</v>
+      </c>
+      <c r="H27" s="44">
         <v>1520</v>
       </c>
-      <c r="H27" s="44">
+      <c r="I27" s="44">
         <v>1702</v>
       </c>
-      <c r="I27" s="44">
+      <c r="J27" s="44">
         <v>1227</v>
       </c>
-      <c r="J27" s="45">
+      <c r="K27" s="45">
         <v>876</v>
       </c>
-      <c r="K27" s="45">
+      <c r="L27" s="45">
         <v>495</v>
       </c>
-      <c r="L27" s="45">
+      <c r="M27" s="45">
         <v>297</v>
       </c>
-      <c r="M27" s="45">
+      <c r="N27" s="45">
         <v>213</v>
       </c>
-      <c r="N27" s="45">
+      <c r="O27" s="45">
         <v>147</v>
       </c>
-      <c r="O27" s="37">
+      <c r="P27" s="37">
         <v>7420</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="6" t="s">
         <v>22</v>
@@ -5021,34 +5118,38 @@
         <v>41638</v>
       </c>
       <c r="G28" s="44">
+        <f>(E28*E27+F28*F27)/G27</f>
+        <v>37804.829268292684</v>
+      </c>
+      <c r="H28" s="44">
         <v>46084</v>
       </c>
-      <c r="H28" s="44">
+      <c r="I28" s="44">
         <v>49316</v>
       </c>
-      <c r="I28" s="44">
+      <c r="J28" s="44">
         <v>50306</v>
       </c>
-      <c r="J28" s="44">
+      <c r="K28" s="44">
         <v>55555</v>
       </c>
-      <c r="K28" s="44">
+      <c r="L28" s="44">
         <v>65985</v>
       </c>
-      <c r="L28" s="44">
+      <c r="M28" s="44">
         <v>80804</v>
       </c>
-      <c r="M28" s="44">
+      <c r="N28" s="44">
         <v>78630</v>
       </c>
-      <c r="N28" s="44">
+      <c r="O28" s="44">
         <v>76983</v>
       </c>
-      <c r="O28" s="37">
+      <c r="P28" s="37">
         <v>51853</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>93</v>
       </c>
@@ -5063,35 +5164,39 @@
       <c r="F29" s="45">
         <v>259</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="44">
+        <f>E29+F29</f>
+        <v>301</v>
+      </c>
+      <c r="H29" s="45">
         <v>383</v>
       </c>
-      <c r="H29" s="45">
+      <c r="I29" s="45">
         <v>486</v>
       </c>
-      <c r="I29" s="45">
+      <c r="J29" s="45">
         <v>364</v>
       </c>
-      <c r="J29" s="45">
+      <c r="K29" s="45">
         <v>202</v>
       </c>
-      <c r="K29" s="45">
+      <c r="L29" s="45">
         <v>137</v>
       </c>
-      <c r="L29" s="45">
+      <c r="M29" s="45">
         <v>69</v>
       </c>
-      <c r="M29" s="45">
+      <c r="N29" s="45">
         <v>59</v>
       </c>
-      <c r="N29" s="45">
+      <c r="O29" s="45">
         <v>101</v>
       </c>
-      <c r="O29" s="37">
+      <c r="P29" s="37">
         <v>2102</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
@@ -5104,34 +5209,38 @@
         <v>36682</v>
       </c>
       <c r="G30" s="44">
+        <f>(E30*E29+F30*F29)/G29</f>
+        <v>33568.837209302328</v>
+      </c>
+      <c r="H30" s="44">
         <v>38150</v>
       </c>
-      <c r="H30" s="44">
+      <c r="I30" s="44">
         <v>43310</v>
       </c>
-      <c r="I30" s="44">
+      <c r="J30" s="44">
         <v>44930</v>
       </c>
-      <c r="J30" s="44">
+      <c r="K30" s="44">
         <v>54768</v>
       </c>
-      <c r="K30" s="44">
+      <c r="L30" s="44">
         <v>60439</v>
       </c>
-      <c r="L30" s="44">
+      <c r="M30" s="44">
         <v>70819</v>
       </c>
-      <c r="M30" s="44">
+      <c r="N30" s="44">
         <v>84630</v>
       </c>
-      <c r="N30" s="44">
+      <c r="O30" s="44">
         <v>92039</v>
       </c>
-      <c r="O30" s="37">
+      <c r="P30" s="37">
         <v>47877</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>94</v>
       </c>
@@ -5144,35 +5253,39 @@
       <c r="F31" s="35">
         <v>76648</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="44">
+        <f>E31+F31</f>
+        <v>92041</v>
+      </c>
+      <c r="H31" s="35">
         <v>61510</v>
       </c>
-      <c r="H31" s="35">
+      <c r="I31" s="35">
         <v>58007</v>
       </c>
-      <c r="I31" s="35">
+      <c r="J31" s="35">
         <v>43743</v>
       </c>
-      <c r="J31" s="35">
+      <c r="K31" s="35">
         <v>27661</v>
       </c>
-      <c r="K31" s="35">
+      <c r="L31" s="35">
         <v>16113</v>
       </c>
-      <c r="L31" s="35">
+      <c r="M31" s="35">
         <v>4510</v>
       </c>
-      <c r="M31" s="35">
+      <c r="N31" s="35">
         <v>1284</v>
       </c>
-      <c r="N31" s="36">
+      <c r="O31" s="36">
         <v>422</v>
       </c>
-      <c r="O31" s="37">
+      <c r="P31" s="37">
         <v>305291</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>94</v>
       </c>
@@ -5185,31 +5298,35 @@
       <c r="F32" s="40">
         <v>36276</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="44">
+        <f>(E32*E31+F32*F31)/G31</f>
+        <v>32201.515161721407</v>
+      </c>
+      <c r="H32" s="40">
         <v>42096</v>
       </c>
-      <c r="H32" s="40">
+      <c r="I32" s="40">
         <v>45188</v>
       </c>
-      <c r="I32" s="40">
+      <c r="J32" s="40">
         <v>48339</v>
       </c>
-      <c r="J32" s="40">
+      <c r="K32" s="40">
         <v>53667</v>
       </c>
-      <c r="K32" s="40">
+      <c r="L32" s="40">
         <v>58773</v>
       </c>
-      <c r="L32" s="40">
+      <c r="M32" s="40">
         <v>66516</v>
       </c>
-      <c r="M32" s="40">
+      <c r="N32" s="40">
         <v>72035</v>
       </c>
-      <c r="N32" s="40">
+      <c r="O32" s="40">
         <v>77534</v>
       </c>
-      <c r="O32" s="41">
+      <c r="P32" s="41">
         <v>43059</v>
       </c>
     </row>
@@ -5225,10 +5342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,1093 +5416,1051 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>3040</v>
+        <v>67342</v>
       </c>
       <c r="D10">
-        <v>380</v>
+        <v>801.69047619047615</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C11">
-        <v>2881</v>
+        <v>131799</v>
       </c>
       <c r="D11">
-        <v>720.25</v>
+        <v>1198.1727272727273</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C12">
-        <v>22888</v>
+        <v>399233</v>
       </c>
       <c r="D12">
-        <v>1430.5</v>
+        <v>1287.8483870967741</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>727</v>
       </c>
       <c r="C13">
-        <v>38533</v>
+        <v>1312019</v>
       </c>
       <c r="D13">
-        <v>688.08928571428567</v>
+        <v>1804.7028885832187</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>1274</v>
       </c>
       <c r="C14">
-        <v>131799</v>
+        <v>2952220</v>
       </c>
       <c r="D14">
-        <v>1198.1727272727273</v>
+        <v>2317.2841444270016</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>310</v>
+        <v>1878</v>
       </c>
       <c r="C15">
-        <v>399233</v>
+        <v>5705204</v>
       </c>
       <c r="D15">
-        <v>1287.8483870967741</v>
+        <v>3037.9148029818957</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>727</v>
+        <v>2355</v>
       </c>
       <c r="C16">
-        <v>1312019</v>
+        <v>8208026</v>
       </c>
       <c r="D16">
-        <v>1804.7028885832187</v>
+        <v>3485.3613588110402</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>1274</v>
+        <v>2704</v>
       </c>
       <c r="C17">
-        <v>2952220</v>
+        <v>10983224</v>
       </c>
       <c r="D17">
-        <v>2317.2841444270016</v>
+        <v>4061.8431952662722</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>1878</v>
+        <v>3001</v>
       </c>
       <c r="C18">
-        <v>5705204</v>
+        <v>13680456</v>
       </c>
       <c r="D18">
-        <v>3037.9148029818957</v>
+        <v>4558.632455848051</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>2355</v>
+        <v>3541</v>
       </c>
       <c r="C19">
-        <v>8208026</v>
+        <v>19055317</v>
       </c>
       <c r="D19">
-        <v>3485.3613588110402</v>
+        <v>5381.3377576955663</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>2704</v>
+        <v>4139</v>
       </c>
       <c r="C20">
-        <v>10983224</v>
+        <v>24452348</v>
       </c>
       <c r="D20">
-        <v>4061.8431952662722</v>
+        <v>5907.7912539260687</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>3001</v>
+        <v>4348</v>
       </c>
       <c r="C21">
-        <v>13680456</v>
+        <v>29917337</v>
       </c>
       <c r="D21">
-        <v>4558.632455848051</v>
+        <v>6880.7122815087396</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>3541</v>
+        <v>4744</v>
       </c>
       <c r="C22">
-        <v>19055317</v>
+        <v>34908203</v>
       </c>
       <c r="D22">
-        <v>5381.3377576955663</v>
+        <v>7358.3901770657676</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>4139</v>
+        <v>4887</v>
       </c>
       <c r="C23">
-        <v>24452348</v>
+        <v>39402492</v>
       </c>
       <c r="D23">
-        <v>5907.7912539260687</v>
+        <v>8062.7157765500306</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>4348</v>
+        <v>4761</v>
       </c>
       <c r="C24">
-        <v>29917337</v>
+        <v>42132474</v>
       </c>
       <c r="D24">
-        <v>6880.7122815087396</v>
+        <v>8849.500945179585</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>4744</v>
+        <v>4904</v>
       </c>
       <c r="C25">
-        <v>34908203</v>
+        <v>44721421</v>
       </c>
       <c r="D25">
-        <v>7358.3901770657676</v>
+        <v>9119.3762234910282</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>4887</v>
+        <v>4705</v>
       </c>
       <c r="C26">
-        <v>39402492</v>
+        <v>45874217</v>
       </c>
       <c r="D26">
-        <v>8062.7157765500306</v>
+        <v>9750.0992561105213</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>4761</v>
+        <v>4640</v>
       </c>
       <c r="C27">
-        <v>42132474</v>
+        <v>48136258</v>
       </c>
       <c r="D27">
-        <v>8849.500945179585</v>
+        <v>10374.193534482758</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>4904</v>
+        <v>4538</v>
       </c>
       <c r="C28">
-        <v>44721421</v>
+        <v>49552249</v>
       </c>
       <c r="D28">
-        <v>9119.3762234910282</v>
+        <v>10919.402600264433</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>4705</v>
+        <v>4117</v>
       </c>
       <c r="C29">
-        <v>45874217</v>
+        <v>47942957</v>
       </c>
       <c r="D29">
-        <v>9750.0992561105213</v>
+        <v>11645.119504493563</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>4640</v>
+        <v>4285</v>
       </c>
       <c r="C30">
-        <v>48136258</v>
+        <v>51434414</v>
       </c>
       <c r="D30">
-        <v>10374.193534482758</v>
+        <v>12003.363827304551</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>4538</v>
+        <v>4085</v>
       </c>
       <c r="C31">
-        <v>49552249</v>
+        <v>52719620</v>
       </c>
       <c r="D31">
-        <v>10919.402600264433</v>
+        <v>12905.659730722155</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>4117</v>
+        <v>4143</v>
       </c>
       <c r="C32">
-        <v>47942957</v>
+        <v>54672736</v>
       </c>
       <c r="D32">
-        <v>11645.119504493563</v>
+        <v>13196.41226164615</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>4285</v>
+        <v>4157</v>
       </c>
       <c r="C33">
-        <v>51434414</v>
+        <v>56568333</v>
       </c>
       <c r="D33">
-        <v>12003.363827304551</v>
+        <v>13607.970411354341</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>4085</v>
+        <v>4521</v>
       </c>
       <c r="C34">
-        <v>52719620</v>
+        <v>64463299</v>
       </c>
       <c r="D34">
-        <v>12905.659730722155</v>
+        <v>14258.637248396373</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>4143</v>
+        <v>4337</v>
       </c>
       <c r="C35">
-        <v>54672736</v>
+        <v>62020192</v>
       </c>
       <c r="D35">
-        <v>13196.41226164615</v>
+        <v>14300.251786949504</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>4157</v>
+        <v>3924</v>
       </c>
       <c r="C36">
-        <v>56568333</v>
+        <v>59310262</v>
       </c>
       <c r="D36">
-        <v>13607.970411354341</v>
+        <v>15114.745667686035</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>4521</v>
+        <v>3656</v>
       </c>
       <c r="C37">
-        <v>64463299</v>
+        <v>57295924</v>
       </c>
       <c r="D37">
-        <v>14258.637248396373</v>
+        <v>15671.751641137855</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>4337</v>
+        <v>3501</v>
       </c>
       <c r="C38">
-        <v>62020192</v>
+        <v>56788887</v>
       </c>
       <c r="D38">
-        <v>14300.251786949504</v>
+        <v>16220.761782347901</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>3924</v>
+        <v>3355</v>
       </c>
       <c r="C39">
-        <v>59310262</v>
+        <v>53828380</v>
       </c>
       <c r="D39">
-        <v>15114.745667686035</v>
+        <v>16044.22652757079</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40">
-        <v>3656</v>
+        <v>3377</v>
       </c>
       <c r="C40">
-        <v>57295924</v>
+        <v>51703541</v>
       </c>
       <c r="D40">
-        <v>15671.751641137855</v>
+        <v>15310.494817885698</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>3501</v>
+        <v>3270</v>
       </c>
       <c r="C41">
-        <v>56788887</v>
+        <v>53474744</v>
       </c>
       <c r="D41">
-        <v>16220.761782347901</v>
+        <v>16353.132721712538</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>3355</v>
+        <v>3226</v>
       </c>
       <c r="C42">
-        <v>53828380</v>
+        <v>52549494</v>
       </c>
       <c r="D42">
-        <v>16044.22652757079</v>
+        <v>16289.365778053318</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>3377</v>
+        <v>3136</v>
       </c>
       <c r="C43">
-        <v>51703541</v>
+        <v>52914453</v>
       </c>
       <c r="D43">
-        <v>15310.494817885698</v>
+        <v>16873.23118622449</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>3270</v>
+        <v>3146</v>
       </c>
       <c r="C44">
-        <v>53474744</v>
+        <v>54524881</v>
       </c>
       <c r="D44">
-        <v>16353.132721712538</v>
+        <v>17331.494278448823</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>3226</v>
+        <v>2870</v>
       </c>
       <c r="C45">
-        <v>52549494</v>
+        <v>53268149</v>
       </c>
       <c r="D45">
-        <v>16289.365778053318</v>
+        <v>18560.330662020904</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="54">
-        <v>54</v>
+      <c r="A46" s="56">
+        <v>57</v>
       </c>
       <c r="B46">
-        <v>3136</v>
+        <v>2836</v>
       </c>
       <c r="C46">
-        <v>52914453</v>
+        <v>54321157</v>
       </c>
       <c r="D46">
-        <v>16873.23118622449</v>
+        <v>19154.145627644572</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>3146</v>
+        <v>2829</v>
       </c>
       <c r="C47">
-        <v>54524881</v>
+        <v>53878990</v>
       </c>
       <c r="D47">
-        <v>17331.494278448823</v>
+        <v>19045.242135030046</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>2870</v>
+        <v>2732</v>
       </c>
       <c r="C48">
-        <v>53268149</v>
+        <v>55233914</v>
       </c>
       <c r="D48">
-        <v>18560.330662020904</v>
+        <v>20217.391654465591</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="56">
-        <v>57</v>
+      <c r="A49" s="54">
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>2836</v>
+        <v>2466</v>
       </c>
       <c r="C49">
-        <v>54321157</v>
+        <v>49852263</v>
       </c>
       <c r="D49">
-        <v>19154.145627644572</v>
+        <v>20215.840632603406</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50">
-        <v>2829</v>
+        <v>2061</v>
       </c>
       <c r="C50">
-        <v>53878990</v>
+        <v>36798922</v>
       </c>
       <c r="D50">
-        <v>19045.242135030046</v>
+        <v>17854.886948083455</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>2732</v>
+        <v>1775</v>
       </c>
       <c r="C51">
-        <v>55233914</v>
+        <v>31231108</v>
       </c>
       <c r="D51">
-        <v>20217.391654465591</v>
+        <v>17594.990422535211</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52">
-        <v>2466</v>
+        <v>1554</v>
       </c>
       <c r="C52">
-        <v>49852263</v>
+        <v>26866321</v>
       </c>
       <c r="D52">
-        <v>20215.840632603406</v>
+        <v>17288.494851994852</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B53">
-        <v>2061</v>
+        <v>1261</v>
       </c>
       <c r="C53">
-        <v>36798922</v>
+        <v>20058038</v>
       </c>
       <c r="D53">
-        <v>17854.886948083455</v>
+        <v>15906.453608247422</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54">
-        <v>1775</v>
+        <v>1221</v>
       </c>
       <c r="C54">
-        <v>31231108</v>
+        <v>16815704</v>
       </c>
       <c r="D54">
-        <v>17594.990422535211</v>
+        <v>13772.075348075348</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B55">
-        <v>1554</v>
+        <v>870</v>
       </c>
       <c r="C55">
-        <v>26866321</v>
+        <v>9325569</v>
       </c>
       <c r="D55">
-        <v>17288.494851994852</v>
+        <v>10719.044827586207</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B56">
-        <v>1261</v>
+        <v>698</v>
       </c>
       <c r="C56">
-        <v>20058038</v>
+        <v>7128783</v>
       </c>
       <c r="D56">
-        <v>15906.453608247422</v>
+        <v>10213.156160458453</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B57">
-        <v>1221</v>
+        <v>590</v>
       </c>
       <c r="C57">
-        <v>16815704</v>
+        <v>5794701</v>
       </c>
       <c r="D57">
-        <v>13772.075348075348</v>
+        <v>9821.5271186440677</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>870</v>
+        <v>507</v>
       </c>
       <c r="C58">
-        <v>9325569</v>
+        <v>6060852</v>
       </c>
       <c r="D58">
-        <v>10719.044827586207</v>
+        <v>11954.343195266272</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B59">
-        <v>698</v>
+        <v>263</v>
       </c>
       <c r="C59">
-        <v>7128783</v>
+        <v>2927318</v>
       </c>
       <c r="D59">
-        <v>10213.156160458453</v>
+        <v>11130.486692015209</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B60">
-        <v>590</v>
+        <v>206</v>
       </c>
       <c r="C60">
-        <v>5794701</v>
+        <v>2181419</v>
       </c>
       <c r="D60">
-        <v>9821.5271186440677</v>
+        <v>10589.412621359223</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B61">
-        <v>507</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>6060852</v>
+        <v>1489092</v>
       </c>
       <c r="D61">
-        <v>11954.343195266272</v>
+        <v>12409.1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B62">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C62">
-        <v>2927318</v>
+        <v>1011274</v>
       </c>
       <c r="D62">
-        <v>11130.486692015209</v>
+        <v>9110.5765765765773</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B63">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="C63">
-        <v>2181419</v>
+        <v>697826</v>
       </c>
       <c r="D63">
-        <v>10589.412621359223</v>
+        <v>9430.0810810810817</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B64">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C64">
-        <v>1489092</v>
+        <v>844130</v>
       </c>
       <c r="D64">
-        <v>12409.1</v>
+        <v>12598.955223880597</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>1011274</v>
+        <v>446319</v>
       </c>
       <c r="D65">
-        <v>9110.5765765765773</v>
+        <v>10143.613636363636</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B66">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C66">
-        <v>697826</v>
+        <v>326122</v>
       </c>
       <c r="D66">
-        <v>9430.0810810810817</v>
+        <v>8582.1578947368416</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C67">
-        <v>844130</v>
+        <v>257480</v>
       </c>
       <c r="D67">
-        <v>12598.955223880597</v>
+        <v>8305.8064516129034</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C68">
-        <v>446319</v>
+        <v>148780</v>
       </c>
       <c r="D68">
-        <v>10143.613636363636</v>
+        <v>7084.7619047619046</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>326122</v>
+        <v>220692</v>
       </c>
       <c r="D69">
-        <v>8582.1578947368416</v>
+        <v>10031.454545454546</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>257480</v>
+        <v>183023</v>
       </c>
       <c r="D70">
-        <v>8305.8064516129034</v>
+        <v>9632.78947368421</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>148780</v>
+        <v>30391</v>
       </c>
       <c r="D71">
-        <v>7084.7619047619046</v>
+        <v>5065.166666666667</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>220692</v>
+        <v>32065</v>
       </c>
       <c r="D72">
-        <v>10031.454545454546</v>
+        <v>4580.7142857142853</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>183023</v>
+        <v>14436</v>
       </c>
       <c r="D73">
-        <v>9632.78947368421</v>
+        <v>2887.2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>30391</v>
+        <v>11659</v>
       </c>
       <c r="D74">
-        <v>5065.166666666667</v>
+        <v>3886.3333333333335</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>32065</v>
+        <v>16276</v>
       </c>
       <c r="D75">
-        <v>4580.7142857142853</v>
+        <v>5425.333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>14436</v>
+        <v>16998</v>
       </c>
       <c r="D76">
-        <v>2887.2</v>
+        <v>4249.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>11659</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>3886.3333333333335</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>16276</v>
+        <v>23122</v>
       </c>
       <c r="D78">
-        <v>5425.333333333333</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>16998</v>
+        <v>36</v>
       </c>
       <c r="D79">
-        <v>4249.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D80">
-        <v>48.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81">
-        <v>23122</v>
+        <v>2083</v>
       </c>
       <c r="D81">
-        <v>11561</v>
+        <v>1041.5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D83">
-        <v>38</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>2083</v>
+        <v>1095</v>
       </c>
       <c r="D84">
-        <v>1041.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="54">
-        <v>93</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>87</v>
-      </c>
-      <c r="D85">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="54">
-        <v>94</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <v>242</v>
-      </c>
-      <c r="D86">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="54">
-        <v>97</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>1095</v>
-      </c>
-      <c r="D87">
         <v>547.5</v>
       </c>
     </row>
@@ -6399,10 +6474,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6414,14 +6489,15 @@
     <col min="7" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6429,7 +6505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6437,7 +6513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -6445,7 +6521,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -6453,7 +6529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -6461,7 +6537,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>99</v>
       </c>
@@ -6480,7 +6556,7 @@
       </c>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6512,7 +6588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>18</v>
       </c>
@@ -6548,8 +6624,11 @@
         <f>I11/H11</f>
         <v>380</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>19</v>
       </c>
@@ -6578,8 +6657,9 @@
         <f t="shared" ref="J12:J75" si="2">I12/H12</f>
         <v>720.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>20</v>
       </c>
@@ -6616,7 +6696,7 @@
         <v>1430.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>21</v>
       </c>
@@ -6653,7 +6733,7 @@
         <v>688.08928571428567</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>22</v>
       </c>
@@ -6690,7 +6770,7 @@
         <v>1198.1727272727273</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>23</v>
       </c>
@@ -8958,7 +9038,7 @@
         <v>3227</v>
       </c>
       <c r="D77" s="54">
-        <f t="shared" ref="D77:D86" si="7">C77/B77</f>
+        <f t="shared" ref="D77:D85" si="7">C77/B77</f>
         <v>1075.6666666666667</v>
       </c>
       <c r="E77" s="54">
@@ -9359,10 +9439,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9434,1163 +9514,1135 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="57">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13">
-        <v>54569</v>
+        <v>160164</v>
       </c>
       <c r="F9" s="13">
-        <v>10913.8</v>
+        <v>14560.363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="57">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="13">
-        <v>15365</v>
+        <v>42083</v>
       </c>
       <c r="F10" s="13">
-        <v>15365</v>
+        <v>10520.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="57">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="13">
-        <v>90230</v>
+        <v>19808</v>
       </c>
       <c r="F11" s="13">
-        <v>18046</v>
+        <v>6602.666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="13">
-        <v>42083</v>
+        <v>73985</v>
       </c>
       <c r="F12" s="13">
-        <v>10520.75</v>
+        <v>14797</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="57">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="13">
-        <v>19808</v>
+        <v>52799</v>
       </c>
       <c r="F13" s="13">
-        <v>6602.666666666667</v>
+        <v>13199.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="13">
-        <v>73985</v>
+        <v>60142</v>
       </c>
       <c r="F14" s="13">
-        <v>14797</v>
+        <v>8591.7142857142862</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="57">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13">
-        <v>52799</v>
+        <v>117888</v>
       </c>
       <c r="F15" s="13">
-        <v>13199.75</v>
+        <v>13098.666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13">
-        <v>60142</v>
+        <v>121377</v>
       </c>
       <c r="F16" s="13">
-        <v>8591.7142857142862</v>
+        <v>11034.272727272728</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="57">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" s="13">
-        <v>117888</v>
+        <v>195852</v>
       </c>
       <c r="F17" s="13">
-        <v>13098.666666666666</v>
+        <v>15065.538461538461</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13">
-        <v>121377</v>
+        <v>122013</v>
       </c>
       <c r="F18" s="13">
-        <v>11034.272727272728</v>
+        <v>12201.3</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="57">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13">
-        <v>195852</v>
+        <v>98838</v>
       </c>
       <c r="F19" s="13">
-        <v>15065.538461538461</v>
+        <v>8985.2727272727279</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="57">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="13">
-        <v>122013</v>
+        <v>221726</v>
       </c>
       <c r="F20" s="13">
-        <v>12201.3</v>
+        <v>13857.875</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" s="13">
-        <v>98838</v>
+        <v>167889</v>
       </c>
       <c r="F21" s="13">
-        <v>8985.2727272727279</v>
+        <v>10493.0625</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="57">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22" s="13">
-        <v>221726</v>
+        <v>257410</v>
       </c>
       <c r="F22" s="13">
-        <v>13857.875</v>
+        <v>12870.5</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="57">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" s="13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E23" s="13">
-        <v>167889</v>
+        <v>308865</v>
       </c>
       <c r="F23" s="13">
-        <v>10493.0625</v>
+        <v>11030.892857142857</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="57">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E24" s="13">
-        <v>257410</v>
+        <v>315964</v>
       </c>
       <c r="F24" s="13">
-        <v>12870.5</v>
+        <v>11284.428571428571</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="57">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E25" s="13">
-        <v>308865</v>
+        <v>174454</v>
       </c>
       <c r="F25" s="13">
-        <v>11030.892857142857</v>
+        <v>13419.538461538461</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="57">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="13">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E26" s="13">
-        <v>315964</v>
+        <v>182707</v>
       </c>
       <c r="F26" s="13">
-        <v>11284.428571428571</v>
+        <v>10747.470588235294</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="57">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="13">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E27" s="13">
-        <v>174454</v>
+        <v>317648</v>
       </c>
       <c r="F27" s="13">
-        <v>13419.538461538461</v>
+        <v>11344.571428571429</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="57">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28" s="13">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E28" s="13">
-        <v>182707</v>
+        <v>440521</v>
       </c>
       <c r="F28" s="13">
-        <v>10747.470588235294</v>
+        <v>12236.694444444445</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="57">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="13">
-        <v>317648</v>
+        <v>468795</v>
       </c>
       <c r="F29" s="13">
-        <v>11344.571428571429</v>
+        <v>14205.90909090909</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="57">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="13">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="13">
-        <v>440521</v>
+        <v>400866</v>
       </c>
       <c r="F30" s="13">
-        <v>12236.694444444445</v>
+        <v>11790.176470588236</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="57">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="13">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31" s="13">
-        <v>468795</v>
+        <v>278326</v>
       </c>
       <c r="F31" s="13">
-        <v>14205.90909090909</v>
+        <v>9597.4482758620688</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="57">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D32" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="13">
-        <v>400866</v>
+        <v>402386</v>
       </c>
       <c r="F32" s="13">
-        <v>11790.176470588236</v>
+        <v>11177.388888888889</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="57">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E33" s="13">
-        <v>278326</v>
+        <v>484093</v>
       </c>
       <c r="F33" s="13">
-        <v>9597.4482758620688</v>
+        <v>10085.270833333334</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="57">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="13">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E34" s="13">
-        <v>402386</v>
+        <v>615337</v>
       </c>
       <c r="F34" s="13">
-        <v>11177.388888888889</v>
+        <v>11610.132075471698</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="57">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35" s="13">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E35" s="13">
-        <v>484093</v>
+        <v>588025</v>
       </c>
       <c r="F35" s="13">
-        <v>10085.270833333334</v>
+        <v>10138.362068965518</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="57">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" s="13">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E36" s="13">
-        <v>615337</v>
+        <v>1003368</v>
       </c>
       <c r="F36" s="13">
-        <v>11610.132075471698</v>
+        <v>12088.77108433735</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="57">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37" s="13">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E37" s="13">
-        <v>588025</v>
+        <v>1024877</v>
       </c>
       <c r="F37" s="13">
-        <v>10138.362068965518</v>
+        <v>13485.223684210527</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="57">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38" s="13">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E38" s="13">
-        <v>1003368</v>
+        <v>2412756</v>
       </c>
       <c r="F38" s="13">
-        <v>12088.77108433735</v>
+        <v>18998.078740157482</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="57">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" s="13">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E39" s="13">
-        <v>1024877</v>
+        <v>4973106</v>
       </c>
       <c r="F39" s="13">
-        <v>13485.223684210527</v>
+        <v>22812.412844036699</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="57">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" s="13">
-        <v>127</v>
+        <v>462</v>
       </c>
       <c r="E40" s="13">
-        <v>2412756</v>
+        <v>10910482</v>
       </c>
       <c r="F40" s="13">
-        <v>18998.078740157482</v>
+        <v>23615.761904761905</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="57">
-        <v>50</v>
+      <c r="C41" s="59">
+        <v>52</v>
       </c>
       <c r="D41" s="13">
-        <v>218</v>
+        <v>693</v>
       </c>
       <c r="E41" s="13">
-        <v>4973106</v>
+        <v>17277321</v>
       </c>
       <c r="F41" s="13">
-        <v>22812.412844036699</v>
+        <v>24931.199134199134</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="57">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" s="13">
-        <v>462</v>
+        <v>970</v>
       </c>
       <c r="E42" s="13">
-        <v>10910482</v>
+        <v>26175973</v>
       </c>
       <c r="F42" s="13">
-        <v>23615.761904761905</v>
+        <v>26985.539175257731</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="59">
-        <v>52</v>
+      <c r="C43" s="57">
+        <v>54</v>
       </c>
       <c r="D43" s="13">
-        <v>693</v>
+        <v>1255</v>
       </c>
       <c r="E43" s="13">
-        <v>17277321</v>
+        <v>35751895</v>
       </c>
       <c r="F43" s="13">
-        <v>24931.199134199134</v>
+        <v>28487.565737051791</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" s="13">
-        <v>970</v>
+        <v>1602</v>
       </c>
       <c r="E44" s="13">
-        <v>26175973</v>
+        <v>46525246</v>
       </c>
       <c r="F44" s="13">
-        <v>26985.539175257731</v>
+        <v>29041.976279650436</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="57">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D45" s="13">
-        <v>1255</v>
+        <v>1862</v>
       </c>
       <c r="E45" s="13">
-        <v>35751895</v>
+        <v>54455419</v>
       </c>
       <c r="F45" s="13">
-        <v>28487.565737051791</v>
+        <v>29245.660042964555</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="57">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D46" s="13">
-        <v>1602</v>
+        <v>2132</v>
       </c>
       <c r="E46" s="13">
-        <v>46525246</v>
+        <v>62488372</v>
       </c>
       <c r="F46" s="13">
-        <v>29041.976279650436</v>
+        <v>29309.742964352721</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="57">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D47" s="13">
-        <v>1862</v>
+        <v>2594</v>
       </c>
       <c r="E47" s="13">
-        <v>54455419</v>
+        <v>79883350</v>
       </c>
       <c r="F47" s="13">
-        <v>29245.660042964555</v>
+        <v>30795.431765612953</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="57">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D48" s="13">
-        <v>2132</v>
+        <v>3150</v>
       </c>
       <c r="E48" s="13">
-        <v>62488372</v>
+        <v>97645331</v>
       </c>
       <c r="F48" s="13">
-        <v>29309.742964352721</v>
+        <v>30998.517777777779</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="57">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D49" s="13">
-        <v>2594</v>
+        <v>3794</v>
       </c>
       <c r="E49" s="13">
-        <v>79883350</v>
+        <v>113809307</v>
       </c>
       <c r="F49" s="13">
-        <v>30795.431765612953</v>
+        <v>29997.181602530312</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="57">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D50" s="13">
-        <v>3150</v>
+        <v>5242</v>
       </c>
       <c r="E50" s="13">
-        <v>97645331</v>
+        <v>145309098</v>
       </c>
       <c r="F50" s="13">
-        <v>30998.517777777779</v>
+        <v>27720.163677985503</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="57">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D51" s="13">
-        <v>3794</v>
+        <v>6417</v>
       </c>
       <c r="E51" s="13">
-        <v>113809307</v>
+        <v>159651687</v>
       </c>
       <c r="F51" s="13">
-        <v>29997.181602530312</v>
+        <v>24879.489948574101</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="57">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52" s="13">
-        <v>5242</v>
+        <v>7921</v>
       </c>
       <c r="E52" s="13">
-        <v>145309098</v>
+        <v>177222202</v>
       </c>
       <c r="F52" s="13">
-        <v>27720.163677985503</v>
+        <v>22373.715692463073</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="57">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53" s="13">
-        <v>6417</v>
+        <v>8671</v>
       </c>
       <c r="E53" s="13">
-        <v>159651687</v>
+        <v>190931043</v>
       </c>
       <c r="F53" s="13">
-        <v>24879.489948574101</v>
+        <v>22019.495213931496</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="57">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D54" s="13">
-        <v>7921</v>
+        <v>8942</v>
       </c>
       <c r="E54" s="13">
-        <v>177222202</v>
+        <v>193296167</v>
       </c>
       <c r="F54" s="13">
-        <v>22373.715692463073</v>
+        <v>21616.659248490272</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="57">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55" s="13">
-        <v>8671</v>
+        <v>9500</v>
       </c>
       <c r="E55" s="13">
-        <v>190931043</v>
+        <v>200239997</v>
       </c>
       <c r="F55" s="13">
-        <v>22019.495213931496</v>
+        <v>21077.894421052632</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="57">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" s="13">
-        <v>8942</v>
+        <v>9963</v>
       </c>
       <c r="E56" s="13">
-        <v>193296167</v>
+        <v>204434446</v>
       </c>
       <c r="F56" s="13">
-        <v>21616.659248490272</v>
+        <v>20519.366255144032</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="57">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D57" s="13">
-        <v>9500</v>
+        <v>10104</v>
       </c>
       <c r="E57" s="13">
-        <v>200239997</v>
+        <v>204570951</v>
       </c>
       <c r="F57" s="13">
-        <v>21077.894421052632</v>
+        <v>20246.531175771972</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="57">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D58" s="13">
-        <v>9963</v>
+        <v>10871</v>
       </c>
       <c r="E58" s="13">
-        <v>204434446</v>
+        <v>222830940</v>
       </c>
       <c r="F58" s="13">
-        <v>20519.366255144032</v>
+        <v>20497.740778217274</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="57">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D59" s="13">
-        <v>10104</v>
+        <v>7558</v>
       </c>
       <c r="E59" s="13">
-        <v>204570951</v>
+        <v>150019748</v>
       </c>
       <c r="F59" s="13">
-        <v>20246.531175771972</v>
+        <v>19849.133103995766</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="57">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" s="13">
-        <v>10871</v>
+        <v>7287</v>
       </c>
       <c r="E60" s="13">
-        <v>222830940</v>
+        <v>144167105</v>
       </c>
       <c r="F60" s="13">
-        <v>20497.740778217274</v>
+        <v>19784.150542061205</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="57">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D61" s="13">
-        <v>7558</v>
+        <v>7136</v>
       </c>
       <c r="E61" s="13">
-        <v>150019748</v>
+        <v>141348966</v>
       </c>
       <c r="F61" s="13">
-        <v>19849.133103995766</v>
+        <v>19807.870795964125</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="57">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D62" s="13">
-        <v>7287</v>
+        <v>7174</v>
       </c>
       <c r="E62" s="13">
-        <v>144167105</v>
+        <v>143748574</v>
       </c>
       <c r="F62" s="13">
-        <v>19784.150542061205</v>
+        <v>20037.437134095344</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="57">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63" s="13">
-        <v>7136</v>
+        <v>5969</v>
       </c>
       <c r="E63" s="13">
-        <v>141348966</v>
+        <v>116677629</v>
       </c>
       <c r="F63" s="13">
-        <v>19807.870795964125</v>
+        <v>19547.265706148435</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="57">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64" s="13">
-        <v>7174</v>
+        <v>5501</v>
       </c>
       <c r="E64" s="13">
-        <v>143748574</v>
+        <v>106495210</v>
       </c>
       <c r="F64" s="13">
-        <v>20037.437134095344</v>
+        <v>19359.245591710598</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="57">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D65" s="13">
-        <v>5969</v>
+        <v>5038</v>
       </c>
       <c r="E65" s="13">
-        <v>116677629</v>
+        <v>95949708</v>
       </c>
       <c r="F65" s="13">
-        <v>19547.265706148435</v>
+        <v>19045.198094481937</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="57">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D66" s="13">
-        <v>5501</v>
+        <v>4688</v>
       </c>
       <c r="E66" s="13">
-        <v>106495210</v>
+        <v>90008265</v>
       </c>
       <c r="F66" s="13">
-        <v>19359.245591710598</v>
+        <v>19199.715230375426</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="57">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D67" s="13">
-        <v>5038</v>
+        <v>4450</v>
       </c>
       <c r="E67" s="13">
-        <v>95949708</v>
+        <v>83169225</v>
       </c>
       <c r="F67" s="13">
-        <v>19045.198094481937</v>
+        <v>18689.713483146068</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="57">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="13">
-        <v>4688</v>
+        <v>4042</v>
       </c>
       <c r="E68" s="13">
-        <v>90008265</v>
+        <v>77699049</v>
       </c>
       <c r="F68" s="13">
-        <v>19199.715230375426</v>
+        <v>19222.921573478478</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="57">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" s="13">
-        <v>4450</v>
+        <v>3948</v>
       </c>
       <c r="E69" s="13">
-        <v>83169225</v>
+        <v>73731923</v>
       </c>
       <c r="F69" s="13">
-        <v>18689.713483146068</v>
+        <v>18675.765704154001</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="57">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70" s="13">
-        <v>4042</v>
+        <v>3758</v>
       </c>
       <c r="E70" s="13">
-        <v>77699049</v>
+        <v>69139434</v>
       </c>
       <c r="F70" s="13">
-        <v>19222.921573478478</v>
+        <v>18397.933475252794</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="57">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="13">
-        <v>3948</v>
+        <v>3216</v>
       </c>
       <c r="E71" s="13">
-        <v>73731923</v>
+        <v>58967842</v>
       </c>
       <c r="F71" s="13">
-        <v>18675.765704154001</v>
+        <v>18335.771766169153</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="57">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="13">
-        <v>3758</v>
+        <v>3049</v>
       </c>
       <c r="E72" s="13">
-        <v>69139434</v>
+        <v>55585251</v>
       </c>
       <c r="F72" s="13">
-        <v>18397.933475252794</v>
+        <v>18230.649721220074</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="57">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D73" s="13">
-        <v>3216</v>
+        <v>2839</v>
       </c>
       <c r="E73" s="13">
-        <v>58967842</v>
+        <v>50471954</v>
       </c>
       <c r="F73" s="13">
-        <v>18335.771766169153</v>
+        <v>17778.074674181051</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="57">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D74" s="13">
-        <v>3049</v>
+        <v>2651</v>
       </c>
       <c r="E74" s="13">
-        <v>55585251</v>
+        <v>48719517</v>
       </c>
       <c r="F74" s="13">
-        <v>18230.649721220074</v>
+        <v>18377.788381742739</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="57">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D75" s="13">
-        <v>2839</v>
+        <v>2381</v>
       </c>
       <c r="E75" s="13">
-        <v>50471954</v>
+        <v>43517289</v>
       </c>
       <c r="F75" s="13">
-        <v>17778.074674181051</v>
+        <v>18276.895842083159</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="57">
-        <v>85</v>
+      <c r="C76" s="59">
+        <v>87</v>
       </c>
       <c r="D76" s="13">
-        <v>2651</v>
+        <v>2082</v>
       </c>
       <c r="E76" s="13">
-        <v>48719517</v>
+        <v>36191452</v>
       </c>
       <c r="F76" s="13">
-        <v>18377.788381742739</v>
+        <v>17383.022094140251</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="57">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="13">
-        <v>2381</v>
+        <v>1843</v>
       </c>
       <c r="E77" s="13">
-        <v>43517289</v>
+        <v>31569762</v>
       </c>
       <c r="F77" s="13">
-        <v>18276.895842083159</v>
+        <v>17129.550732501357</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="59">
-        <v>87</v>
+      <c r="C78" s="57">
+        <v>89</v>
       </c>
       <c r="D78" s="13">
-        <v>2082</v>
+        <v>1526</v>
       </c>
       <c r="E78" s="13">
-        <v>36191452</v>
+        <v>26272262</v>
       </c>
       <c r="F78" s="13">
-        <v>17383.022094140251</v>
+        <v>17216.423328964614</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="57">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D79" s="13">
-        <v>1843</v>
+        <v>1333</v>
       </c>
       <c r="E79" s="13">
-        <v>31569762</v>
+        <v>21622238</v>
       </c>
       <c r="F79" s="13">
-        <v>17129.550732501357</v>
+        <v>16220.733683420855</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="57">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D80" s="13">
-        <v>1526</v>
+        <v>1119</v>
       </c>
       <c r="E80" s="13">
-        <v>26272262</v>
+        <v>17406934</v>
       </c>
       <c r="F80" s="13">
-        <v>17216.423328964614</v>
+        <v>15555.794459338695</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="57">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D81" s="13">
-        <v>1333</v>
+        <v>858</v>
       </c>
       <c r="E81" s="13">
-        <v>21622238</v>
+        <v>13020968</v>
       </c>
       <c r="F81" s="13">
-        <v>16220.733683420855</v>
+        <v>15175.95337995338</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="57">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D82" s="13">
-        <v>1119</v>
+        <v>718</v>
       </c>
       <c r="E82" s="13">
-        <v>17406934</v>
+        <v>10415704</v>
       </c>
       <c r="F82" s="13">
-        <v>15555.794459338695</v>
+        <v>14506.551532033427</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="57">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D83" s="13">
-        <v>858</v>
+        <v>552</v>
       </c>
       <c r="E83" s="13">
-        <v>13020968</v>
+        <v>8983354</v>
       </c>
       <c r="F83" s="13">
-        <v>15175.95337995338</v>
+        <v>16274.192028985508</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="57">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D84" s="13">
-        <v>718</v>
+        <v>491</v>
       </c>
       <c r="E84" s="13">
-        <v>10415704</v>
+        <v>7081852</v>
       </c>
       <c r="F84" s="13">
-        <v>14506.551532033427</v>
+        <v>14423.323828920571</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="57">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D85" s="13">
-        <v>552</v>
+        <v>319</v>
       </c>
       <c r="E85" s="13">
-        <v>8983354</v>
+        <v>4563036</v>
       </c>
       <c r="F85" s="13">
-        <v>16274.192028985508</v>
+        <v>14304.188087774295</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="57">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D86" s="13">
-        <v>491</v>
+        <v>237</v>
       </c>
       <c r="E86" s="13">
-        <v>7081852</v>
+        <v>3085069</v>
       </c>
       <c r="F86" s="13">
-        <v>14423.323828920571</v>
+        <v>13017.168776371309</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="57">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D87" s="13">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="E87" s="13">
-        <v>4563036</v>
+        <v>2132269</v>
       </c>
       <c r="F87" s="13">
-        <v>14304.188087774295</v>
+        <v>13081.40490797546</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="57">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D88" s="13">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="E88" s="13">
-        <v>3085069</v>
+        <v>1647046</v>
       </c>
       <c r="F88" s="13">
-        <v>13017.168776371309</v>
+        <v>14705.767857142857</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="57">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D89" s="13">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="E89" s="13">
-        <v>2132269</v>
+        <v>3055022</v>
       </c>
       <c r="F89" s="13">
-        <v>13081.40490797546</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="57">
-        <v>99</v>
-      </c>
-      <c r="D90" s="13">
-        <v>112</v>
-      </c>
-      <c r="E90" s="13">
-        <v>1647046</v>
-      </c>
-      <c r="F90" s="13">
-        <v>14705.767857142857</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="57">
-        <v>100</v>
-      </c>
-      <c r="D91" s="13">
-        <v>212</v>
-      </c>
-      <c r="E91" s="13">
-        <v>3055022</v>
-      </c>
-      <c r="F91" s="13">
         <v>14410.481132075472</v>
       </c>
     </row>
@@ -10606,8 +10658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10698,8 +10750,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="57">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="69">
         <v>18</v>
       </c>
       <c r="C9" s="57">
@@ -10736,7 +10791,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="57">
+      <c r="B10" s="69">
         <v>19</v>
       </c>
       <c r="C10" s="58"/>
@@ -13753,6 +13808,7 @@
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Disabled_raw" sheetId="32" r:id="rId9"/>
     <sheet name="Disabled" sheetId="39" r:id="rId10"/>
     <sheet name="Beneficiaries" sheetId="31" r:id="rId11"/>
+    <sheet name="Actives_gender" sheetId="40" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="157">
   <si>
     <t>TOC</t>
   </si>
@@ -638,12 +639,127 @@
   <si>
     <t>I12</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Men
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Compensation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Women
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Compensation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  22,720</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  129,871</t>
+    </r>
+  </si>
+  <si>
+    <t>nactives.male</t>
+  </si>
+  <si>
+    <t>nactives.female</t>
+  </si>
+  <si>
+    <t>pct.male.actives</t>
+  </si>
+  <si>
+    <t>pct.female.actives</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  118,765,931</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>$  240,045,841</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <t>pct.male</t>
+  </si>
+  <si>
+    <t>pct.female</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +861,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -784,11 +907,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -984,10 +1108,65 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,16 +1185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>94559</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>113519</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323159</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>189719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,7 +1217,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="914400"/>
+          <a:off x="76200" y="2895600"/>
           <a:ext cx="5523809" cy="6247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1050,16 +1229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>589883</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>151395</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437483</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>56145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,7 +1261,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12115800" y="876300"/>
+          <a:off x="5638800" y="2876550"/>
           <a:ext cx="5333333" cy="8038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2720,26 +2899,1965 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="11">
+        <v>18</v>
+      </c>
+      <c r="D8" s="75">
+        <v>2</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="75">
+        <v>9</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="82">
+        <f>D8/(D8+F8)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I8" s="82">
+        <f>F8/(D8+F8)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="11">
+        <v>19</v>
+      </c>
+      <c r="D9" s="75">
+        <v>13</v>
+      </c>
+      <c r="E9" s="77">
+        <v>85367</v>
+      </c>
+      <c r="F9" s="75">
+        <v>7</v>
+      </c>
+      <c r="G9" s="77">
+        <v>56954</v>
+      </c>
+      <c r="H9" s="82">
+        <f t="shared" ref="H9:H47" si="0">D9/(D9+F9)</f>
+        <v>0.65</v>
+      </c>
+      <c r="I9" s="82">
+        <f t="shared" ref="I9:I47" si="1">F9/(D9+F9)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="11">
+        <v>20</v>
+      </c>
+      <c r="D10" s="75">
+        <v>60</v>
+      </c>
+      <c r="E10" s="77">
+        <v>889578</v>
+      </c>
+      <c r="F10" s="75">
+        <v>25</v>
+      </c>
+      <c r="G10" s="77">
+        <v>246932</v>
+      </c>
+      <c r="H10" s="82">
+        <f t="shared" si="0"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="I10" s="82">
+        <f t="shared" si="1"/>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="11">
+        <v>21</v>
+      </c>
+      <c r="D11" s="75">
+        <v>155</v>
+      </c>
+      <c r="E11" s="77">
+        <v>2290858</v>
+      </c>
+      <c r="F11" s="75">
+        <v>111</v>
+      </c>
+      <c r="G11" s="77">
+        <v>1488716</v>
+      </c>
+      <c r="H11" s="82">
+        <f t="shared" si="0"/>
+        <v>0.58270676691729328</v>
+      </c>
+      <c r="I11" s="82">
+        <f t="shared" si="1"/>
+        <v>0.41729323308270677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11">
+        <v>22</v>
+      </c>
+      <c r="D12" s="75">
+        <v>298</v>
+      </c>
+      <c r="E12" s="77">
+        <v>5494525</v>
+      </c>
+      <c r="F12" s="75">
+        <v>594</v>
+      </c>
+      <c r="G12" s="77">
+        <v>10185209</v>
+      </c>
+      <c r="H12" s="82">
+        <f t="shared" si="0"/>
+        <v>0.33408071748878926</v>
+      </c>
+      <c r="I12" s="82">
+        <f t="shared" si="1"/>
+        <v>0.6659192825112108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>23</v>
+      </c>
+      <c r="D13" s="75">
+        <v>626</v>
+      </c>
+      <c r="E13" s="77">
+        <v>13486514</v>
+      </c>
+      <c r="F13" s="77">
+        <v>1853</v>
+      </c>
+      <c r="G13" s="77">
+        <v>39230585</v>
+      </c>
+      <c r="H13" s="82">
+        <f t="shared" si="0"/>
+        <v>0.25252117789431222</v>
+      </c>
+      <c r="I13" s="82">
+        <f t="shared" si="1"/>
+        <v>0.74747882210568772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>24</v>
+      </c>
+      <c r="D14" s="77">
+        <v>1076</v>
+      </c>
+      <c r="E14" s="77">
+        <v>28994102</v>
+      </c>
+      <c r="F14" s="77">
+        <v>2791</v>
+      </c>
+      <c r="G14" s="77">
+        <v>79659324</v>
+      </c>
+      <c r="H14" s="82">
+        <f t="shared" si="0"/>
+        <v>0.27825187483837599</v>
+      </c>
+      <c r="I14" s="82">
+        <f t="shared" si="1"/>
+        <v>0.72174812516162401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="11">
+        <v>25</v>
+      </c>
+      <c r="D15" s="77">
+        <v>1329</v>
+      </c>
+      <c r="E15" s="77">
+        <v>39062411</v>
+      </c>
+      <c r="F15" s="77">
+        <v>3455</v>
+      </c>
+      <c r="G15" s="77">
+        <v>104109201</v>
+      </c>
+      <c r="H15" s="82">
+        <f t="shared" si="0"/>
+        <v>0.2778010033444816</v>
+      </c>
+      <c r="I15" s="82">
+        <f t="shared" si="1"/>
+        <v>0.72219899665551834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="11">
+        <v>26</v>
+      </c>
+      <c r="D16" s="77">
+        <v>1551</v>
+      </c>
+      <c r="E16" s="77">
+        <v>47624420</v>
+      </c>
+      <c r="F16" s="77">
+        <v>3851</v>
+      </c>
+      <c r="G16" s="77">
+        <v>123119499</v>
+      </c>
+      <c r="H16" s="82">
+        <f t="shared" si="0"/>
+        <v>0.28711588300629398</v>
+      </c>
+      <c r="I16" s="82">
+        <f t="shared" si="1"/>
+        <v>0.71288411699370602</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
+        <v>27</v>
+      </c>
+      <c r="D17" s="77">
+        <v>1659</v>
+      </c>
+      <c r="E17" s="77">
+        <v>53410995</v>
+      </c>
+      <c r="F17" s="77">
+        <v>3902</v>
+      </c>
+      <c r="G17" s="77">
+        <v>128642374</v>
+      </c>
+      <c r="H17" s="82">
+        <f t="shared" si="0"/>
+        <v>0.29832763891386443</v>
+      </c>
+      <c r="I17" s="82">
+        <f t="shared" si="1"/>
+        <v>0.70167236108613562</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
+        <v>28</v>
+      </c>
+      <c r="D18" s="77">
+        <v>1570</v>
+      </c>
+      <c r="E18" s="77">
+        <v>52480045</v>
+      </c>
+      <c r="F18" s="77">
+        <v>4078</v>
+      </c>
+      <c r="G18" s="77">
+        <v>137543623</v>
+      </c>
+      <c r="H18" s="82">
+        <f t="shared" si="0"/>
+        <v>0.27797450424929177</v>
+      </c>
+      <c r="I18" s="82">
+        <f t="shared" si="1"/>
+        <v>0.72202549575070818</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="11">
+        <v>29</v>
+      </c>
+      <c r="D19" s="77">
+        <v>1754</v>
+      </c>
+      <c r="E19" s="77">
+        <v>60084357</v>
+      </c>
+      <c r="F19" s="77">
+        <v>4050</v>
+      </c>
+      <c r="G19" s="77">
+        <v>142113861</v>
+      </c>
+      <c r="H19" s="82">
+        <f t="shared" si="0"/>
+        <v>0.3022053756030324</v>
+      </c>
+      <c r="I19" s="82">
+        <f t="shared" si="1"/>
+        <v>0.6977946243969676</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
+        <v>30</v>
+      </c>
+      <c r="D20" s="77">
+        <v>1799</v>
+      </c>
+      <c r="E20" s="77">
+        <v>66248507</v>
+      </c>
+      <c r="F20" s="77">
+        <v>4119</v>
+      </c>
+      <c r="G20" s="77">
+        <v>148517174</v>
+      </c>
+      <c r="H20" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30398783372761068</v>
+      </c>
+      <c r="I20" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69601216627238927</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="11">
+        <v>31</v>
+      </c>
+      <c r="D21" s="77">
+        <v>1881</v>
+      </c>
+      <c r="E21" s="77">
+        <v>70793136</v>
+      </c>
+      <c r="F21" s="77">
+        <v>4125</v>
+      </c>
+      <c r="G21" s="77">
+        <v>150993071</v>
+      </c>
+      <c r="H21" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31318681318681318</v>
+      </c>
+      <c r="I21" s="82">
+        <f t="shared" si="1"/>
+        <v>0.68681318681318682</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
+        <v>32</v>
+      </c>
+      <c r="D22" s="77">
+        <v>1853</v>
+      </c>
+      <c r="E22" s="77">
+        <v>71901975</v>
+      </c>
+      <c r="F22" s="77">
+        <v>4191</v>
+      </c>
+      <c r="G22" s="77">
+        <v>157314346</v>
+      </c>
+      <c r="H22" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30658504301786899</v>
+      </c>
+      <c r="I22" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69341495698213107</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
+        <v>33</v>
+      </c>
+      <c r="D23" s="77">
+        <v>1970</v>
+      </c>
+      <c r="E23" s="77">
+        <v>78157003</v>
+      </c>
+      <c r="F23" s="77">
+        <v>4382</v>
+      </c>
+      <c r="G23" s="77">
+        <v>169796505</v>
+      </c>
+      <c r="H23" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31013853904282118</v>
+      </c>
+      <c r="I23" s="82">
+        <f t="shared" si="1"/>
+        <v>0.68986146095717882</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="11">
+        <v>34</v>
+      </c>
+      <c r="D24" s="77">
+        <v>2022</v>
+      </c>
+      <c r="E24" s="77">
+        <v>82602767</v>
+      </c>
+      <c r="F24" s="77">
+        <v>4562</v>
+      </c>
+      <c r="G24" s="77">
+        <v>180565353</v>
+      </c>
+      <c r="H24" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30710814094775213</v>
+      </c>
+      <c r="I24" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69289185905224793</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
+        <v>35</v>
+      </c>
+      <c r="D25" s="77">
+        <v>2090</v>
+      </c>
+      <c r="E25" s="77">
+        <v>88808182</v>
+      </c>
+      <c r="F25" s="77">
+        <v>4677</v>
+      </c>
+      <c r="G25" s="77">
+        <v>190559611</v>
+      </c>
+      <c r="H25" s="82">
+        <f t="shared" si="0"/>
+        <v>0.3088517807004581</v>
+      </c>
+      <c r="I25" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69114821929954184</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
+        <v>36</v>
+      </c>
+      <c r="D26" s="77">
+        <v>2193</v>
+      </c>
+      <c r="E26" s="77">
+        <v>96549384</v>
+      </c>
+      <c r="F26" s="77">
+        <v>4727</v>
+      </c>
+      <c r="G26" s="77">
+        <v>191859674</v>
+      </c>
+      <c r="H26" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31690751445086707</v>
+      </c>
+      <c r="I26" s="82">
+        <f t="shared" si="1"/>
+        <v>0.68309248554913293</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="11">
+        <v>37</v>
+      </c>
+      <c r="D27" s="77">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="77">
+        <v>95178750</v>
+      </c>
+      <c r="F27" s="77">
+        <v>4799</v>
+      </c>
+      <c r="G27" s="77">
+        <v>199274061</v>
+      </c>
+      <c r="H27" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30439194086099436</v>
+      </c>
+      <c r="I27" s="82">
+        <f t="shared" si="1"/>
+        <v>0.6956080591390057</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="11">
+        <v>38</v>
+      </c>
+      <c r="D28" s="77">
+        <v>2188</v>
+      </c>
+      <c r="E28" s="77">
+        <v>100093934</v>
+      </c>
+      <c r="F28" s="77">
+        <v>4880</v>
+      </c>
+      <c r="G28" s="77">
+        <v>205230052</v>
+      </c>
+      <c r="H28" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30956423316355403</v>
+      </c>
+      <c r="I28" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69043576683644592</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="11">
+        <v>39</v>
+      </c>
+      <c r="D29" s="77">
+        <v>2202</v>
+      </c>
+      <c r="E29" s="77">
+        <v>103154750</v>
+      </c>
+      <c r="F29" s="77">
+        <v>5040</v>
+      </c>
+      <c r="G29" s="77">
+        <v>211646629</v>
+      </c>
+      <c r="H29" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30405965202982599</v>
+      </c>
+      <c r="I29" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69594034797017401</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="11">
+        <v>40</v>
+      </c>
+      <c r="D30" s="77">
+        <v>2179</v>
+      </c>
+      <c r="E30" s="77">
+        <v>103613890</v>
+      </c>
+      <c r="F30" s="77">
+        <v>4935</v>
+      </c>
+      <c r="G30" s="77">
+        <v>210881021</v>
+      </c>
+      <c r="H30" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30629744166432388</v>
+      </c>
+      <c r="I30" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69370255833567618</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="11">
+        <v>41</v>
+      </c>
+      <c r="D31" s="77">
+        <v>2290</v>
+      </c>
+      <c r="E31" s="77">
+        <v>110646948</v>
+      </c>
+      <c r="F31" s="77">
+        <v>5382</v>
+      </c>
+      <c r="G31" s="77">
+        <v>229179154</v>
+      </c>
+      <c r="H31" s="82">
+        <f t="shared" si="0"/>
+        <v>0.29848800834202294</v>
+      </c>
+      <c r="I31" s="82">
+        <f t="shared" si="1"/>
+        <v>0.70151199165797706</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="11">
+        <v>42</v>
+      </c>
+      <c r="D32" s="77">
+        <v>2377</v>
+      </c>
+      <c r="E32" s="77">
+        <v>112813609</v>
+      </c>
+      <c r="F32" s="77">
+        <v>5286</v>
+      </c>
+      <c r="G32" s="77">
+        <v>228670717</v>
+      </c>
+      <c r="H32" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31019183087563618</v>
+      </c>
+      <c r="I32" s="82">
+        <f t="shared" si="1"/>
+        <v>0.68980816912436382</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="11">
+        <v>43</v>
+      </c>
+      <c r="D33" s="77">
+        <v>2481</v>
+      </c>
+      <c r="E33" s="77">
+        <v>121074977</v>
+      </c>
+      <c r="F33" s="77">
+        <v>5705</v>
+      </c>
+      <c r="G33" s="77">
+        <v>244107045</v>
+      </c>
+      <c r="H33" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30307842658196921</v>
+      </c>
+      <c r="I33" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69692157341803074</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="11">
+        <v>44</v>
+      </c>
+      <c r="D34" s="77">
+        <v>2789</v>
+      </c>
+      <c r="E34" s="77">
+        <v>136325597</v>
+      </c>
+      <c r="F34" s="77">
+        <v>6156</v>
+      </c>
+      <c r="G34" s="77">
+        <v>269653227</v>
+      </c>
+      <c r="H34" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31179429849077694</v>
+      </c>
+      <c r="I34" s="82">
+        <f t="shared" si="1"/>
+        <v>0.688205701509223</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="11">
+        <v>45</v>
+      </c>
+      <c r="D35" s="77">
+        <v>3083</v>
+      </c>
+      <c r="E35" s="77">
+        <v>151993932</v>
+      </c>
+      <c r="F35" s="77">
+        <v>6811</v>
+      </c>
+      <c r="G35" s="77">
+        <v>295940822</v>
+      </c>
+      <c r="H35" s="82">
+        <f t="shared" si="0"/>
+        <v>0.31160299171214878</v>
+      </c>
+      <c r="I35" s="82">
+        <f t="shared" si="1"/>
+        <v>0.68839700828785122</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="11">
+        <v>46</v>
+      </c>
+      <c r="D36" s="77">
+        <v>2884</v>
+      </c>
+      <c r="E36" s="77">
+        <v>149020847</v>
+      </c>
+      <c r="F36" s="77">
+        <v>6790</v>
+      </c>
+      <c r="G36" s="77">
+        <v>297332951</v>
+      </c>
+      <c r="H36" s="82">
+        <f t="shared" si="0"/>
+        <v>0.29811866859623731</v>
+      </c>
+      <c r="I36" s="82">
+        <f t="shared" si="1"/>
+        <v>0.70188133140376263</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="11">
+        <v>47</v>
+      </c>
+      <c r="D37" s="77">
+        <v>2851</v>
+      </c>
+      <c r="E37" s="77">
+        <v>146521543</v>
+      </c>
+      <c r="F37" s="77">
+        <v>6481</v>
+      </c>
+      <c r="G37" s="77">
+        <v>284682451</v>
+      </c>
+      <c r="H37" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30550792970424345</v>
+      </c>
+      <c r="I37" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69449207029575655</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="11">
+        <v>48</v>
+      </c>
+      <c r="D38" s="77">
+        <v>2742</v>
+      </c>
+      <c r="E38" s="77">
+        <v>140547211</v>
+      </c>
+      <c r="F38" s="77">
+        <v>6162</v>
+      </c>
+      <c r="G38" s="77">
+        <v>263850084</v>
+      </c>
+      <c r="H38" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30795148247978438</v>
+      </c>
+      <c r="I38" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69204851752021568</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="11">
+        <v>49</v>
+      </c>
+      <c r="D39" s="77">
+        <v>2675</v>
+      </c>
+      <c r="E39" s="77">
+        <v>137061370</v>
+      </c>
+      <c r="F39" s="77">
+        <v>6131</v>
+      </c>
+      <c r="G39" s="77">
+        <v>264554435</v>
+      </c>
+      <c r="H39" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30377015671133317</v>
+      </c>
+      <c r="I39" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69622984328866677</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="11">
+        <v>50</v>
+      </c>
+      <c r="D40" s="77">
+        <v>2683</v>
+      </c>
+      <c r="E40" s="77">
+        <v>137817610</v>
+      </c>
+      <c r="F40" s="77">
+        <v>6015</v>
+      </c>
+      <c r="G40" s="77">
+        <v>257859970</v>
+      </c>
+      <c r="H40" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30846171533685907</v>
+      </c>
+      <c r="I40" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69153828466314093</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="11">
+        <v>51</v>
+      </c>
+      <c r="D41" s="77">
+        <v>2644</v>
+      </c>
+      <c r="E41" s="77">
+        <v>132233892</v>
+      </c>
+      <c r="F41" s="77">
+        <v>6153</v>
+      </c>
+      <c r="G41" s="77">
+        <v>264984428</v>
+      </c>
+      <c r="H41" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30055700807093327</v>
+      </c>
+      <c r="I41" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69944299192906678</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="11">
+        <v>52</v>
+      </c>
+      <c r="D42" s="77">
+        <v>2713</v>
+      </c>
+      <c r="E42" s="77">
+        <v>139327880</v>
+      </c>
+      <c r="F42" s="77">
+        <v>6080</v>
+      </c>
+      <c r="G42" s="77">
+        <v>263213279</v>
+      </c>
+      <c r="H42" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30854088479472308</v>
+      </c>
+      <c r="I42" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69145911520527692</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="11">
+        <v>53</v>
+      </c>
+      <c r="D43" s="77">
+        <v>2689</v>
+      </c>
+      <c r="E43" s="77">
+        <v>138090467</v>
+      </c>
+      <c r="F43" s="77">
+        <v>6031</v>
+      </c>
+      <c r="G43" s="77">
+        <v>260585092</v>
+      </c>
+      <c r="H43" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30837155963302754</v>
+      </c>
+      <c r="I43" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69162844036697246</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="11">
+        <v>54</v>
+      </c>
+      <c r="D44" s="77">
+        <v>2593</v>
+      </c>
+      <c r="E44" s="77">
+        <v>131916650</v>
+      </c>
+      <c r="F44" s="77">
+        <v>6115</v>
+      </c>
+      <c r="G44" s="77">
+        <v>264283495</v>
+      </c>
+      <c r="H44" s="82">
+        <f t="shared" si="0"/>
+        <v>0.29777216352779051</v>
+      </c>
+      <c r="I44" s="82">
+        <f t="shared" si="1"/>
+        <v>0.70222783647220943</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="11">
+        <v>55</v>
+      </c>
+      <c r="D45" s="77">
+        <v>2568</v>
+      </c>
+      <c r="E45" s="77">
+        <v>129813193</v>
+      </c>
+      <c r="F45" s="77">
+        <v>5902</v>
+      </c>
+      <c r="G45" s="77">
+        <v>254638479</v>
+      </c>
+      <c r="H45" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30318772136953953</v>
+      </c>
+      <c r="I45" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69681227863046047</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="11">
+        <v>56</v>
+      </c>
+      <c r="D46" s="77">
+        <v>2411</v>
+      </c>
+      <c r="E46" s="77">
+        <v>118769071</v>
+      </c>
+      <c r="F46" s="77">
+        <v>5722</v>
+      </c>
+      <c r="G46" s="77">
+        <v>251535232</v>
+      </c>
+      <c r="H46" s="82">
+        <f t="shared" si="0"/>
+        <v>0.29644657567933114</v>
+      </c>
+      <c r="I46" s="82">
+        <f t="shared" si="1"/>
+        <v>0.70355342432066892</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="78">
+        <v>57</v>
+      </c>
+      <c r="D47" s="79">
+        <v>2444</v>
+      </c>
+      <c r="E47" s="79">
+        <v>121866803</v>
+      </c>
+      <c r="F47" s="79">
+        <v>5490</v>
+      </c>
+      <c r="G47" s="79">
+        <v>238635429</v>
+      </c>
+      <c r="H47" s="82">
+        <f t="shared" si="0"/>
+        <v>0.30804134106377618</v>
+      </c>
+      <c r="I47" s="82">
+        <f t="shared" si="1"/>
+        <v>0.69195865893622388</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="83">
+        <v>58</v>
+      </c>
+      <c r="D48" s="77">
+        <v>2367</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="77">
+        <v>5414</v>
+      </c>
+      <c r="G48" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="82">
+        <f t="shared" ref="H48:H82" si="2">D48/(D48+F48)</f>
+        <v>0.30420254466006941</v>
+      </c>
+      <c r="I48" s="82">
+        <f t="shared" ref="I48:I82" si="3">F48/(D48+F48)</f>
+        <v>0.69579745533993065</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="83">
+        <v>59</v>
+      </c>
+      <c r="D49" s="77">
+        <v>2329</v>
+      </c>
+      <c r="E49" s="77">
+        <v>119723609</v>
+      </c>
+      <c r="F49" s="77">
+        <v>5205</v>
+      </c>
+      <c r="G49" s="85">
+        <v>232336315</v>
+      </c>
+      <c r="H49" s="82">
+        <f t="shared" si="2"/>
+        <v>0.30913193522697108</v>
+      </c>
+      <c r="I49" s="82">
+        <f t="shared" si="3"/>
+        <v>0.69086806477302898</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="83">
+        <v>60</v>
+      </c>
+      <c r="D50" s="77">
+        <v>2197</v>
+      </c>
+      <c r="E50" s="77">
+        <v>112429189</v>
+      </c>
+      <c r="F50" s="77">
+        <v>4712</v>
+      </c>
+      <c r="G50" s="85">
+        <v>210846254</v>
+      </c>
+      <c r="H50" s="82">
+        <f t="shared" si="2"/>
+        <v>0.31799102619771313</v>
+      </c>
+      <c r="I50" s="82">
+        <f t="shared" si="3"/>
+        <v>0.68200897380228687</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="83">
+        <v>61</v>
+      </c>
+      <c r="D51" s="77">
+        <v>1979</v>
+      </c>
+      <c r="E51" s="77">
+        <v>103982292</v>
+      </c>
+      <c r="F51" s="77">
+        <v>3966</v>
+      </c>
+      <c r="G51" s="85">
+        <v>175261836</v>
+      </c>
+      <c r="H51" s="82">
+        <f t="shared" si="2"/>
+        <v>0.33288477712363329</v>
+      </c>
+      <c r="I51" s="82">
+        <f t="shared" si="3"/>
+        <v>0.66711522287636671</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="83">
+        <v>62</v>
+      </c>
+      <c r="D52" s="77">
+        <v>1826</v>
+      </c>
+      <c r="E52" s="77">
+        <v>96336067</v>
+      </c>
+      <c r="F52" s="77">
+        <v>3517</v>
+      </c>
+      <c r="G52" s="85">
+        <v>159668417</v>
+      </c>
+      <c r="H52" s="82">
+        <f t="shared" si="2"/>
+        <v>0.34175556803294027</v>
+      </c>
+      <c r="I52" s="82">
+        <f t="shared" si="3"/>
+        <v>0.65824443196705973</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="83">
+        <v>63</v>
+      </c>
+      <c r="D53" s="77">
+        <v>1366</v>
+      </c>
+      <c r="E53" s="77">
+        <v>74426087</v>
+      </c>
+      <c r="F53" s="77">
+        <v>2609</v>
+      </c>
+      <c r="G53" s="85">
+        <v>120063752</v>
+      </c>
+      <c r="H53" s="82">
+        <f t="shared" si="2"/>
+        <v>0.34364779874213836</v>
+      </c>
+      <c r="I53" s="82">
+        <f t="shared" si="3"/>
+        <v>0.65635220125786164</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="83">
+        <v>64</v>
+      </c>
+      <c r="D54" s="77">
+        <v>1157</v>
+      </c>
+      <c r="E54" s="77">
+        <v>64156205</v>
+      </c>
+      <c r="F54" s="77">
+        <v>2063</v>
+      </c>
+      <c r="G54" s="85">
+        <v>98433001</v>
+      </c>
+      <c r="H54" s="82">
+        <f t="shared" si="2"/>
+        <v>0.3593167701863354</v>
+      </c>
+      <c r="I54" s="82">
+        <f t="shared" si="3"/>
+        <v>0.64068322981366455</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="83">
+        <v>65</v>
+      </c>
+      <c r="D55" s="75">
+        <v>963</v>
+      </c>
+      <c r="E55" s="77">
+        <v>55433664</v>
+      </c>
+      <c r="F55" s="77">
+        <v>1639</v>
+      </c>
+      <c r="G55" s="85">
+        <v>77868952</v>
+      </c>
+      <c r="H55" s="82">
+        <f t="shared" si="2"/>
+        <v>0.37009992313604917</v>
+      </c>
+      <c r="I55" s="82">
+        <f t="shared" si="3"/>
+        <v>0.62990007686395078</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="83">
+        <v>66</v>
+      </c>
+      <c r="D56" s="75">
+        <v>670</v>
+      </c>
+      <c r="E56" s="77">
+        <v>39484350</v>
+      </c>
+      <c r="F56" s="77">
+        <v>1040</v>
+      </c>
+      <c r="G56" s="85">
+        <v>47302129</v>
+      </c>
+      <c r="H56" s="82">
+        <f t="shared" si="2"/>
+        <v>0.391812865497076</v>
+      </c>
+      <c r="I56" s="82">
+        <f t="shared" si="3"/>
+        <v>0.60818713450292394</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="83">
+        <v>67</v>
+      </c>
+      <c r="D57" s="75">
+        <v>543</v>
+      </c>
+      <c r="E57" s="77">
+        <v>33923584</v>
+      </c>
+      <c r="F57" s="75">
+        <v>701</v>
+      </c>
+      <c r="G57" s="85">
+        <v>32809516</v>
+      </c>
+      <c r="H57" s="82">
+        <f t="shared" si="2"/>
+        <v>0.43649517684887462</v>
+      </c>
+      <c r="I57" s="82">
+        <f t="shared" si="3"/>
+        <v>0.56350482315112538</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="83">
+        <v>68</v>
+      </c>
+      <c r="D58" s="75">
+        <v>423</v>
+      </c>
+      <c r="E58" s="77">
+        <v>26872853</v>
+      </c>
+      <c r="F58" s="75">
+        <v>545</v>
+      </c>
+      <c r="G58" s="85">
+        <v>25036175</v>
+      </c>
+      <c r="H58" s="82">
+        <f t="shared" si="2"/>
+        <v>0.43698347107438018</v>
+      </c>
+      <c r="I58" s="82">
+        <f t="shared" si="3"/>
+        <v>0.56301652892561982</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="83">
+        <v>69</v>
+      </c>
+      <c r="D59" s="75">
+        <v>403</v>
+      </c>
+      <c r="E59" s="77">
+        <v>23886120</v>
+      </c>
+      <c r="F59" s="75">
+        <v>493</v>
+      </c>
+      <c r="G59" s="85">
+        <v>22132584</v>
+      </c>
+      <c r="H59" s="82">
+        <f t="shared" si="2"/>
+        <v>0.4497767857142857</v>
+      </c>
+      <c r="I59" s="82">
+        <f t="shared" si="3"/>
+        <v>0.5502232142857143</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="83">
+        <v>70</v>
+      </c>
+      <c r="D60" s="75">
+        <v>230</v>
+      </c>
+      <c r="E60" s="77">
+        <v>13717221</v>
+      </c>
+      <c r="F60" s="75">
+        <v>275</v>
+      </c>
+      <c r="G60" s="85">
+        <v>12225328</v>
+      </c>
+      <c r="H60" s="82">
+        <f t="shared" si="2"/>
+        <v>0.45544554455445546</v>
+      </c>
+      <c r="I60" s="82">
+        <f t="shared" si="3"/>
+        <v>0.54455445544554459</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="83">
+        <v>71</v>
+      </c>
+      <c r="D61" s="75">
+        <v>174</v>
+      </c>
+      <c r="E61" s="77">
+        <v>9166599</v>
+      </c>
+      <c r="F61" s="75">
+        <v>208</v>
+      </c>
+      <c r="G61" s="85">
+        <v>8630328</v>
+      </c>
+      <c r="H61" s="82">
+        <f t="shared" si="2"/>
+        <v>0.45549738219895286</v>
+      </c>
+      <c r="I61" s="82">
+        <f t="shared" si="3"/>
+        <v>0.54450261780104714</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="83">
+        <v>72</v>
+      </c>
+      <c r="D62" s="75">
+        <v>148</v>
+      </c>
+      <c r="E62" s="77">
+        <v>7637385</v>
+      </c>
+      <c r="F62" s="75">
+        <v>148</v>
+      </c>
+      <c r="G62" s="85">
+        <v>6031756</v>
+      </c>
+      <c r="H62" s="82">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="82">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="83">
+        <v>73</v>
+      </c>
+      <c r="D63" s="75">
+        <v>126</v>
+      </c>
+      <c r="E63" s="77">
+        <v>6898517</v>
+      </c>
+      <c r="F63" s="75">
+        <v>135</v>
+      </c>
+      <c r="G63" s="85">
+        <v>5207314</v>
+      </c>
+      <c r="H63" s="82">
+        <f t="shared" si="2"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="I63" s="82">
+        <f t="shared" si="3"/>
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="83">
+        <v>74</v>
+      </c>
+      <c r="D64" s="75">
+        <v>78</v>
+      </c>
+      <c r="E64" s="77">
+        <v>4221437</v>
+      </c>
+      <c r="F64" s="75">
+        <v>86</v>
+      </c>
+      <c r="G64" s="85">
+        <v>3533355</v>
+      </c>
+      <c r="H64" s="82">
+        <f t="shared" si="2"/>
+        <v>0.47560975609756095</v>
+      </c>
+      <c r="I64" s="82">
+        <f t="shared" si="3"/>
+        <v>0.52439024390243905</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="83">
+        <v>75</v>
+      </c>
+      <c r="D65" s="75">
+        <v>77</v>
+      </c>
+      <c r="E65" s="77">
+        <v>3895561</v>
+      </c>
+      <c r="F65" s="75">
+        <v>62</v>
+      </c>
+      <c r="G65" s="85">
+        <v>2537446</v>
+      </c>
+      <c r="H65" s="82">
+        <f t="shared" si="2"/>
+        <v>0.5539568345323741</v>
+      </c>
+      <c r="I65" s="82">
+        <f t="shared" si="3"/>
+        <v>0.4460431654676259</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="83">
+        <v>76</v>
+      </c>
+      <c r="D66" s="75">
+        <v>55</v>
+      </c>
+      <c r="E66" s="77">
+        <v>3452103</v>
+      </c>
+      <c r="F66" s="75">
+        <v>36</v>
+      </c>
+      <c r="G66" s="85">
+        <v>1622596</v>
+      </c>
+      <c r="H66" s="82">
+        <f t="shared" si="2"/>
+        <v>0.60439560439560436</v>
+      </c>
+      <c r="I66" s="82">
+        <f t="shared" si="3"/>
+        <v>0.39560439560439559</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="83">
+        <v>77</v>
+      </c>
+      <c r="D67" s="75">
+        <v>47</v>
+      </c>
+      <c r="E67" s="77">
+        <v>2045423</v>
+      </c>
+      <c r="F67" s="75">
+        <v>29</v>
+      </c>
+      <c r="G67" s="85">
+        <v>996755</v>
+      </c>
+      <c r="H67" s="82">
+        <f t="shared" si="2"/>
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="I67" s="82">
+        <f t="shared" si="3"/>
+        <v>0.38157894736842107</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="83">
+        <v>78</v>
+      </c>
+      <c r="D68" s="75">
+        <v>28</v>
+      </c>
+      <c r="E68" s="77">
+        <v>1261310</v>
+      </c>
+      <c r="F68" s="75">
+        <v>24</v>
+      </c>
+      <c r="G68" s="85">
+        <v>831753</v>
+      </c>
+      <c r="H68" s="82">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I68" s="82">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="83">
+        <v>79</v>
+      </c>
+      <c r="D69" s="75">
+        <v>21</v>
+      </c>
+      <c r="E69" s="77">
+        <v>1025560</v>
+      </c>
+      <c r="F69" s="75">
+        <v>15</v>
+      </c>
+      <c r="G69" s="85">
+        <v>616806</v>
+      </c>
+      <c r="H69" s="82">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I69" s="82">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="83">
+        <v>80</v>
+      </c>
+      <c r="D70" s="75">
+        <v>18</v>
+      </c>
+      <c r="E70" s="77">
+        <v>829088</v>
+      </c>
+      <c r="F70" s="75">
+        <v>11</v>
+      </c>
+      <c r="G70" s="85">
+        <v>499174</v>
+      </c>
+      <c r="H70" s="82">
+        <f t="shared" si="2"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="I70" s="82">
+        <f t="shared" si="3"/>
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="83">
+        <v>81</v>
+      </c>
+      <c r="D71" s="75">
+        <v>12</v>
+      </c>
+      <c r="E71" s="77">
+        <v>813298</v>
+      </c>
+      <c r="F71" s="75">
+        <v>8</v>
+      </c>
+      <c r="G71" s="85">
+        <v>204621</v>
+      </c>
+      <c r="H71" s="82">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I71" s="82">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="83">
+        <v>82</v>
+      </c>
+      <c r="D72" s="75">
+        <v>10</v>
+      </c>
+      <c r="E72" s="77">
+        <v>537331</v>
+      </c>
+      <c r="F72" s="75">
+        <v>4</v>
+      </c>
+      <c r="G72" s="85">
+        <v>159368</v>
+      </c>
+      <c r="H72" s="82">
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I72" s="82">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="83">
+        <v>83</v>
+      </c>
+      <c r="D73" s="75">
+        <v>5</v>
+      </c>
+      <c r="E73" s="77">
+        <v>394634</v>
+      </c>
+      <c r="F73" s="75">
+        <v>9</v>
+      </c>
+      <c r="G73" s="85">
+        <v>301659</v>
+      </c>
+      <c r="H73" s="82">
+        <f t="shared" si="2"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I73" s="82">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="83">
+        <v>84</v>
+      </c>
+      <c r="D74" s="75">
+        <v>6</v>
+      </c>
+      <c r="E74" s="77">
+        <v>514708</v>
+      </c>
+      <c r="F74" s="75">
+        <v>4</v>
+      </c>
+      <c r="G74" s="85">
+        <v>144481</v>
+      </c>
+      <c r="H74" s="82">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I74" s="82">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="83">
+        <v>85</v>
+      </c>
+      <c r="D75" s="75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="77">
+        <v>259070</v>
+      </c>
+      <c r="F75" s="75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="85">
+        <v>33107</v>
+      </c>
+      <c r="H75" s="82">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I75" s="82">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="83">
+        <v>86</v>
+      </c>
+      <c r="D76" s="75">
+        <v>2</v>
+      </c>
+      <c r="E76" s="77">
+        <v>106387</v>
+      </c>
+      <c r="F76" s="75">
+        <v>1</v>
+      </c>
+      <c r="G76" s="85">
+        <v>45472</v>
+      </c>
+      <c r="H76" s="82">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I76" s="82">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="83">
+        <v>87</v>
+      </c>
+      <c r="D77" s="75">
+        <v>1</v>
+      </c>
+      <c r="E77" s="77">
+        <v>30658</v>
+      </c>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="83">
+        <v>88</v>
+      </c>
+      <c r="D78" s="75">
+        <v>1</v>
+      </c>
+      <c r="E78" s="77">
+        <v>76884</v>
+      </c>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="83">
+        <v>89</v>
+      </c>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="75">
+        <v>3</v>
+      </c>
+      <c r="G79" s="85">
+        <v>93598</v>
+      </c>
+      <c r="H79" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="83">
+        <v>90</v>
+      </c>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="75">
+        <v>1</v>
+      </c>
+      <c r="G80" s="85">
+        <v>21235</v>
+      </c>
+      <c r="H80" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="83">
+        <v>91</v>
+      </c>
+      <c r="D81" s="75">
+        <v>1</v>
+      </c>
+      <c r="E81" s="77">
+        <v>18399</v>
+      </c>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="88">
+        <v>94752</v>
+      </c>
+      <c r="E82" s="89">
+        <v>4443191294</v>
+      </c>
+      <c r="F82" s="88">
+        <v>210539</v>
+      </c>
+      <c r="G82" s="90">
+        <v>8702410860</v>
+      </c>
+      <c r="H82" s="82">
+        <f t="shared" si="2"/>
+        <v>0.31036617522298399</v>
+      </c>
+      <c r="I82" s="82">
+        <f t="shared" si="3"/>
+        <v>0.68963382477701607</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2747,7 +4865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +4876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +4902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>128</v>
       </c>
@@ -2809,8 +4927,32 @@
       <c r="I7" s="72">
         <v>210539</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>H7/(H7+I7)</f>
+        <v>0.31036617522298399</v>
+      </c>
+      <c r="K7">
+        <f>SUM(D7:G7)</f>
+        <v>305291</v>
+      </c>
+      <c r="L7" s="92">
+        <f>D7/$K$7</f>
+        <v>0.4946329895083707</v>
+      </c>
+      <c r="M7" s="92">
+        <f t="shared" ref="M7:O7" si="0">E7/$K$7</f>
+        <v>0.15156359014841578</v>
+      </c>
+      <c r="N7" s="92">
+        <f t="shared" si="0"/>
+        <v>0.3426959851420448</v>
+      </c>
+      <c r="O7" s="92">
+        <f t="shared" si="0"/>
+        <v>1.1107435201168721E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>132</v>
       </c>
@@ -2835,8 +4977,32 @@
       <c r="I8" s="72">
         <v>5204</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" ref="J8:J12" si="1">H8/(H8+I8)</f>
+        <v>0.30898951002522906</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K12" si="2">SUM(D8:G8)</f>
+        <v>7531</v>
+      </c>
+      <c r="L8" s="92">
+        <f t="shared" ref="L8:L12" si="3">D8/$K$7</f>
+        <v>6.7181803590672506E-3</v>
+      </c>
+      <c r="M8" s="92">
+        <f t="shared" ref="M8:M12" si="4">E8/$K$7</f>
+        <v>2.4763258661408298E-3</v>
+      </c>
+      <c r="N8" s="92">
+        <f t="shared" ref="N8:N12" si="5">F8/$K$7</f>
+        <v>1.5319809624260132E-2</v>
+      </c>
+      <c r="O8" s="92">
+        <f t="shared" ref="O8:O12" si="6">G8/$K$7</f>
+        <v>1.5395147580505157E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>129</v>
       </c>
@@ -2861,8 +5027,32 @@
       <c r="I9" s="72">
         <v>100355</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.2992654349435111</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>143214</v>
+      </c>
+      <c r="L9" s="92">
+        <f t="shared" si="3"/>
+        <v>0.16560920564314047</v>
+      </c>
+      <c r="M9" s="92">
+        <f t="shared" si="4"/>
+        <v>3.7524853336652571E-2</v>
+      </c>
+      <c r="N9" s="92">
+        <f t="shared" si="5"/>
+        <v>0.26262156434352796</v>
+      </c>
+      <c r="O9" s="92">
+        <f t="shared" si="6"/>
+        <v>3.3509012712461227E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>130</v>
       </c>
@@ -2889,8 +5079,32 @@
         <f>131015 * 175121/189480</f>
         <v>121086.54113890648</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.30855499261135738</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>175121</v>
+      </c>
+      <c r="L10" s="92">
+        <f t="shared" si="3"/>
+        <v>0.3143590869039703</v>
+      </c>
+      <c r="M10" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="92">
+        <f t="shared" si="5"/>
+        <v>0.2503611308554789</v>
+      </c>
+      <c r="O10" s="92">
+        <f t="shared" si="6"/>
+        <v>8.8997055268579817E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>131</v>
       </c>
@@ -2915,8 +5129,32 @@
       <c r="I11" s="72">
         <v>8125</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.32527819299119748</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>12042</v>
+      </c>
+      <c r="L11" s="92">
+        <f t="shared" si="3"/>
+        <v>1.3370849451834478E-2</v>
+      </c>
+      <c r="M11" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="92">
+        <f t="shared" si="5"/>
+        <v>2.5480607027393538E-2</v>
+      </c>
+      <c r="O11" s="92">
+        <f t="shared" si="6"/>
+        <v>5.9287696001519862E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>133</v>
       </c>
@@ -2943,8 +5181,32 @@
         <f>131015* 14359/189480</f>
         <v>9928.4588610935189</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.30855499261135744</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>14359</v>
+      </c>
+      <c r="L12" s="92">
+        <f t="shared" si="3"/>
+        <v>1.4923466463145E-2</v>
+      </c>
+      <c r="M12" s="92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="92">
+        <f t="shared" si="5"/>
+        <v>3.0741161711285298E-2</v>
+      </c>
+      <c r="O12" s="92">
+        <f t="shared" si="6"/>
+        <v>1.3691854656704588E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="65"/>
     </row>
   </sheetData>
@@ -3992,7 +6254,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5344,7 +7606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -6474,10 +8736,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6492,12 +8754,12 @@
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +8767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6513,7 +8775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -6521,7 +8783,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -6529,7 +8791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -6537,7 +8799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>99</v>
       </c>
@@ -6556,7 +8818,7 @@
       </c>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6588,7 +8850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>18</v>
       </c>
@@ -6627,8 +8889,12 @@
       <c r="K11" s="71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f>B11/(B11+E11)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>19</v>
       </c>
@@ -6658,8 +8924,12 @@
         <v>720.25</v>
       </c>
       <c r="K12" s="71"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" ref="L12:L75" si="3">B12/(B12+E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>20</v>
       </c>
@@ -6670,7 +8940,7 @@
         <v>18440</v>
       </c>
       <c r="D13" s="54">
-        <f t="shared" ref="D13:D76" si="3">C13/B13</f>
+        <f t="shared" ref="D13:D76" si="4">C13/B13</f>
         <v>2048.8888888888887</v>
       </c>
       <c r="E13" s="54">
@@ -6695,8 +8965,12 @@
         <f t="shared" si="2"/>
         <v>1430.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>21</v>
       </c>
@@ -6707,7 +8981,7 @@
         <v>17918</v>
       </c>
       <c r="D14" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>639.92857142857144</v>
       </c>
       <c r="E14" s="54">
@@ -6732,8 +9006,12 @@
         <f t="shared" si="2"/>
         <v>688.08928571428567</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>22</v>
       </c>
@@ -6744,7 +9022,7 @@
         <v>91733</v>
       </c>
       <c r="D15" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1411.2769230769231</v>
       </c>
       <c r="E15" s="54">
@@ -6769,8 +9047,12 @@
         <f t="shared" si="2"/>
         <v>1198.1727272727273</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>23</v>
       </c>
@@ -6781,7 +9063,7 @@
         <v>196067</v>
       </c>
       <c r="D16" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1324.7770270270271</v>
       </c>
       <c r="E16" s="54">
@@ -6806,8 +9088,12 @@
         <f t="shared" si="2"/>
         <v>1287.8483870967741</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0.47741935483870968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>24</v>
       </c>
@@ -6818,7 +9104,7 @@
         <v>434307</v>
       </c>
       <c r="D17" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1670.4115384615384</v>
       </c>
       <c r="E17" s="54">
@@ -6843,8 +9129,12 @@
         <f t="shared" si="2"/>
         <v>1804.7028885832187</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>0.35763411279229712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>25</v>
       </c>
@@ -6855,7 +9145,7 @@
         <v>755124</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1931.2634271099744</v>
       </c>
       <c r="E18" s="54">
@@ -6880,8 +9170,12 @@
         <f t="shared" si="2"/>
         <v>2317.2841444270016</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0.30690737833594978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>26</v>
       </c>
@@ -6892,7 +9186,7 @@
         <v>1462623</v>
       </c>
       <c r="D19" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2688.6452205882351</v>
       </c>
       <c r="E19" s="54">
@@ -6917,8 +9211,12 @@
         <f t="shared" si="2"/>
         <v>3037.9148029818957</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0.28966986155484559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>27</v>
       </c>
@@ -6929,7 +9227,7 @@
         <v>2005000</v>
       </c>
       <c r="D20" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2939.8826979472142</v>
       </c>
       <c r="E20" s="54">
@@ -6954,8 +9252,12 @@
         <f t="shared" si="2"/>
         <v>3485.3613588110402</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>0.28959660297239914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>28</v>
       </c>
@@ -6966,7 +9268,7 @@
         <v>2797007</v>
       </c>
       <c r="D21" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3415.1489621489623</v>
       </c>
       <c r="E21" s="54">
@@ -6991,8 +9293,12 @@
         <f t="shared" si="2"/>
         <v>4061.8431952662722</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>0.30288461538461536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>29</v>
       </c>
@@ -7003,7 +9309,7 @@
         <v>3691311</v>
       </c>
       <c r="D22" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3964.8882921589689</v>
       </c>
       <c r="E22" s="54">
@@ -7028,8 +9334,12 @@
         <f t="shared" si="2"/>
         <v>4558.632455848051</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>0.31022992335888039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>30</v>
       </c>
@@ -7040,7 +9350,7 @@
         <v>4664566</v>
       </c>
       <c r="D23" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4506.8270531400967</v>
       </c>
       <c r="E23" s="54">
@@ -7065,8 +9375,12 @@
         <f t="shared" si="2"/>
         <v>5381.3377576955663</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>0.29229031347077095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>31</v>
       </c>
@@ -7077,7 +9391,7 @@
         <v>5827214</v>
       </c>
       <c r="D24" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4963.5553662691655</v>
       </c>
       <c r="E24" s="54">
@@ -7102,8 +9416,12 @@
         <f t="shared" si="2"/>
         <v>5907.7912539260687</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>0.28364339212370138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>32</v>
       </c>
@@ -7114,7 +9432,7 @@
         <v>6645241</v>
       </c>
       <c r="D25" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5854.8378854625553</v>
       </c>
       <c r="E25" s="54">
@@ -7139,8 +9457,12 @@
         <f t="shared" si="2"/>
         <v>6880.7122815087396</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0.2610395584176633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>33</v>
       </c>
@@ -7151,7 +9473,7 @@
         <v>8675638</v>
       </c>
       <c r="D26" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6393.2483419307291</v>
       </c>
       <c r="E26" s="54">
@@ -7176,8 +9498,12 @@
         <f t="shared" si="2"/>
         <v>7358.3901770657676</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.28604553119730186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>34</v>
       </c>
@@ -7188,7 +9514,7 @@
         <v>9403394</v>
       </c>
       <c r="D27" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7238.9484218629714</v>
       </c>
       <c r="E27" s="54">
@@ -7213,8 +9539,12 @@
         <f t="shared" si="2"/>
         <v>8062.7157765500306</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.26580724370779618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>35</v>
       </c>
@@ -7225,7 +9555,7 @@
         <v>9953775</v>
       </c>
       <c r="D28" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7716.104651162791</v>
       </c>
       <c r="E28" s="54">
@@ -7250,8 +9580,12 @@
         <f t="shared" si="2"/>
         <v>8849.500945179585</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>0.27095148078134845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>36</v>
       </c>
@@ -7262,7 +9596,7 @@
         <v>11066506</v>
       </c>
       <c r="D29" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8234.0074404761908</v>
       </c>
       <c r="E29" s="54">
@@ -7287,8 +9621,12 @@
         <f t="shared" si="2"/>
         <v>9119.3762234910282</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0.27406199021207178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>37</v>
       </c>
@@ -7299,7 +9637,7 @@
         <v>11820244</v>
       </c>
       <c r="D30" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9106.5053929121732</v>
       </c>
       <c r="E30" s="54">
@@ -7324,8 +9662,12 @@
         <f t="shared" si="2"/>
         <v>9750.0992561105213</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0.27587672688629117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>38</v>
       </c>
@@ -7336,7 +9678,7 @@
         <v>12601744</v>
       </c>
       <c r="D31" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9761.2269558481803</v>
       </c>
       <c r="E31" s="54">
@@ -7361,8 +9703,12 @@
         <f t="shared" si="2"/>
         <v>10374.193534482758</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>0.27823275862068964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>39</v>
       </c>
@@ -7373,7 +9719,7 @@
         <v>13274752</v>
       </c>
       <c r="D32" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10282.534469403563</v>
       </c>
       <c r="E32" s="54">
@@ -7398,8 +9744,12 @@
         <f t="shared" si="2"/>
         <v>10919.402600264433</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.28448655795504629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>40</v>
       </c>
@@ -7410,7 +9760,7 @@
         <v>13937373</v>
       </c>
       <c r="D33" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12140.568815331011</v>
       </c>
       <c r="E33" s="54">
@@ -7435,8 +9785,12 @@
         <f t="shared" si="2"/>
         <v>11645.119504493563</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.27884381831430655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>41</v>
       </c>
@@ -7447,7 +9801,7 @@
         <v>16027989</v>
       </c>
       <c r="D34" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12720.62619047619</v>
       </c>
       <c r="E34" s="54">
@@ -7472,8 +9826,12 @@
         <f t="shared" si="2"/>
         <v>12003.363827304551</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>0.29404900816802798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>42</v>
       </c>
@@ -7484,7 +9842,7 @@
         <v>16410111</v>
       </c>
       <c r="D35" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13439.89434889435</v>
       </c>
       <c r="E35" s="54">
@@ -7509,8 +9867,12 @@
         <f t="shared" si="2"/>
         <v>12905.659730722155</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.2988984088127295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>43</v>
       </c>
@@ -7521,7 +9883,7 @@
         <v>17435758</v>
       </c>
       <c r="D36" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13611.052302888369</v>
       </c>
       <c r="E36" s="54">
@@ -7546,8 +9908,12 @@
         <f t="shared" si="2"/>
         <v>13196.41226164615</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0.30919623461259954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>44</v>
       </c>
@@ -7558,7 +9924,7 @@
         <v>18620668</v>
       </c>
       <c r="D37" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14593</v>
       </c>
       <c r="E37" s="54">
@@ -7583,8 +9949,12 @@
         <f t="shared" si="2"/>
         <v>13607.970411354341</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.30695212893913881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>45</v>
       </c>
@@ -7595,7 +9965,7 @@
         <v>20293027</v>
       </c>
       <c r="D38" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14536.55229226361</v>
       </c>
       <c r="E38" s="54">
@@ -7620,8 +9990,12 @@
         <f t="shared" si="2"/>
         <v>14258.637248396373</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.30878124308781241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>46</v>
       </c>
@@ -7632,7 +10006,7 @@
         <v>20700349</v>
       </c>
       <c r="D39" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15923.345384615384</v>
       </c>
       <c r="E39" s="54">
@@ -7657,8 +10031,12 @@
         <f t="shared" si="2"/>
         <v>14300.251786949504</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.29974636845745906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>47</v>
       </c>
@@ -7669,7 +10047,7 @@
         <v>18940179</v>
       </c>
       <c r="D40" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16078.250424448217</v>
       </c>
       <c r="E40" s="54">
@@ -7694,8 +10072,12 @@
         <f t="shared" si="2"/>
         <v>15114.745667686035</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.30020387359836903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>48</v>
       </c>
@@ -7706,7 +10088,7 @@
         <v>19139885</v>
       </c>
       <c r="D41" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17073.938447814453</v>
       </c>
       <c r="E41" s="54">
@@ -7731,8 +10113,12 @@
         <f t="shared" si="2"/>
         <v>15671.751641137855</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.30661925601750545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>49</v>
       </c>
@@ -7743,7 +10129,7 @@
         <v>20174524</v>
       </c>
       <c r="D42" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18373.883424408014</v>
       </c>
       <c r="E42" s="54">
@@ -7768,8 +10154,12 @@
         <f t="shared" si="2"/>
         <v>16220.761782347901</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>0.31362467866323906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>50</v>
       </c>
@@ -7780,7 +10170,7 @@
         <v>18762486</v>
       </c>
       <c r="D43" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17292.613824884793</v>
       </c>
       <c r="E43" s="54">
@@ -7805,8 +10195,12 @@
         <f t="shared" si="2"/>
         <v>16044.22652757079</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0.32339791356184799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>51</v>
       </c>
@@ -7817,7 +10211,7 @@
         <v>18079349</v>
       </c>
       <c r="D44" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17400.720885466795</v>
       </c>
       <c r="E44" s="54">
@@ -7842,8 +10236,12 @@
         <f t="shared" si="2"/>
         <v>15310.494817885698</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>0.30766952916790052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>52</v>
       </c>
@@ -7854,7 +10252,7 @@
         <v>17654324</v>
       </c>
       <c r="D45" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18181.590113285274</v>
       </c>
       <c r="E45" s="54">
@@ -7879,8 +10277,12 @@
         <f t="shared" si="2"/>
         <v>16353.132721712538</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>0.29694189602446486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>53</v>
       </c>
@@ -7891,7 +10293,7 @@
         <v>17467028</v>
       </c>
       <c r="D46" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17751.044715447155</v>
       </c>
       <c r="E46" s="54">
@@ -7916,8 +10318,12 @@
         <f t="shared" si="2"/>
         <v>16289.365778053318</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>0.3050216986980781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>54</v>
       </c>
@@ -7928,7 +10334,7 @@
         <v>17369919</v>
       </c>
       <c r="D47" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18962.793668122271</v>
       </c>
       <c r="E47" s="54">
@@ -7953,8 +10359,12 @@
         <f t="shared" si="2"/>
         <v>16873.23118622449</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>0.29209183673469385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>55</v>
       </c>
@@ -7965,7 +10375,7 @@
         <v>17426966</v>
       </c>
       <c r="D48" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18499.963906581743</v>
       </c>
       <c r="E48" s="54">
@@ -7990,8 +10400,12 @@
         <f t="shared" si="2"/>
         <v>17331.494278448823</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>0.29942784488239033</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>56</v>
       </c>
@@ -8002,7 +10416,7 @@
         <v>18329257</v>
       </c>
       <c r="D49" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20971.689931350113</v>
       </c>
       <c r="E49" s="54">
@@ -8027,8 +10441,12 @@
         <f t="shared" si="2"/>
         <v>18560.330662020904</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>0.30452961672473866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="56">
         <v>57</v>
       </c>
@@ -8039,7 +10457,7 @@
         <v>17937064</v>
       </c>
       <c r="D50" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21610.920481927711</v>
       </c>
       <c r="E50" s="56">
@@ -8064,8 +10482,12 @@
         <f t="shared" si="2"/>
         <v>19154.145627644572</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>0.29266572637517629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>58</v>
       </c>
@@ -8076,7 +10498,7 @@
         <v>16912221</v>
       </c>
       <c r="D51" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20061.94661921708</v>
       </c>
       <c r="E51" s="54">
@@ -8101,8 +10523,12 @@
         <f t="shared" si="2"/>
         <v>19045.242135030046</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>0.29798515376458112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>59</v>
       </c>
@@ -8113,7 +10539,7 @@
         <v>17404677</v>
       </c>
       <c r="D52" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21199.362971985385</v>
       </c>
       <c r="E52" s="54">
@@ -8138,8 +10564,12 @@
         <f t="shared" si="2"/>
         <v>20217.391654465591</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>0.30051244509516839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>60</v>
       </c>
@@ -8150,7 +10580,7 @@
         <v>15801752</v>
       </c>
       <c r="D53" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20389.357419354837</v>
       </c>
       <c r="E53" s="54">
@@ -8175,8 +10605,12 @@
         <f t="shared" si="2"/>
         <v>20215.840632603406</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>0.3142741281427413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>61</v>
       </c>
@@ -8187,7 +10621,7 @@
         <v>11915909</v>
       </c>
       <c r="D54" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18304.007680491552</v>
       </c>
       <c r="E54" s="54">
@@ -8212,8 +10646,12 @@
         <f t="shared" si="2"/>
         <v>17854.886948083455</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>0.31586608442503639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>62</v>
       </c>
@@ -8224,7 +10662,7 @@
         <v>9761110</v>
       </c>
       <c r="D55" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17910.293577981651</v>
       </c>
       <c r="E55" s="54">
@@ -8249,8 +10687,12 @@
         <f t="shared" si="2"/>
         <v>17594.990422535211</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>0.30704225352112674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>63</v>
       </c>
@@ -8261,7 +10703,7 @@
         <v>8833983</v>
       </c>
       <c r="D56" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17021.161849710981</v>
       </c>
       <c r="E56" s="54">
@@ -8286,8 +10728,12 @@
         <f t="shared" si="2"/>
         <v>17288.494851994852</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>0.33397683397683398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>64</v>
       </c>
@@ -8298,7 +10744,7 @@
         <v>7503814</v>
       </c>
       <c r="D57" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16976.954751131223</v>
       </c>
       <c r="E57" s="54">
@@ -8323,8 +10769,12 @@
         <f t="shared" si="2"/>
         <v>15906.453608247422</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>0.35051546391752575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>65</v>
       </c>
@@ -8335,7 +10785,7 @@
         <v>6256044</v>
       </c>
       <c r="D58" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13115.396226415094</v>
       </c>
       <c r="E58" s="54">
@@ -8360,8 +10810,12 @@
         <f t="shared" si="2"/>
         <v>13772.075348075348</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>0.39066339066339067</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>66</v>
       </c>
@@ -8372,7 +10826,7 @@
         <v>2769314</v>
       </c>
       <c r="D59" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9549.3586206896543</v>
       </c>
       <c r="E59" s="54">
@@ -8397,8 +10851,12 @@
         <f t="shared" si="2"/>
         <v>10719.044827586207</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>67</v>
       </c>
@@ -8409,7 +10867,7 @@
         <v>2823656</v>
       </c>
       <c r="D60" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10343.06227106227</v>
       </c>
       <c r="E60" s="54">
@@ -8434,8 +10892,12 @@
         <f t="shared" si="2"/>
         <v>10213.156160458453</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>0.39111747851002865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>68</v>
       </c>
@@ -8446,7 +10908,7 @@
         <v>2034571</v>
       </c>
       <c r="D61" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8769.7025862068967</v>
       </c>
       <c r="E61" s="54">
@@ -8471,8 +10933,12 @@
         <f t="shared" si="2"/>
         <v>9821.5271186440677</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>0.39322033898305087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>69</v>
       </c>
@@ -8483,7 +10949,7 @@
         <v>2843720</v>
       </c>
       <c r="D62" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14147.860696517413</v>
       </c>
       <c r="E62" s="54">
@@ -8508,8 +10974,12 @@
         <f t="shared" si="2"/>
         <v>11954.343195266272</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>0.39644970414201186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>70</v>
       </c>
@@ -8520,7 +10990,7 @@
         <v>1183843</v>
       </c>
       <c r="D63" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11606.303921568628</v>
       </c>
       <c r="E63" s="54">
@@ -8545,8 +11015,12 @@
         <f t="shared" si="2"/>
         <v>11130.486692015209</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>0.38783269961977185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>71</v>
       </c>
@@ -8557,7 +11031,7 @@
         <v>972532</v>
       </c>
       <c r="D64" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10130.541666666666</v>
       </c>
       <c r="E64" s="54">
@@ -8582,8 +11056,12 @@
         <f t="shared" si="2"/>
         <v>10589.412621359223</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>0.46601941747572817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>72</v>
       </c>
@@ -8594,7 +11072,7 @@
         <v>449271</v>
       </c>
       <c r="D65" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8985.42</v>
       </c>
       <c r="E65" s="54">
@@ -8619,8 +11097,12 @@
         <f t="shared" si="2"/>
         <v>12409.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>73</v>
       </c>
@@ -8631,7 +11113,7 @@
         <v>633372</v>
       </c>
       <c r="D66" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11515.854545454546</v>
       </c>
       <c r="E66" s="54">
@@ -8656,8 +11138,12 @@
         <f t="shared" si="2"/>
         <v>9110.5765765765773</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>0.49549549549549549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>74</v>
       </c>
@@ -8668,7 +11154,7 @@
         <v>192012</v>
       </c>
       <c r="D67" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6857.5714285714284</v>
       </c>
       <c r="E67" s="54">
@@ -8693,8 +11179,12 @@
         <f t="shared" si="2"/>
         <v>9430.0810810810817</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" si="3"/>
+        <v>0.3783783783783784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>75</v>
       </c>
@@ -8705,7 +11195,7 @@
         <v>508548</v>
       </c>
       <c r="D68" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16404.774193548386</v>
       </c>
       <c r="E68" s="54">
@@ -8730,8 +11220,12 @@
         <f t="shared" si="2"/>
         <v>12598.955223880597</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="3"/>
+        <v>0.46268656716417911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>76</v>
       </c>
@@ -8742,7 +11236,7 @@
         <v>170131</v>
       </c>
       <c r="D69" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7088.791666666667</v>
       </c>
       <c r="E69" s="54">
@@ -8767,8 +11261,12 @@
         <f t="shared" si="2"/>
         <v>10143.613636363636</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>77</v>
       </c>
@@ -8779,7 +11277,7 @@
         <v>199379</v>
       </c>
       <c r="D70" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12461.1875</v>
       </c>
       <c r="E70" s="54">
@@ -8804,8 +11302,12 @@
         <f t="shared" si="2"/>
         <v>8582.1578947368416</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>78</v>
       </c>
@@ -8816,7 +11318,7 @@
         <v>185894</v>
       </c>
       <c r="D71" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9294.7000000000007</v>
       </c>
       <c r="E71" s="54">
@@ -8841,8 +11343,12 @@
         <f t="shared" si="2"/>
         <v>8305.8064516129034</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>79</v>
       </c>
@@ -8853,7 +11359,7 @@
         <v>44895</v>
       </c>
       <c r="D72" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4489.5</v>
       </c>
       <c r="E72" s="54">
@@ -8878,8 +11384,12 @@
         <f t="shared" si="2"/>
         <v>7084.7619047619046</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>80</v>
       </c>
@@ -8890,7 +11400,7 @@
         <v>49609</v>
       </c>
       <c r="D73" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4509.909090909091</v>
       </c>
       <c r="E73" s="54">
@@ -8915,8 +11425,12 @@
         <f t="shared" si="2"/>
         <v>10031.454545454546</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>81</v>
       </c>
@@ -8927,7 +11441,7 @@
         <v>64719</v>
       </c>
       <c r="D74" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7191</v>
       </c>
       <c r="E74" s="54">
@@ -8952,8 +11466,12 @@
         <f t="shared" si="2"/>
         <v>9632.78947368421</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>82</v>
       </c>
@@ -8964,7 +11482,7 @@
         <v>23386</v>
       </c>
       <c r="D75" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5846.5</v>
       </c>
       <c r="E75" s="54">
@@ -8989,8 +11507,12 @@
         <f t="shared" si="2"/>
         <v>5065.166666666667</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>83</v>
       </c>
@@ -9001,7 +11523,7 @@
         <v>24879</v>
       </c>
       <c r="D76" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6219.75</v>
       </c>
       <c r="E76" s="54">
@@ -9011,23 +11533,27 @@
         <v>7186</v>
       </c>
       <c r="G76" s="54">
-        <f t="shared" ref="G76:G88" si="4">F76/E76</f>
+        <f t="shared" ref="G76:G88" si="5">F76/E76</f>
         <v>2395.3333333333335</v>
       </c>
       <c r="H76" s="13">
-        <f t="shared" ref="H76:I88" si="5">B76+E76</f>
+        <f t="shared" ref="H76:I88" si="6">B76+E76</f>
         <v>7</v>
       </c>
       <c r="I76" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32065</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" ref="J76:J88" si="6">I76/H76</f>
+        <f t="shared" ref="J76:J88" si="7">I76/H76</f>
         <v>4580.7142857142853</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" ref="L76:L88" si="8">B76/(B76+E76)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>84</v>
       </c>
@@ -9038,7 +11564,7 @@
         <v>3227</v>
       </c>
       <c r="D77" s="54">
-        <f t="shared" ref="D77:D85" si="7">C77/B77</f>
+        <f t="shared" ref="D77:D85" si="9">C77/B77</f>
         <v>1075.6666666666667</v>
       </c>
       <c r="E77" s="54">
@@ -9048,23 +11574,27 @@
         <v>11209</v>
       </c>
       <c r="G77" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5604.5</v>
       </c>
       <c r="H77" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I77" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14436</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2887.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>85</v>
       </c>
@@ -9075,7 +11605,7 @@
         <v>5242</v>
       </c>
       <c r="D78" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5242</v>
       </c>
       <c r="E78" s="54">
@@ -9085,23 +11615,27 @@
         <v>6417</v>
       </c>
       <c r="G78" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3208.5</v>
       </c>
       <c r="H78" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I78" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11659</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3886.3333333333335</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>86</v>
       </c>
@@ -9112,63 +11646,71 @@
         <v>16276</v>
       </c>
       <c r="D79" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5425.333333333333</v>
       </c>
       <c r="E79" s="55"/>
       <c r="F79" s="55"/>
       <c r="G79" s="54"/>
       <c r="H79" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I79" s="13">
+        <f t="shared" si="6"/>
+        <v>16276</v>
+      </c>
+      <c r="J79" s="13">
+        <f t="shared" si="7"/>
+        <v>5425.333333333333</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="54">
+        <v>87</v>
+      </c>
+      <c r="B80" s="54">
+        <v>3</v>
+      </c>
+      <c r="C80" s="54">
+        <v>16995</v>
+      </c>
+      <c r="D80" s="54">
+        <f t="shared" si="9"/>
+        <v>5665</v>
+      </c>
+      <c r="E80" s="54">
+        <v>1</v>
+      </c>
+      <c r="F80" s="54">
+        <v>3</v>
+      </c>
+      <c r="G80" s="54">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I79" s="13">
-        <f t="shared" si="5"/>
-        <v>16276</v>
-      </c>
-      <c r="J79" s="13">
+      <c r="H80" s="13">
         <f t="shared" si="6"/>
-        <v>5425.333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54">
-        <v>87</v>
-      </c>
-      <c r="B80" s="54">
-        <v>3</v>
-      </c>
-      <c r="C80" s="54">
-        <v>16995</v>
-      </c>
-      <c r="D80" s="54">
+        <v>4</v>
+      </c>
+      <c r="I80" s="13">
+        <f t="shared" si="6"/>
+        <v>16998</v>
+      </c>
+      <c r="J80" s="13">
         <f t="shared" si="7"/>
-        <v>5665</v>
-      </c>
-      <c r="E80" s="54">
-        <v>1</v>
-      </c>
-      <c r="F80" s="54">
-        <v>3</v>
-      </c>
-      <c r="G80" s="54">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H80" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I80" s="13">
-        <f t="shared" si="5"/>
-        <v>16998</v>
-      </c>
-      <c r="J80" s="13">
-        <f t="shared" si="6"/>
         <v>4249.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>88</v>
       </c>
@@ -9179,26 +11721,30 @@
         <v>97</v>
       </c>
       <c r="D81" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48.5</v>
       </c>
       <c r="E81" s="55"/>
       <c r="F81" s="55"/>
       <c r="G81" s="54"/>
       <c r="H81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I81" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>89</v>
       </c>
@@ -9209,7 +11755,7 @@
         <v>17074</v>
       </c>
       <c r="D82" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17074</v>
       </c>
       <c r="E82" s="54">
@@ -9219,23 +11765,27 @@
         <v>6048</v>
       </c>
       <c r="G82" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6048</v>
       </c>
       <c r="H82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I82" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23122</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11561</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>90</v>
       </c>
@@ -9246,7 +11796,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="E83" s="54">
@@ -9256,23 +11806,27 @@
         <v>3</v>
       </c>
       <c r="G83" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I83" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
         <v>91</v>
       </c>
@@ -9283,26 +11837,30 @@
         <v>38</v>
       </c>
       <c r="D84" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="E84" s="55"/>
       <c r="F84" s="55"/>
       <c r="G84" s="54"/>
       <c r="H84" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I84" s="13">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="J84" s="13">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="13">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="54">
         <v>92</v>
       </c>
@@ -9313,7 +11871,7 @@
         <v>2078</v>
       </c>
       <c r="D85" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2078</v>
       </c>
       <c r="E85" s="54">
@@ -9323,23 +11881,27 @@
         <v>5</v>
       </c>
       <c r="G85" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I85" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2083</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1041.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="54">
         <v>93</v>
       </c>
@@ -9353,23 +11915,27 @@
         <v>87</v>
       </c>
       <c r="G86" s="54">
-        <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="H86" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I86" s="13">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="J86" s="13">
+      <c r="H86" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="13">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="13">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="54">
         <v>94</v>
       </c>
@@ -9383,23 +11949,27 @@
         <v>242</v>
       </c>
       <c r="G87" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="H87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I87" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>242</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="54">
         <v>97</v>
       </c>
@@ -9413,20 +11983,24 @@
         <v>1095</v>
       </c>
       <c r="G88" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>547.5</v>
       </c>
       <c r="H88" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I88" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1095</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>547.5</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10656,10 +13230,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10671,14 +13245,15 @@
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="13" width="15.140625" style="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10686,7 +13261,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
@@ -10694,7 +13269,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -10702,7 +13277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -10710,7 +13285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -10718,7 +13293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
         <v>86</v>
       </c>
@@ -10749,8 +13324,14 @@
       <c r="K8" s="61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>139</v>
       </c>
@@ -10789,8 +13370,16 @@
         <f>J9/I9</f>
         <v>10913.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="82">
+        <f>C9/(C9+F9)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="82">
+        <f>1-L9</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="69">
         <v>19</v>
       </c>
@@ -10819,8 +13408,16 @@
         <f t="shared" ref="K10:K73" si="3">J10/I10</f>
         <v>15365</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="82">
+        <f t="shared" ref="L10:L73" si="4">C10/(C10+F10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="82">
+        <f t="shared" ref="M10:M73" si="5">1-L10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="57">
         <v>20</v>
       </c>
@@ -10831,7 +13428,7 @@
         <v>36282</v>
       </c>
       <c r="E11" s="57">
-        <f t="shared" ref="E11:E73" si="4">D11/C11</f>
+        <f t="shared" ref="E11:E73" si="6">D11/C11</f>
         <v>12094</v>
       </c>
       <c r="F11" s="57">
@@ -10856,8 +13453,16 @@
         <f t="shared" si="3"/>
         <v>18046</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="82">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="82">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="57">
         <v>21</v>
       </c>
@@ -10868,7 +13473,7 @@
         <v>32765</v>
       </c>
       <c r="E12" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10921.666666666666</v>
       </c>
       <c r="F12" s="57">
@@ -10893,8 +13498,16 @@
         <f t="shared" si="3"/>
         <v>10520.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="82">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="M12" s="82">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="57">
         <v>22</v>
       </c>
@@ -10905,7 +13518,7 @@
         <v>19808</v>
       </c>
       <c r="E13" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6602.666666666667</v>
       </c>
       <c r="F13" s="58"/>
@@ -10923,8 +13536,16 @@
         <f t="shared" si="3"/>
         <v>6602.666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="82">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="57">
         <v>23</v>
       </c>
@@ -10953,8 +13574,16 @@
         <f t="shared" si="3"/>
         <v>14797</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="82">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="57">
         <v>24</v>
       </c>
@@ -10965,7 +13594,7 @@
         <v>34815</v>
       </c>
       <c r="E15" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34815</v>
       </c>
       <c r="F15" s="57">
@@ -10990,8 +13619,16 @@
         <f t="shared" si="3"/>
         <v>13199.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="82">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="82">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="57">
         <v>25</v>
       </c>
@@ -11002,7 +13639,7 @@
         <v>18028</v>
       </c>
       <c r="E16" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6009.333333333333</v>
       </c>
       <c r="F16" s="57">
@@ -11027,8 +13664,16 @@
         <f t="shared" si="3"/>
         <v>8591.7142857142862</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="82">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M16" s="82">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="57">
         <v>26</v>
       </c>
@@ -11039,7 +13684,7 @@
         <v>66812</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13362.4</v>
       </c>
       <c r="F17" s="57">
@@ -11064,8 +13709,16 @@
         <f t="shared" si="3"/>
         <v>13098.666666666666</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="82">
+        <f t="shared" si="4"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M17" s="82">
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="57">
         <v>27</v>
       </c>
@@ -11076,7 +13729,7 @@
         <v>72375</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10339.285714285714</v>
       </c>
       <c r="F18" s="57">
@@ -11101,8 +13754,16 @@
         <f t="shared" si="3"/>
         <v>11034.272727272728</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="82">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M18" s="82">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="57">
         <v>28</v>
       </c>
@@ -11113,7 +13774,7 @@
         <v>79462</v>
       </c>
       <c r="E19" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13243.666666666666</v>
       </c>
       <c r="F19" s="57">
@@ -11138,8 +13799,16 @@
         <f t="shared" si="3"/>
         <v>15065.538461538461</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="82">
+        <f t="shared" si="4"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M19" s="82">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="57">
         <v>29</v>
       </c>
@@ -11150,7 +13819,7 @@
         <v>27217</v>
       </c>
       <c r="E20" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9072.3333333333339</v>
       </c>
       <c r="F20" s="57">
@@ -11175,8 +13844,16 @@
         <f t="shared" si="3"/>
         <v>12201.3</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="82">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="82">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="57">
         <v>30</v>
       </c>
@@ -11187,7 +13864,7 @@
         <v>24108</v>
       </c>
       <c r="E21" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8036</v>
       </c>
       <c r="F21" s="57">
@@ -11212,8 +13889,16 @@
         <f t="shared" si="3"/>
         <v>8985.2727272727279</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="82">
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M21" s="82">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="57">
         <v>31</v>
       </c>
@@ -11224,7 +13909,7 @@
         <v>107578</v>
       </c>
       <c r="E22" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13447.25</v>
       </c>
       <c r="F22" s="57">
@@ -11249,8 +13934,16 @@
         <f t="shared" si="3"/>
         <v>13857.875</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="82">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="82">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="57">
         <v>32</v>
       </c>
@@ -11261,7 +13954,7 @@
         <v>84441</v>
       </c>
       <c r="E23" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10555.125</v>
       </c>
       <c r="F23" s="57">
@@ -11286,8 +13979,16 @@
         <f t="shared" si="3"/>
         <v>10493.0625</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="82">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="82">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="57">
         <v>33</v>
       </c>
@@ -11298,7 +13999,7 @@
         <v>102023</v>
       </c>
       <c r="E24" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14574.714285714286</v>
       </c>
       <c r="F24" s="57">
@@ -11323,8 +14024,16 @@
         <f t="shared" si="3"/>
         <v>12870.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="82">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="M24" s="82">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="57">
         <v>34</v>
       </c>
@@ -11335,7 +14044,7 @@
         <v>97463</v>
       </c>
       <c r="E25" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6961.6428571428569</v>
       </c>
       <c r="F25" s="57">
@@ -11360,8 +14069,16 @@
         <f t="shared" si="3"/>
         <v>11030.892857142857</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="82">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="82">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="57">
         <v>35</v>
       </c>
@@ -11372,7 +14089,7 @@
         <v>244848</v>
       </c>
       <c r="E26" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16323.2</v>
       </c>
       <c r="F26" s="57">
@@ -11397,8 +14114,16 @@
         <f t="shared" si="3"/>
         <v>11284.428571428571</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="82">
+        <f t="shared" si="4"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="M26" s="82">
+        <f t="shared" si="5"/>
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="57">
         <v>36</v>
       </c>
@@ -11409,7 +14134,7 @@
         <v>59793</v>
       </c>
       <c r="E27" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14948.25</v>
       </c>
       <c r="F27" s="57">
@@ -11434,8 +14159,16 @@
         <f t="shared" si="3"/>
         <v>13419.538461538461</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="82">
+        <f t="shared" si="4"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="M27" s="82">
+        <f t="shared" si="5"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="57">
         <v>37</v>
       </c>
@@ -11446,7 +14179,7 @@
         <v>54329</v>
       </c>
       <c r="E28" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7761.2857142857147</v>
       </c>
       <c r="F28" s="57">
@@ -11471,8 +14204,16 @@
         <f t="shared" si="3"/>
         <v>10747.470588235294</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="82">
+        <f t="shared" si="4"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="M28" s="82">
+        <f t="shared" si="5"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="57">
         <v>38</v>
       </c>
@@ -11483,7 +14224,7 @@
         <v>93418</v>
       </c>
       <c r="E29" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10379.777777777777</v>
       </c>
       <c r="F29" s="57">
@@ -11508,8 +14249,16 @@
         <f t="shared" si="3"/>
         <v>11344.571428571429</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="M29" s="82">
+        <f t="shared" si="5"/>
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="57">
         <v>39</v>
       </c>
@@ -11520,7 +14269,7 @@
         <v>276300</v>
       </c>
       <c r="E30" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14542.105263157895</v>
       </c>
       <c r="F30" s="57">
@@ -11545,8 +14294,16 @@
         <f t="shared" si="3"/>
         <v>12236.694444444445</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="82">
+        <f t="shared" si="4"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M30" s="82">
+        <f t="shared" si="5"/>
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="57">
         <v>40</v>
       </c>
@@ -11557,7 +14314,7 @@
         <v>186153</v>
       </c>
       <c r="E31" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14319.461538461539</v>
       </c>
       <c r="F31" s="57">
@@ -11582,8 +14339,16 @@
         <f t="shared" si="3"/>
         <v>14205.90909090909</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="82">
+        <f t="shared" si="4"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="M31" s="82">
+        <f t="shared" si="5"/>
+        <v>0.60606060606060608</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="57">
         <v>41</v>
       </c>
@@ -11594,7 +14359,7 @@
         <v>162850</v>
       </c>
       <c r="E32" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10856.666666666666</v>
       </c>
       <c r="F32" s="57">
@@ -11619,8 +14384,16 @@
         <f t="shared" si="3"/>
         <v>11790.176470588236</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="82">
+        <f t="shared" si="4"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="M32" s="82">
+        <f t="shared" si="5"/>
+        <v>0.55882352941176472</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="57">
         <v>42</v>
       </c>
@@ -11631,7 +14404,7 @@
         <v>144219</v>
       </c>
       <c r="E33" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11093.76923076923</v>
       </c>
       <c r="F33" s="57">
@@ -11656,8 +14429,16 @@
         <f t="shared" si="3"/>
         <v>9597.4482758620688</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="82">
+        <f t="shared" si="4"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="M33" s="82">
+        <f t="shared" si="5"/>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="57">
         <v>43</v>
       </c>
@@ -11668,7 +14449,7 @@
         <v>177659</v>
       </c>
       <c r="E34" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11103.6875</v>
       </c>
       <c r="F34" s="57">
@@ -11693,8 +14474,16 @@
         <f t="shared" si="3"/>
         <v>11177.388888888889</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="82">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M34" s="82">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="57">
         <v>44</v>
       </c>
@@ -11705,7 +14494,7 @@
         <v>209340</v>
       </c>
       <c r="E35" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10467</v>
       </c>
       <c r="F35" s="57">
@@ -11730,8 +14519,16 @@
         <f t="shared" si="3"/>
         <v>10085.270833333334</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="82">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M35" s="82">
+        <f t="shared" si="5"/>
+        <v>0.58333333333333326</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="57">
         <v>45</v>
       </c>
@@ -11742,7 +14539,7 @@
         <v>232291</v>
       </c>
       <c r="E36" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10558.681818181818</v>
       </c>
       <c r="F36" s="57">
@@ -11767,8 +14564,16 @@
         <f t="shared" si="3"/>
         <v>11610.132075471698</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="82">
+        <f t="shared" si="4"/>
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="M36" s="82">
+        <f t="shared" si="5"/>
+        <v>0.58490566037735847</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="57">
         <v>46</v>
       </c>
@@ -11779,7 +14584,7 @@
         <v>184553</v>
       </c>
       <c r="E37" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7382.12</v>
       </c>
       <c r="F37" s="57">
@@ -11804,8 +14609,16 @@
         <f t="shared" si="3"/>
         <v>10138.362068965518</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="82">
+        <f t="shared" si="4"/>
+        <v>0.43103448275862066</v>
+      </c>
+      <c r="M37" s="82">
+        <f t="shared" si="5"/>
+        <v>0.56896551724137934</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="57">
         <v>47</v>
       </c>
@@ -11816,7 +14629,7 @@
         <v>406159</v>
       </c>
       <c r="E38" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13101.903225806451</v>
       </c>
       <c r="F38" s="57">
@@ -11841,8 +14654,16 @@
         <f t="shared" si="3"/>
         <v>12088.77108433735</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="82">
+        <f t="shared" si="4"/>
+        <v>0.37349397590361444</v>
+      </c>
+      <c r="M38" s="82">
+        <f t="shared" si="5"/>
+        <v>0.62650602409638556</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="57">
         <v>48</v>
       </c>
@@ -11853,7 +14674,7 @@
         <v>593080</v>
       </c>
       <c r="E39" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17443.529411764706</v>
       </c>
       <c r="F39" s="57">
@@ -11878,8 +14699,16 @@
         <f t="shared" si="3"/>
         <v>13485.223684210527</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="82">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="M39" s="82">
+        <f t="shared" si="5"/>
+        <v>0.55263157894736836</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="57">
         <v>49</v>
       </c>
@@ -11890,7 +14719,7 @@
         <v>1446847</v>
       </c>
       <c r="E40" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22606.984375</v>
       </c>
       <c r="F40" s="57">
@@ -11915,8 +14744,16 @@
         <f t="shared" si="3"/>
         <v>18998.078740157482</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="82">
+        <f t="shared" si="4"/>
+        <v>0.50393700787401574</v>
+      </c>
+      <c r="M40" s="82">
+        <f t="shared" si="5"/>
+        <v>0.49606299212598426</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="57">
         <v>50</v>
       </c>
@@ -11927,7 +14764,7 @@
         <v>3080759</v>
       </c>
       <c r="E41" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27263.353982300883</v>
       </c>
       <c r="F41" s="57">
@@ -11952,8 +14789,16 @@
         <f t="shared" si="3"/>
         <v>22812.412844036699</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="82">
+        <f t="shared" si="4"/>
+        <v>0.51834862385321101</v>
+      </c>
+      <c r="M41" s="82">
+        <f t="shared" si="5"/>
+        <v>0.48165137614678899</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="57">
         <v>51</v>
       </c>
@@ -11964,7 +14809,7 @@
         <v>6143219</v>
       </c>
       <c r="E42" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27182.384955752212</v>
       </c>
       <c r="F42" s="57">
@@ -11989,8 +14834,16 @@
         <f t="shared" si="3"/>
         <v>23615.761904761905</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="82">
+        <f t="shared" si="4"/>
+        <v>0.48917748917748916</v>
+      </c>
+      <c r="M42" s="82">
+        <f t="shared" si="5"/>
+        <v>0.51082251082251084</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="59">
         <v>52</v>
       </c>
@@ -12001,7 +14854,7 @@
         <v>8590169</v>
       </c>
       <c r="E43" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26844.278125000001</v>
       </c>
       <c r="F43" s="59">
@@ -12026,8 +14879,16 @@
         <f t="shared" si="3"/>
         <v>24931.199134199134</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="82">
+        <f t="shared" si="4"/>
+        <v>0.46176046176046176</v>
+      </c>
+      <c r="M43" s="82">
+        <f t="shared" si="5"/>
+        <v>0.53823953823953818</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="57">
         <v>53</v>
       </c>
@@ -12038,7 +14899,7 @@
         <v>11482356</v>
       </c>
       <c r="E44" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28563.074626865673</v>
       </c>
       <c r="F44" s="57">
@@ -12063,8 +14924,16 @@
         <f t="shared" si="3"/>
         <v>26985.539175257731</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="82">
+        <f t="shared" si="4"/>
+        <v>0.41443298969072168</v>
+      </c>
+      <c r="M44" s="82">
+        <f t="shared" si="5"/>
+        <v>0.58556701030927827</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="57">
         <v>54</v>
       </c>
@@ -12075,7 +14944,7 @@
         <v>15277079</v>
       </c>
       <c r="E45" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30251.641584158417</v>
       </c>
       <c r="F45" s="57">
@@ -12100,8 +14969,16 @@
         <f t="shared" si="3"/>
         <v>28487.565737051791</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="82">
+        <f t="shared" si="4"/>
+        <v>0.40239043824701193</v>
+      </c>
+      <c r="M45" s="82">
+        <f t="shared" si="5"/>
+        <v>0.59760956175298807</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="57">
         <v>55</v>
       </c>
@@ -12112,7 +14989,7 @@
         <v>17489998</v>
       </c>
       <c r="E46" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30792.25</v>
       </c>
       <c r="F46" s="57">
@@ -12137,8 +15014,16 @@
         <f t="shared" si="3"/>
         <v>29041.976279650436</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="82">
+        <f t="shared" si="4"/>
+        <v>0.35455680399500622</v>
+      </c>
+      <c r="M46" s="82">
+        <f t="shared" si="5"/>
+        <v>0.64544319600499378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="57">
         <v>56</v>
       </c>
@@ -12149,7 +15034,7 @@
         <v>19956236</v>
       </c>
       <c r="E47" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31084.479750778817</v>
       </c>
       <c r="F47" s="57">
@@ -12174,8 +15059,16 @@
         <f t="shared" si="3"/>
         <v>29245.660042964555</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="82">
+        <f t="shared" si="4"/>
+        <v>0.34479054779806662</v>
+      </c>
+      <c r="M47" s="82">
+        <f t="shared" si="5"/>
+        <v>0.65520945220193338</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="57">
         <v>57</v>
       </c>
@@ -12186,7 +15079,7 @@
         <v>22143158</v>
       </c>
       <c r="E48" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30969.451748251748</v>
       </c>
       <c r="F48" s="57">
@@ -12211,8 +15104,16 @@
         <f t="shared" si="3"/>
         <v>29309.742964352721</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="82">
+        <f t="shared" si="4"/>
+        <v>0.33536585365853661</v>
+      </c>
+      <c r="M48" s="82">
+        <f t="shared" si="5"/>
+        <v>0.66463414634146334</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="57">
         <v>58</v>
       </c>
@@ -12223,7 +15124,7 @@
         <v>25509571</v>
       </c>
       <c r="E49" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32047.199748743718</v>
       </c>
       <c r="F49" s="57">
@@ -12248,8 +15149,16 @@
         <f t="shared" si="3"/>
         <v>30795.431765612953</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="82">
+        <f t="shared" si="4"/>
+        <v>0.30686198920585966</v>
+      </c>
+      <c r="M49" s="82">
+        <f t="shared" si="5"/>
+        <v>0.69313801079414028</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="57">
         <v>59</v>
       </c>
@@ -12260,7 +15169,7 @@
         <v>29068243</v>
       </c>
       <c r="E50" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31873.073464912282</v>
       </c>
       <c r="F50" s="57">
@@ -12285,8 +15194,16 @@
         <f t="shared" si="3"/>
         <v>30998.517777777779</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="82">
+        <f t="shared" si="4"/>
+        <v>0.28952380952380952</v>
+      </c>
+      <c r="M50" s="82">
+        <f t="shared" si="5"/>
+        <v>0.71047619047619048</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="57">
         <v>60</v>
       </c>
@@ -12297,7 +15214,7 @@
         <v>33023689</v>
       </c>
       <c r="E51" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31183.842304060436</v>
       </c>
       <c r="F51" s="57">
@@ -12322,8 +15239,16 @@
         <f t="shared" si="3"/>
         <v>29997.181602530312</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="82">
+        <f t="shared" si="4"/>
+        <v>0.27912493410648392</v>
+      </c>
+      <c r="M51" s="82">
+        <f t="shared" si="5"/>
+        <v>0.72087506589351613</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="57">
         <v>61</v>
       </c>
@@ -12334,7 +15259,7 @@
         <v>42479265</v>
       </c>
       <c r="E52" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29195.371134020617</v>
       </c>
       <c r="F52" s="57">
@@ -12359,8 +15284,16 @@
         <f t="shared" si="3"/>
         <v>27720.163677985503</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="82">
+        <f t="shared" si="4"/>
+        <v>0.27756581457458984</v>
+      </c>
+      <c r="M52" s="82">
+        <f t="shared" si="5"/>
+        <v>0.72243418542541016</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="57">
         <v>62</v>
       </c>
@@ -12371,7 +15304,7 @@
         <v>44534003</v>
       </c>
       <c r="E53" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26181.071722516168</v>
       </c>
       <c r="F53" s="57">
@@ -12396,8 +15329,16 @@
         <f t="shared" si="3"/>
         <v>24879.489948574101</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="82">
+        <f t="shared" si="4"/>
+        <v>0.26507713884992989</v>
+      </c>
+      <c r="M53" s="82">
+        <f t="shared" si="5"/>
+        <v>0.73492286115007011</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="57">
         <v>63</v>
       </c>
@@ -12408,7 +15349,7 @@
         <v>52498711</v>
       </c>
       <c r="E54" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24015.87877401647</v>
       </c>
       <c r="F54" s="57">
@@ -12433,8 +15374,16 @@
         <f t="shared" si="3"/>
         <v>22373.715692463073</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="82">
+        <f t="shared" si="4"/>
+        <v>0.27597525564953918</v>
+      </c>
+      <c r="M54" s="82">
+        <f t="shared" si="5"/>
+        <v>0.72402474435046082</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="57">
         <v>64</v>
       </c>
@@ -12445,7 +15394,7 @@
         <v>60196062</v>
       </c>
       <c r="E55" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23792.909881422926</v>
       </c>
       <c r="F55" s="57">
@@ -12470,8 +15419,16 @@
         <f t="shared" si="3"/>
         <v>22019.495213931496</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="82">
+        <f t="shared" si="4"/>
+        <v>0.29177718832891247</v>
+      </c>
+      <c r="M55" s="82">
+        <f t="shared" si="5"/>
+        <v>0.70822281167108758</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="57">
         <v>65</v>
       </c>
@@ -12482,7 +15439,7 @@
         <v>60373662</v>
       </c>
       <c r="E56" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22696.865413533833</v>
       </c>
       <c r="F56" s="57">
@@ -12507,8 +15464,16 @@
         <f t="shared" si="3"/>
         <v>21616.659248490272</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="82">
+        <f t="shared" si="4"/>
+        <v>0.29747260120778352</v>
+      </c>
+      <c r="M56" s="82">
+        <f t="shared" si="5"/>
+        <v>0.70252739879221648</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="57">
         <v>66</v>
       </c>
@@ -12519,7 +15484,7 @@
         <v>66235554</v>
       </c>
       <c r="E57" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23006.444598819035</v>
       </c>
       <c r="F57" s="57">
@@ -12544,8 +15509,16 @@
         <f t="shared" si="3"/>
         <v>21077.894421052632</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="82">
+        <f t="shared" si="4"/>
+        <v>0.30305263157894735</v>
+      </c>
+      <c r="M57" s="82">
+        <f t="shared" si="5"/>
+        <v>0.69694736842105265</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="57">
         <v>67</v>
       </c>
@@ -12556,7 +15529,7 @@
         <v>70323386</v>
       </c>
       <c r="E58" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22743.656532988356</v>
       </c>
       <c r="F58" s="57">
@@ -12581,8 +15554,16 @@
         <f t="shared" si="3"/>
         <v>20519.366255144032</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31034828866807185</v>
+      </c>
+      <c r="M58" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68965171133192815</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="57">
         <v>68</v>
       </c>
@@ -12593,7 +15574,7 @@
         <v>72837144</v>
       </c>
       <c r="E59" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22669.512605042019</v>
       </c>
       <c r="F59" s="57">
@@ -12618,8 +15599,16 @@
         <f t="shared" si="3"/>
         <v>20246.531175771972</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31799287410926363</v>
+      </c>
+      <c r="M59" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68200712589073631</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="57">
         <v>69</v>
       </c>
@@ -12630,7 +15619,7 @@
         <v>81761629</v>
       </c>
       <c r="E60" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23194.788368794325</v>
       </c>
       <c r="F60" s="57">
@@ -12655,8 +15644,16 @@
         <f t="shared" si="3"/>
         <v>20497.740778217274</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32425719804985742</v>
+      </c>
+      <c r="M60" s="82">
+        <f t="shared" si="5"/>
+        <v>0.67574280195014258</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="57">
         <v>70</v>
       </c>
@@ -12667,7 +15664,7 @@
         <v>55748557</v>
       </c>
       <c r="E61" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22680.454434499592</v>
       </c>
       <c r="F61" s="57">
@@ -12692,8 +15689,16 @@
         <f t="shared" si="3"/>
         <v>19849.133103995766</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32521831172267796</v>
+      </c>
+      <c r="M61" s="82">
+        <f t="shared" si="5"/>
+        <v>0.6747816882773221</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="57">
         <v>71</v>
       </c>
@@ -12704,7 +15709,7 @@
         <v>56021167</v>
       </c>
       <c r="E62" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22653.120501415284</v>
       </c>
       <c r="F62" s="57">
@@ -12729,8 +15734,16 @@
         <f t="shared" si="3"/>
         <v>19784.150542061205</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="82">
+        <f t="shared" si="4"/>
+        <v>0.33937148346370249</v>
+      </c>
+      <c r="M62" s="82">
+        <f t="shared" si="5"/>
+        <v>0.66062851653629751</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="57">
         <v>72</v>
       </c>
@@ -12741,7 +15754,7 @@
         <v>51955214</v>
       </c>
       <c r="E63" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22837.456703296702</v>
       </c>
       <c r="F63" s="57">
@@ -12766,8 +15779,16 @@
         <f t="shared" si="3"/>
         <v>19807.870795964125</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31880605381165922</v>
+      </c>
+      <c r="M63" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68119394618834073</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="57">
         <v>73</v>
       </c>
@@ -12778,7 +15799,7 @@
         <v>56295205</v>
       </c>
       <c r="E64" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23965.604512558537</v>
       </c>
       <c r="F64" s="57">
@@ -12803,8 +15824,16 @@
         <f t="shared" si="3"/>
         <v>20037.437134095344</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32743239475885139</v>
+      </c>
+      <c r="M64" s="82">
+        <f t="shared" si="5"/>
+        <v>0.67256760524114867</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="57">
         <v>74</v>
       </c>
@@ -12815,7 +15844,7 @@
         <v>45137598</v>
       </c>
       <c r="E65" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23041.142419601838</v>
       </c>
       <c r="F65" s="57">
@@ -12840,8 +15869,16 @@
         <f t="shared" si="3"/>
         <v>19547.265706148435</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="82">
+        <f t="shared" si="4"/>
+        <v>0.3281956776679511</v>
+      </c>
+      <c r="M65" s="82">
+        <f t="shared" si="5"/>
+        <v>0.6718043223320489</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="57">
         <v>75</v>
       </c>
@@ -12852,7 +15889,7 @@
         <v>41566667</v>
       </c>
       <c r="E66" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23325.851290684623</v>
       </c>
       <c r="F66" s="57">
@@ -12877,8 +15914,16 @@
         <f t="shared" si="3"/>
         <v>19359.245591710598</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32394110161788764</v>
+      </c>
+      <c r="M66" s="82">
+        <f t="shared" si="5"/>
+        <v>0.67605889838211231</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="57">
         <v>76</v>
       </c>
@@ -12889,7 +15934,7 @@
         <v>37966953</v>
       </c>
       <c r="E67" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23150.581097560975</v>
       </c>
       <c r="F67" s="57">
@@ -12914,8 +15959,16 @@
         <f t="shared" si="3"/>
         <v>19045.198094481937</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="82">
+        <f t="shared" si="4"/>
+        <v>0.32552600238189761</v>
+      </c>
+      <c r="M67" s="82">
+        <f t="shared" si="5"/>
+        <v>0.67447399761810245</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="57">
         <v>77</v>
       </c>
@@ -12926,7 +15979,7 @@
         <v>36667076</v>
       </c>
       <c r="E68" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23369.710643722115</v>
       </c>
       <c r="F68" s="57">
@@ -12951,8 +16004,16 @@
         <f t="shared" si="3"/>
         <v>19199.715230375426</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="82">
+        <f t="shared" si="4"/>
+        <v>0.33468430034129693</v>
+      </c>
+      <c r="M68" s="82">
+        <f t="shared" si="5"/>
+        <v>0.66531569965870307</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="57">
         <v>78</v>
       </c>
@@ -12963,7 +16024,7 @@
         <v>32474614</v>
       </c>
       <c r="E69" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22950.257243816253</v>
       </c>
       <c r="F69" s="57">
@@ -12988,8 +16049,16 @@
         <f t="shared" si="3"/>
         <v>18689.713483146068</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31797752808988766</v>
+      </c>
+      <c r="M69" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68202247191011234</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="57">
         <v>79</v>
       </c>
@@ -13000,7 +16069,7 @@
         <v>31519512</v>
       </c>
       <c r="E70" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24605.395784543325</v>
       </c>
       <c r="F70" s="57">
@@ -13025,8 +16094,16 @@
         <f t="shared" si="3"/>
         <v>19222.921573478478</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31692231568530432</v>
+      </c>
+      <c r="M70" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68307768431469573</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="57">
         <v>80</v>
       </c>
@@ -13037,7 +16114,7 @@
         <v>29617008</v>
       </c>
       <c r="E71" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23505.561904761904</v>
       </c>
       <c r="F71" s="57">
@@ -13062,8 +16139,16 @@
         <f t="shared" si="3"/>
         <v>18675.765704154001</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="82">
+        <f t="shared" si="4"/>
+        <v>0.31914893617021278</v>
+      </c>
+      <c r="M71" s="82">
+        <f t="shared" si="5"/>
+        <v>0.68085106382978722</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="57">
         <v>81</v>
       </c>
@@ -13074,7 +16159,7 @@
         <v>25895765</v>
       </c>
       <c r="E72" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23456.308876811596</v>
       </c>
       <c r="F72" s="57">
@@ -13099,8 +16184,16 @@
         <f t="shared" si="3"/>
         <v>18397.933475252794</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="82">
+        <f t="shared" si="4"/>
+        <v>0.29377328366152211</v>
+      </c>
+      <c r="M72" s="82">
+        <f t="shared" si="5"/>
+        <v>0.70622671633847789</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="57">
         <v>82</v>
       </c>
@@ -13111,7 +16204,7 @@
         <v>24936076</v>
       </c>
       <c r="E73" s="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23703.494296577948</v>
       </c>
       <c r="F73" s="57">
@@ -13136,8 +16229,16 @@
         <f t="shared" si="3"/>
         <v>18335.771766169153</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="82">
+        <f t="shared" si="4"/>
+        <v>0.3271144278606965</v>
+      </c>
+      <c r="M73" s="82">
+        <f t="shared" si="5"/>
+        <v>0.67288557213930345</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="57">
         <v>83</v>
       </c>
@@ -13148,7 +16249,7 @@
         <v>21671541</v>
       </c>
       <c r="E74" s="57">
-        <f t="shared" ref="E74:E91" si="5">D74/C74</f>
+        <f t="shared" ref="E74:E91" si="7">D74/C74</f>
         <v>23504.925162689804</v>
       </c>
       <c r="F74" s="57">
@@ -13158,23 +16259,31 @@
         <v>33913710</v>
       </c>
       <c r="H74" s="57">
-        <f t="shared" ref="H74:H91" si="6">G74/F74</f>
+        <f t="shared" ref="H74:H91" si="8">G74/F74</f>
         <v>15944.386459802539</v>
       </c>
       <c r="I74" s="13">
-        <f t="shared" ref="I74:I91" si="7">C74+F74</f>
+        <f t="shared" ref="I74:I91" si="9">C74+F74</f>
         <v>3049</v>
       </c>
       <c r="J74" s="13">
-        <f t="shared" ref="J74:J91" si="8">D74+G74</f>
+        <f t="shared" ref="J74:J91" si="10">D74+G74</f>
         <v>55585251</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" ref="K74:K91" si="9">J74/I74</f>
+        <f t="shared" ref="K74:K91" si="11">J74/I74</f>
         <v>18230.649721220074</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="82">
+        <f t="shared" ref="L74:L91" si="12">C74/(C74+F74)</f>
+        <v>0.30239422761561169</v>
+      </c>
+      <c r="M74" s="82">
+        <f t="shared" ref="M74:M91" si="13">1-L74</f>
+        <v>0.69760577238438826</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="57">
         <v>84</v>
       </c>
@@ -13185,7 +16294,7 @@
         <v>20142847</v>
       </c>
       <c r="E75" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23476.511655011655</v>
       </c>
       <c r="F75" s="57">
@@ -13195,23 +16304,31 @@
         <v>30329107</v>
       </c>
       <c r="H75" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15309.998485613327</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2839</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50471954</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17778.074674181051</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="82">
+        <f t="shared" si="12"/>
+        <v>0.30221909122930607</v>
+      </c>
+      <c r="M75" s="82">
+        <f t="shared" si="13"/>
+        <v>0.69778090877069388</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="57">
         <v>85</v>
       </c>
@@ -13222,7 +16339,7 @@
         <v>19070450</v>
       </c>
       <c r="E76" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24480.680359435173</v>
       </c>
       <c r="F76" s="57">
@@ -13232,23 +16349,31 @@
         <v>29649067</v>
       </c>
       <c r="H76" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15838.176816239316</v>
       </c>
       <c r="I76" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2651</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48719517</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18377.788381742739</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="82">
+        <f t="shared" si="12"/>
+        <v>0.2938513768389287</v>
+      </c>
+      <c r="M76" s="82">
+        <f t="shared" si="13"/>
+        <v>0.7061486231610713</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="57">
         <v>86</v>
       </c>
@@ -13259,7 +16384,7 @@
         <v>17998222</v>
       </c>
       <c r="E77" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24722.832417582416</v>
       </c>
       <c r="F77" s="57">
@@ -13269,23 +16394,31 @@
         <v>25519067</v>
       </c>
       <c r="H77" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15438.032062915911</v>
       </c>
       <c r="I77" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2381</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43517289</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18276.895842083159</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="82">
+        <f t="shared" si="12"/>
+        <v>0.30575388492230154</v>
+      </c>
+      <c r="M77" s="82">
+        <f t="shared" si="13"/>
+        <v>0.6942461150776984</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="59">
         <v>87</v>
       </c>
@@ -13296,7 +16429,7 @@
         <v>13094773</v>
       </c>
       <c r="E78" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24027.106422018347</v>
       </c>
       <c r="F78" s="59">
@@ -13306,23 +16439,31 @@
         <v>23096679</v>
       </c>
       <c r="H78" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15027.117111255693</v>
       </c>
       <c r="I78" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2082</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36191452</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17383.022094140251</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="82">
+        <f t="shared" si="12"/>
+        <v>0.26176753121998081</v>
+      </c>
+      <c r="M78" s="82">
+        <f t="shared" si="13"/>
+        <v>0.73823246878001925</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="57">
         <v>88</v>
       </c>
@@ -13333,7 +16474,7 @@
         <v>11342693</v>
       </c>
       <c r="E79" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23435.316115702481</v>
       </c>
       <c r="F79" s="57">
@@ -13343,23 +16484,31 @@
         <v>20227069</v>
       </c>
       <c r="H79" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14883.788815305372</v>
       </c>
       <c r="I79" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1843</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31569762</v>
       </c>
       <c r="K79" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17129.550732501357</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="82">
+        <f t="shared" si="12"/>
+        <v>0.26261530113944653</v>
+      </c>
+      <c r="M79" s="82">
+        <f t="shared" si="13"/>
+        <v>0.73738469886055347</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="57">
         <v>89</v>
       </c>
@@ -13370,7 +16519,7 @@
         <v>9376117</v>
       </c>
       <c r="E80" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23093.884236453203</v>
       </c>
       <c r="F80" s="57">
@@ -13380,23 +16529,31 @@
         <v>16896145</v>
       </c>
       <c r="H80" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15085.84375</v>
       </c>
       <c r="I80" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1526</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26272262</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17216.423328964614</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="82">
+        <f t="shared" si="12"/>
+        <v>0.26605504587155965</v>
+      </c>
+      <c r="M80" s="82">
+        <f t="shared" si="13"/>
+        <v>0.73394495412844041</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="57">
         <v>90</v>
       </c>
@@ -13407,7 +16564,7 @@
         <v>6971830</v>
       </c>
       <c r="E81" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23085.529801324505</v>
       </c>
       <c r="F81" s="57">
@@ -13417,23 +16574,31 @@
         <v>14650408</v>
       </c>
       <c r="H81" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14209.901066925315</v>
       </c>
       <c r="I81" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1333</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21622238</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16220.733683420855</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="82">
+        <f t="shared" si="12"/>
+        <v>0.22655663915978994</v>
+      </c>
+      <c r="M81" s="82">
+        <f t="shared" si="13"/>
+        <v>0.77344336084021004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="57">
         <v>91</v>
       </c>
@@ -13444,7 +16609,7 @@
         <v>5678395</v>
       </c>
       <c r="E82" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21267.397003745318</v>
       </c>
       <c r="F82" s="57">
@@ -13454,23 +16619,31 @@
         <v>11728539</v>
       </c>
       <c r="H82" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13765.890845070422</v>
       </c>
       <c r="I82" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1119</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17406934</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15555.794459338695</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="82">
+        <f t="shared" si="12"/>
+        <v>0.23860589812332439</v>
+      </c>
+      <c r="M82" s="82">
+        <f t="shared" si="13"/>
+        <v>0.76139410187667567</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="57">
         <v>92</v>
       </c>
@@ -13481,7 +16654,7 @@
         <v>3910091</v>
       </c>
       <c r="E83" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22216.426136363636</v>
       </c>
       <c r="F83" s="57">
@@ -13491,23 +16664,31 @@
         <v>9110877</v>
       </c>
       <c r="H83" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13359.057184750733</v>
       </c>
       <c r="I83" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>858</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13020968</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15175.95337995338</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="82">
+        <f t="shared" si="12"/>
+        <v>0.20512820512820512</v>
+      </c>
+      <c r="M83" s="82">
+        <f t="shared" si="13"/>
+        <v>0.79487179487179493</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="57">
         <v>93</v>
       </c>
@@ -13518,7 +16699,7 @@
         <v>3148124</v>
       </c>
       <c r="E84" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19079.539393939394</v>
       </c>
       <c r="F84" s="57">
@@ -13528,23 +16709,31 @@
         <v>7267580</v>
       </c>
       <c r="H84" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13142.097649186257</v>
       </c>
       <c r="I84" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>718</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10415704</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14506.551532033427</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="82">
+        <f t="shared" si="12"/>
+        <v>0.2298050139275766</v>
+      </c>
+      <c r="M84" s="82">
+        <f t="shared" si="13"/>
+        <v>0.77019498607242343</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="57">
         <v>94</v>
       </c>
@@ -13555,7 +16744,7 @@
         <v>2770468</v>
       </c>
       <c r="E85" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31128.853932584268</v>
       </c>
       <c r="F85" s="57">
@@ -13565,23 +16754,31 @@
         <v>6212886</v>
       </c>
       <c r="H85" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13418.760259179266</v>
       </c>
       <c r="I85" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>552</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8983354</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16274.192028985508</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="82">
+        <f t="shared" si="12"/>
+        <v>0.16123188405797101</v>
+      </c>
+      <c r="M85" s="82">
+        <f t="shared" si="13"/>
+        <v>0.83876811594202905</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="57">
         <v>95</v>
       </c>
@@ -13592,7 +16789,7 @@
         <v>2350001</v>
       </c>
       <c r="E86" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20982.151785714286</v>
       </c>
       <c r="F86" s="57">
@@ -13602,23 +16799,31 @@
         <v>4731851</v>
       </c>
       <c r="H86" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12485.094986807388</v>
       </c>
       <c r="I86" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>491</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7081852</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14423.323828920571</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="82">
+        <f t="shared" si="12"/>
+        <v>0.22810590631364563</v>
+      </c>
+      <c r="M86" s="82">
+        <f t="shared" si="13"/>
+        <v>0.77189409368635431</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="57">
         <v>96</v>
       </c>
@@ -13629,7 +16834,7 @@
         <v>781439</v>
       </c>
       <c r="E87" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20564.184210526317</v>
       </c>
       <c r="F87" s="57">
@@ -13639,23 +16844,31 @@
         <v>3781597</v>
       </c>
       <c r="H87" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13457.640569395018</v>
       </c>
       <c r="I87" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4563036</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14304.188087774295</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="82">
+        <f t="shared" si="12"/>
+        <v>0.11912225705329153</v>
+      </c>
+      <c r="M87" s="82">
+        <f t="shared" si="13"/>
+        <v>0.88087774294670851</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="57">
         <v>97</v>
       </c>
@@ -13666,7 +16879,7 @@
         <v>694987</v>
       </c>
       <c r="E88" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18783.432432432433</v>
       </c>
       <c r="F88" s="57">
@@ -13676,23 +16889,31 @@
         <v>2390082</v>
       </c>
       <c r="H88" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11950.41</v>
       </c>
       <c r="I88" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>237</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3085069</v>
       </c>
       <c r="K88" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13017.168776371309</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="82">
+        <f t="shared" si="12"/>
+        <v>0.15611814345991562</v>
+      </c>
+      <c r="M88" s="82">
+        <f t="shared" si="13"/>
+        <v>0.84388185654008441</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="57">
         <v>98</v>
       </c>
@@ -13703,7 +16924,7 @@
         <v>344483</v>
       </c>
       <c r="E89" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18130.684210526317</v>
       </c>
       <c r="F89" s="57">
@@ -13713,23 +16934,31 @@
         <v>1787786</v>
       </c>
       <c r="H89" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12415.180555555555</v>
       </c>
       <c r="I89" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2132269</v>
       </c>
       <c r="K89" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13081.40490797546</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="82">
+        <f t="shared" si="12"/>
+        <v>0.1165644171779141</v>
+      </c>
+      <c r="M89" s="82">
+        <f t="shared" si="13"/>
+        <v>0.8834355828220859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="57">
         <v>99</v>
       </c>
@@ -13740,7 +16969,7 @@
         <v>279014</v>
       </c>
       <c r="E90" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21462.615384615383</v>
       </c>
       <c r="F90" s="57">
@@ -13750,23 +16979,31 @@
         <v>1368032</v>
       </c>
       <c r="H90" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13818.505050505051</v>
       </c>
       <c r="I90" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1647046</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14705.767857142857</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="82">
+        <f t="shared" si="12"/>
+        <v>0.11607142857142858</v>
+      </c>
+      <c r="M90" s="82">
+        <f t="shared" si="13"/>
+        <v>0.8839285714285714</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="57">
         <v>100</v>
       </c>
@@ -13777,7 +17014,7 @@
         <v>504540</v>
       </c>
       <c r="E91" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19405.384615384617</v>
       </c>
       <c r="F91" s="57">
@@ -13787,20 +17024,34 @@
         <v>2550482</v>
       </c>
       <c r="H91" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13712.268817204302</v>
       </c>
       <c r="I91" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>212</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3055022</v>
       </c>
       <c r="K91" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14410.481132075472</v>
+      </c>
+      <c r="L91" s="82">
+        <f t="shared" si="12"/>
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="M91" s="82">
+        <f t="shared" si="13"/>
+        <v>0.87735849056603776</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="81">
+        <f>383/(383+484)</f>
+        <v>0.4417531718569781</v>
       </c>
     </row>
   </sheetData>
@@ -13814,10 +17065,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13828,12 +17079,12 @@
     <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -13841,7 +17092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -13849,7 +17100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -13857,7 +17108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -13865,7 +17116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -13873,7 +17124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
@@ -13905,7 +17156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>49</v>
       </c>
@@ -13934,8 +17185,12 @@
         <f>J10/I10</f>
         <v>17766</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>C10/(C10+F10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>50</v>
       </c>
@@ -13964,8 +17219,12 @@
         <f t="shared" ref="K11:K61" si="3">J11/I11</f>
         <v>17383.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" ref="M11:M61" si="4">C11/(C11+F11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>51</v>
       </c>
@@ -13986,7 +17245,7 @@
         <v>71528</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" ref="H12:H61" si="4">G12/F12</f>
+        <f t="shared" ref="H12:H61" si="5">G12/F12</f>
         <v>17882</v>
       </c>
       <c r="I12" s="13">
@@ -14001,8 +17260,12 @@
         <f t="shared" si="3"/>
         <v>18938.81818181818</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>52</v>
       </c>
@@ -14023,23 +17286,27 @@
         <v>212405</v>
       </c>
       <c r="H13" s="11">
+        <f t="shared" si="5"/>
+        <v>21240.5</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="2"/>
+        <v>419048</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>22055.157894736843</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="4"/>
-        <v>21240.5</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="2"/>
-        <v>419048</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>22055.157894736843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>53</v>
       </c>
@@ -14060,23 +17327,27 @@
         <v>370437</v>
       </c>
       <c r="H14" s="11">
+        <f t="shared" si="5"/>
+        <v>20579.833333333332</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="2"/>
+        <v>583790</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>20849.642857142859</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="4"/>
-        <v>20579.833333333332</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="2"/>
-        <v>583790</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>20849.642857142859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>54</v>
       </c>
@@ -14097,23 +17368,27 @@
         <v>733488</v>
       </c>
       <c r="H15" s="11">
+        <f t="shared" si="5"/>
+        <v>20956.8</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="2"/>
+        <v>1295673</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>20244.890625</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="4"/>
-        <v>20956.8</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>1295673</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>20244.890625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>55</v>
       </c>
@@ -14134,23 +17409,27 @@
         <v>857103</v>
       </c>
       <c r="H16" s="11">
+        <f t="shared" si="5"/>
+        <v>19932.627906976744</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="2"/>
+        <v>1361698</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>20631.78787878788</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="4"/>
-        <v>19932.627906976744</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>1361698</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>20631.78787878788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.34848484848484851</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>56</v>
       </c>
@@ -14171,23 +17450,27 @@
         <v>791718</v>
       </c>
       <c r="H17" s="11">
+        <f t="shared" si="5"/>
+        <v>20834.684210526317</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="2"/>
+        <v>1392332</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>21420.492307692308</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="4"/>
-        <v>20834.684210526317</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>1392332</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>21420.492307692308</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.41538461538461541</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>57</v>
       </c>
@@ -14208,23 +17491,27 @@
         <v>1385421</v>
       </c>
       <c r="H18" s="11">
+        <f t="shared" si="5"/>
+        <v>19791.728571428572</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="2"/>
+        <v>2207303</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>20250.48623853211</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="4"/>
-        <v>19791.728571428572</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="2"/>
-        <v>2207303</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>20250.48623853211</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.3577981651376147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>58</v>
       </c>
@@ -14245,23 +17532,27 @@
         <v>1432741</v>
       </c>
       <c r="H19" s="11">
+        <f t="shared" si="5"/>
+        <v>23487.557377049179</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="2"/>
+        <v>2625566</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>23442.553571428572</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="4"/>
-        <v>23487.557377049179</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="2"/>
-        <v>2625566</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>23442.553571428572</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.45535714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>59</v>
       </c>
@@ -14282,23 +17573,27 @@
         <v>1843719</v>
       </c>
       <c r="H20" s="11">
+        <f t="shared" si="5"/>
+        <v>20951.352272727272</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="2"/>
+        <v>3167737</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>21549.231292517008</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="4"/>
-        <v>20951.352272727272</v>
-      </c>
-      <c r="I20" s="13">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>3167737</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>21549.231292517008</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.40136054421768708</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>60</v>
       </c>
@@ -14319,23 +17614,27 @@
         <v>3502380</v>
       </c>
       <c r="H21" s="11">
+        <f t="shared" si="5"/>
+        <v>21619.629629629631</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="2"/>
+        <v>5311661</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>21769.102459016394</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
-        <v>21619.629629629631</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="2"/>
-        <v>5311661</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>21769.102459016394</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.33606557377049179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>61</v>
       </c>
@@ -14356,23 +17655,27 @@
         <v>5045030</v>
       </c>
       <c r="H22" s="11">
+        <f t="shared" si="5"/>
+        <v>20847.231404958678</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="2"/>
+        <v>7469276</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>20747.988888888889</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
-        <v>20847.231404958678</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="J22" s="13">
-        <f t="shared" si="2"/>
-        <v>7469276</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>20747.988888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.32777777777777778</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>62</v>
       </c>
@@ -14393,23 +17696,27 @@
         <v>6176765</v>
       </c>
       <c r="H23" s="11">
+        <f t="shared" si="5"/>
+        <v>21081.109215017066</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="2"/>
+        <v>8967546</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>21199.872340425532</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>21081.109215017066</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="1"/>
-        <v>423</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="2"/>
-        <v>8967546</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>21199.872340425532</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.30732860520094563</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>63</v>
       </c>
@@ -14430,23 +17737,27 @@
         <v>7642524</v>
       </c>
       <c r="H24" s="11">
+        <f t="shared" si="5"/>
+        <v>20711.447154471545</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="1"/>
+        <v>522</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="2"/>
+        <v>10753187</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>20599.975095785441</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
-        <v>20711.447154471545</v>
-      </c>
-      <c r="I24" s="13">
-        <f t="shared" si="1"/>
-        <v>522</v>
-      </c>
-      <c r="J24" s="13">
-        <f t="shared" si="2"/>
-        <v>10753187</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>20599.975095785441</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.29310344827586204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>64</v>
       </c>
@@ -14467,23 +17778,27 @@
         <v>8535767</v>
       </c>
       <c r="H25" s="11">
+        <f t="shared" si="5"/>
+        <v>20274.980997624702</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="1"/>
+        <v>595</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="2"/>
+        <v>12036032</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>20228.625210084032</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>20274.980997624702</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" si="1"/>
-        <v>595</v>
-      </c>
-      <c r="J25" s="13">
-        <f t="shared" si="2"/>
-        <v>12036032</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>20228.625210084032</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.29243697478991598</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>65</v>
       </c>
@@ -14504,23 +17819,27 @@
         <v>10249908</v>
       </c>
       <c r="H26" s="11">
+        <f t="shared" si="5"/>
+        <v>18336.150268336314</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="2"/>
+        <v>14199461</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>18561.386928104574</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>18336.150268336314</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="1"/>
-        <v>765</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="2"/>
-        <v>14199461</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>18561.386928104574</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.26928104575163397</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>66</v>
       </c>
@@ -14541,23 +17860,27 @@
         <v>9775905</v>
       </c>
       <c r="H27" s="11">
+        <f t="shared" si="5"/>
+        <v>16654.011925042589</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="1"/>
+        <v>889</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="2"/>
+        <v>14724054</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>16562.490438695164</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>16654.011925042589</v>
-      </c>
-      <c r="I27" s="13">
-        <f t="shared" si="1"/>
-        <v>889</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>14724054</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>16562.490438695164</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.33970753655793023</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>67</v>
       </c>
@@ -14578,23 +17901,27 @@
         <v>10308977</v>
       </c>
       <c r="H28" s="11">
+        <f t="shared" si="5"/>
+        <v>17774.09827586207</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="1"/>
+        <v>873</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="2"/>
+        <v>15172072</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>17379.234822451319</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
-        <v>17774.09827586207</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="1"/>
-        <v>873</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>15172072</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>17379.234822451319</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.3356242840778923</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>68</v>
       </c>
@@ -14615,23 +17942,27 @@
         <v>9632793</v>
       </c>
       <c r="H29" s="11">
+        <f t="shared" si="5"/>
+        <v>16989.052910052909</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="1"/>
+        <v>895</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="2"/>
+        <v>15493713</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>17311.411173184359</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
-        <v>16989.052910052909</v>
-      </c>
-      <c r="I29" s="13">
-        <f t="shared" si="1"/>
-        <v>895</v>
-      </c>
-      <c r="J29" s="13">
-        <f t="shared" si="2"/>
-        <v>15493713</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
-        <v>17311.411173184359</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.3664804469273743</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>69</v>
       </c>
@@ -14652,23 +17983,27 @@
         <v>9793188</v>
       </c>
       <c r="H30" s="11">
+        <f t="shared" si="5"/>
+        <v>17002.0625</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="2"/>
+        <v>15346815</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>17539.217142857142</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
-        <v>17002.0625</v>
-      </c>
-      <c r="I30" s="13">
-        <f t="shared" si="1"/>
-        <v>875</v>
-      </c>
-      <c r="J30" s="13">
-        <f t="shared" si="2"/>
-        <v>15346815</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
-        <v>17539.217142857142</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.34171428571428569</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>70</v>
       </c>
@@ -14689,23 +18024,27 @@
         <v>6710214</v>
       </c>
       <c r="H31" s="11">
+        <f t="shared" si="5"/>
+        <v>16091.640287769784</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="1"/>
+        <v>627</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="2"/>
+        <v>10322764</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>16463.738437001593</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
-        <v>16091.640287769784</v>
-      </c>
-      <c r="I31" s="13">
-        <f t="shared" si="1"/>
-        <v>627</v>
-      </c>
-      <c r="J31" s="13">
-        <f t="shared" si="2"/>
-        <v>10322764</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
-        <v>16463.738437001593</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.3349282296650718</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>71</v>
       </c>
@@ -14726,23 +18065,27 @@
         <v>6485947</v>
       </c>
       <c r="H32" s="11">
+        <f t="shared" si="5"/>
+        <v>15742.589805825242</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="1"/>
+        <v>583</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="2"/>
+        <v>9280828</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>15919.087478559177</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
-        <v>15742.589805825242</v>
-      </c>
-      <c r="I32" s="13">
-        <f t="shared" si="1"/>
-        <v>583</v>
-      </c>
-      <c r="J32" s="13">
-        <f t="shared" si="2"/>
-        <v>9280828</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
-        <v>15919.087478559177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.29331046312178388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>72</v>
       </c>
@@ -14763,23 +18106,27 @@
         <v>5349474</v>
       </c>
       <c r="H33" s="11">
+        <f t="shared" si="5"/>
+        <v>14341.753351206435</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="2"/>
+        <v>8149141</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>14709.640794223827</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
-        <v>14341.753351206435</v>
-      </c>
-      <c r="I33" s="13">
-        <f t="shared" si="1"/>
-        <v>554</v>
-      </c>
-      <c r="J33" s="13">
-        <f t="shared" si="2"/>
-        <v>8149141</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
-        <v>14709.640794223827</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.3267148014440433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>73</v>
       </c>
@@ -14800,23 +18147,27 @@
         <v>5940836</v>
       </c>
       <c r="H34" s="11">
+        <f t="shared" si="5"/>
+        <v>15758.185676392573</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="2"/>
+        <v>8950981</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>16333.906934306569</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
-        <v>15758.185676392573</v>
-      </c>
-      <c r="I34" s="13">
-        <f t="shared" si="1"/>
-        <v>548</v>
-      </c>
-      <c r="J34" s="13">
-        <f t="shared" si="2"/>
-        <v>8950981</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
-        <v>16333.906934306569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.31204379562043794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>74</v>
       </c>
@@ -14837,23 +18188,27 @@
         <v>4417614</v>
       </c>
       <c r="H35" s="11">
+        <f t="shared" si="5"/>
+        <v>14627.860927152318</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="2"/>
+        <v>6518441</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>15373.681603773584</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="4"/>
-        <v>14627.860927152318</v>
-      </c>
-      <c r="I35" s="13">
-        <f t="shared" si="1"/>
-        <v>424</v>
-      </c>
-      <c r="J35" s="13">
-        <f t="shared" si="2"/>
-        <v>6518441</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
-        <v>15373.681603773584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.28773584905660377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>75</v>
       </c>
@@ -14874,23 +18229,27 @@
         <v>3191614</v>
       </c>
       <c r="H36" s="11">
+        <f t="shared" si="5"/>
+        <v>13466.725738396624</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="2"/>
+        <v>5010392</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>13840.861878453039</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
-        <v>13466.725738396624</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" si="1"/>
-        <v>362</v>
-      </c>
-      <c r="J36" s="13">
-        <f t="shared" si="2"/>
-        <v>5010392</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="3"/>
-        <v>13840.861878453039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.34530386740331492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>76</v>
       </c>
@@ -14911,23 +18270,27 @@
         <v>2651472</v>
       </c>
       <c r="H37" s="11">
+        <f t="shared" si="5"/>
+        <v>13809.75</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="2"/>
+        <v>4609682</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>14360.380062305296</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="4"/>
-        <v>13809.75</v>
-      </c>
-      <c r="I37" s="13">
-        <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="J37" s="13">
-        <f t="shared" si="2"/>
-        <v>4609682</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
-        <v>14360.380062305296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.40186915887850466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>77</v>
       </c>
@@ -14948,23 +18311,27 @@
         <v>2547871</v>
       </c>
       <c r="H38" s="11">
+        <f t="shared" si="5"/>
+        <v>12739.355</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="2"/>
+        <v>3370622</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>12671.511278195489</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="4"/>
-        <v>12739.355</v>
-      </c>
-      <c r="I38" s="13">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="J38" s="13">
-        <f t="shared" si="2"/>
-        <v>3370622</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="3"/>
-        <v>12671.511278195489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.24812030075187969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>78</v>
       </c>
@@ -14985,23 +18352,27 @@
         <v>2504826</v>
       </c>
       <c r="H39" s="11">
+        <f t="shared" si="5"/>
+        <v>13253.047619047618</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="2"/>
+        <v>3744480</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>13616.290909090909</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="4"/>
-        <v>13253.047619047618</v>
-      </c>
-      <c r="I39" s="13">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="J39" s="13">
-        <f t="shared" si="2"/>
-        <v>3744480</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="3"/>
-        <v>13616.290909090909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.31272727272727274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>79</v>
       </c>
@@ -15022,23 +18393,27 @@
         <v>1267399</v>
       </c>
       <c r="H40" s="11">
+        <f t="shared" si="5"/>
+        <v>13627.946236559139</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="2"/>
+        <v>1984743</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>14076.191489361701</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="4"/>
-        <v>13627.946236559139</v>
-      </c>
-      <c r="I40" s="13">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="J40" s="13">
-        <f t="shared" si="2"/>
-        <v>1984743</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="3"/>
-        <v>14076.191489361701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.34042553191489361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>80</v>
       </c>
@@ -15059,23 +18434,27 @@
         <v>1040708</v>
       </c>
       <c r="H41" s="11">
+        <f t="shared" si="5"/>
+        <v>12389.380952380952</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="2"/>
+        <v>1848340</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>14440.15625</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="4"/>
-        <v>12389.380952380952</v>
-      </c>
-      <c r="I41" s="13">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="J41" s="13">
-        <f t="shared" si="2"/>
-        <v>1848340</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="3"/>
-        <v>14440.15625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>81</v>
       </c>
@@ -15096,23 +18475,27 @@
         <v>833362</v>
       </c>
       <c r="H42" s="11">
+        <f t="shared" si="5"/>
+        <v>14620.385964912281</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="2"/>
+        <v>1476843</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>15069.826530612245</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="4"/>
-        <v>14620.385964912281</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="J42" s="13">
-        <f t="shared" si="2"/>
-        <v>1476843</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="3"/>
-        <v>15069.826530612245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.41836734693877553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>82</v>
       </c>
@@ -15133,23 +18516,27 @@
         <v>813243</v>
       </c>
       <c r="H43" s="11">
+        <f t="shared" si="5"/>
+        <v>13783.77966101695</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="2"/>
+        <v>1284473</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>14596.28409090909</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="4"/>
-        <v>13783.77966101695</v>
-      </c>
-      <c r="I43" s="13">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="J43" s="13">
-        <f t="shared" si="2"/>
-        <v>1284473</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="3"/>
-        <v>14596.28409090909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.32954545454545453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>83</v>
       </c>
@@ -15170,23 +18557,27 @@
         <v>537183</v>
       </c>
       <c r="H44" s="11">
+        <f t="shared" si="5"/>
+        <v>11677.891304347826</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="2"/>
+        <v>916337</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>14317.765625</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>11677.891304347826</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J44" s="13">
-        <f t="shared" si="2"/>
-        <v>916337</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="3"/>
-        <v>14317.765625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>84</v>
       </c>
@@ -15207,23 +18598,27 @@
         <v>481596</v>
       </c>
       <c r="H45" s="11">
+        <f t="shared" si="5"/>
+        <v>13759.885714285714</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="2"/>
+        <v>780163</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>14184.781818181818</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>13759.885714285714</v>
-      </c>
-      <c r="I45" s="13">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="J45" s="13">
-        <f t="shared" si="2"/>
-        <v>780163</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="3"/>
-        <v>14184.781818181818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="62">
         <v>85</v>
@@ -15245,23 +18640,27 @@
         <v>493251</v>
       </c>
       <c r="H46" s="62">
+        <f t="shared" si="5"/>
+        <v>11744.071428571429</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="J46" s="13">
+        <f t="shared" si="2"/>
+        <v>862215</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>12868.880597014926</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="4"/>
-        <v>11744.071428571429</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="J46" s="13">
-        <f t="shared" si="2"/>
-        <v>862215</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="3"/>
-        <v>12868.880597014926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.37313432835820898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="62">
         <v>86</v>
@@ -15283,23 +18682,27 @@
         <v>551983</v>
       </c>
       <c r="H47" s="62">
+        <f t="shared" si="5"/>
+        <v>13799.575000000001</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J47" s="13">
+        <f t="shared" si="2"/>
+        <v>792773</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>13908.298245614034</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="4"/>
-        <v>13799.575000000001</v>
-      </c>
-      <c r="I47" s="13">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="J47" s="13">
-        <f t="shared" si="2"/>
-        <v>792773</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="3"/>
-        <v>13908.298245614034</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.2982456140350877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="62">
         <v>87</v>
@@ -15321,23 +18724,27 @@
         <v>394717</v>
       </c>
       <c r="H48" s="62">
+        <f t="shared" si="5"/>
+        <v>10668.027027027027</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J48" s="13">
+        <f t="shared" si="2"/>
+        <v>595714</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>12410.708333333334</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="4"/>
-        <v>10668.027027027027</v>
-      </c>
-      <c r="I48" s="13">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J48" s="13">
-        <f t="shared" si="2"/>
-        <v>595714</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="3"/>
-        <v>12410.708333333334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="62">
         <v>88</v>
@@ -15359,23 +18766,27 @@
         <v>307639</v>
       </c>
       <c r="H49" s="62">
+        <f t="shared" si="5"/>
+        <v>10254.633333333333</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J49" s="13">
+        <f t="shared" si="2"/>
+        <v>391818</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>10589.675675675675</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="4"/>
-        <v>10254.633333333333</v>
-      </c>
-      <c r="I49" s="13">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="J49" s="13">
-        <f t="shared" si="2"/>
-        <v>391818</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="3"/>
-        <v>10589.675675675675</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.1891891891891892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="62">
         <v>89</v>
@@ -15397,23 +18808,27 @@
         <v>471010</v>
       </c>
       <c r="H50" s="62">
+        <f t="shared" si="5"/>
+        <v>10704.772727272728</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J50" s="13">
+        <f t="shared" si="2"/>
+        <v>597504</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>11273.66037735849</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="4"/>
-        <v>10704.772727272728</v>
-      </c>
-      <c r="I50" s="13">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="J50" s="13">
-        <f t="shared" si="2"/>
-        <v>597504</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="3"/>
-        <v>11273.66037735849</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.16981132075471697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="62">
         <v>90</v>
@@ -15435,23 +18850,27 @@
         <v>361305</v>
       </c>
       <c r="H51" s="62">
+        <f t="shared" si="5"/>
+        <v>12458.793103448275</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J51" s="13">
+        <f t="shared" si="2"/>
+        <v>613867</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>14275.976744186046</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="4"/>
-        <v>12458.793103448275</v>
-      </c>
-      <c r="I51" s="13">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="J51" s="13">
-        <f t="shared" si="2"/>
-        <v>613867</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="3"/>
-        <v>14275.976744186046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.32558139534883723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="62">
         <v>91</v>
@@ -15473,23 +18892,27 @@
         <v>141568</v>
       </c>
       <c r="H52" s="62">
+        <f t="shared" si="5"/>
+        <v>5444.9230769230771</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" si="2"/>
+        <v>280488</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>7791.333333333333</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="4"/>
-        <v>5444.9230769230771</v>
-      </c>
-      <c r="I52" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="J52" s="13">
-        <f t="shared" si="2"/>
-        <v>280488</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="3"/>
-        <v>7791.333333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="62">
         <v>92</v>
@@ -15511,23 +18934,27 @@
         <v>231904</v>
       </c>
       <c r="H53" s="62">
+        <f t="shared" si="5"/>
+        <v>10541.09090909091</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J53" s="13">
+        <f t="shared" si="2"/>
+        <v>271735</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>10451.346153846154</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="4"/>
-        <v>10541.09090909091</v>
-      </c>
-      <c r="I53" s="13">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J53" s="13">
-        <f t="shared" si="2"/>
-        <v>271735</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="3"/>
-        <v>10451.346153846154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="62">
         <v>93</v>
@@ -15549,23 +18976,27 @@
         <v>193546</v>
       </c>
       <c r="H54" s="62">
+        <f t="shared" si="5"/>
+        <v>9677.2999999999993</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" si="2"/>
+        <v>346348</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>11544.933333333332</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="4"/>
-        <v>9677.2999999999993</v>
-      </c>
-      <c r="I54" s="13">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J54" s="13">
-        <f t="shared" si="2"/>
-        <v>346348</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="3"/>
-        <v>11544.933333333332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="62">
         <v>94</v>
@@ -15587,23 +19018,27 @@
         <v>45248</v>
       </c>
       <c r="H55" s="62">
+        <f t="shared" si="5"/>
+        <v>11312</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J55" s="13">
+        <f t="shared" si="2"/>
+        <v>76742</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>12790.333333333334</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="4"/>
-        <v>11312</v>
-      </c>
-      <c r="I55" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J55" s="13">
-        <f t="shared" si="2"/>
-        <v>76742</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="3"/>
-        <v>12790.333333333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>95</v>
       </c>
@@ -15624,23 +19059,27 @@
         <v>66899</v>
       </c>
       <c r="H56" s="11">
+        <f t="shared" si="5"/>
+        <v>11149.833333333334</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J56" s="13">
+        <f t="shared" si="2"/>
+        <v>101116</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>12639.5</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="4"/>
-        <v>11149.833333333334</v>
-      </c>
-      <c r="I56" s="13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J56" s="13">
-        <f t="shared" si="2"/>
-        <v>101116</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="3"/>
-        <v>12639.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>96</v>
       </c>
@@ -15654,23 +19093,27 @@
         <v>109978</v>
       </c>
       <c r="H57" s="11">
+        <f t="shared" si="5"/>
+        <v>7855.5714285714284</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J57" s="13">
+        <f t="shared" si="2"/>
+        <v>109978</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>7855.5714285714284</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="4"/>
-        <v>7855.5714285714284</v>
-      </c>
-      <c r="I57" s="13">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="J57" s="13">
-        <f t="shared" si="2"/>
-        <v>109978</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="3"/>
-        <v>7855.5714285714284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>97</v>
       </c>
@@ -15691,23 +19134,27 @@
         <v>66196</v>
       </c>
       <c r="H58" s="11">
+        <f t="shared" si="5"/>
+        <v>22065.333333333332</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J58" s="13">
+        <f t="shared" si="2"/>
+        <v>164249</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>32849.800000000003</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="4"/>
-        <v>22065.333333333332</v>
-      </c>
-      <c r="I58" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J58" s="13">
-        <f t="shared" si="2"/>
-        <v>164249</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="3"/>
-        <v>32849.800000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>98</v>
       </c>
@@ -15728,23 +19175,27 @@
         <v>36486</v>
       </c>
       <c r="H59" s="11">
+        <f t="shared" si="5"/>
+        <v>9121.5</v>
+      </c>
+      <c r="I59" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J59" s="13">
+        <f t="shared" si="2"/>
+        <v>66433</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>13286.6</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="4"/>
-        <v>9121.5</v>
-      </c>
-      <c r="I59" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J59" s="13">
-        <f t="shared" si="2"/>
-        <v>66433</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="3"/>
-        <v>13286.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>99</v>
       </c>
@@ -15758,23 +19209,27 @@
         <v>4359</v>
       </c>
       <c r="H60" s="11">
+        <f t="shared" si="5"/>
+        <v>2179.5</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" si="2"/>
+        <v>4359</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>2179.5</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="4"/>
-        <v>2179.5</v>
-      </c>
-      <c r="I60" s="13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J60" s="13">
-        <f t="shared" si="2"/>
-        <v>4359</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="3"/>
-        <v>2179.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>100</v>
       </c>
@@ -15788,23 +19243,27 @@
         <v>83379</v>
       </c>
       <c r="H61" s="11">
+        <f t="shared" si="5"/>
+        <v>13896.5</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J61" s="13">
+        <f t="shared" si="2"/>
+        <v>83379</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>13896.5</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="4"/>
-        <v>13896.5</v>
-      </c>
-      <c r="I61" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J61" s="13">
-        <f t="shared" si="2"/>
-        <v>83379</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="3"/>
-        <v>13896.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -15813,14 +19272,14 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>

--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -625,9 +625,6 @@
     <t>0-4</t>
   </si>
   <si>
-    <t>add age 18 and 19 to 20</t>
-  </si>
-  <si>
     <t>add age 18 -20 to 21</t>
   </si>
   <si>
@@ -749,15 +746,18 @@
   <si>
     <t>pct.female</t>
   </si>
+  <si>
+    <t>add age 18, 19, 20 to 21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,16 +1152,16 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2903,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
@@ -2945,13 +2945,13 @@
         <v>100</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,18 +2959,18 @@
         <v>86</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="80"/>
       <c r="F7" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="80" t="s">
         <v>150</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
@@ -2981,13 +2981,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="75">
         <v>9</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="82">
         <f>D8/(D8+F8)</f>
@@ -3981,13 +3981,13 @@
         <v>2367</v>
       </c>
       <c r="E48" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="77">
         <v>5414</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H48" s="82">
         <f t="shared" ref="H48:H82" si="2">D48/(D48+F48)</f>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D82" s="88">
         <v>94752</v>
@@ -4840,7 +4840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -4870,7 +4870,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
         <v>91</v>
@@ -4896,10 +4896,10 @@
         <v>137</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7607,7 +7607,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8738,7 +8738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L11" sqref="L11:L88"/>
     </sheetView>
   </sheetViews>
@@ -8887,7 +8887,7 @@
         <v>380</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11">
         <f>B11/(B11+E11)</f>
@@ -12013,10 +12013,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12088,1135 +12088,1121 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13">
-        <v>160164</v>
+        <v>202247</v>
       </c>
       <c r="F9" s="13">
-        <v>14560.363636363636</v>
+        <v>13483.133333333333</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="13">
-        <v>42083</v>
+        <v>19808</v>
       </c>
       <c r="F10" s="13">
-        <v>10520.75</v>
+        <v>6602.666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="13">
-        <v>19808</v>
+        <v>73985</v>
       </c>
       <c r="F11" s="13">
-        <v>6602.666666666667</v>
+        <v>14797</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="57">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="13">
-        <v>73985</v>
+        <v>52799</v>
       </c>
       <c r="F12" s="13">
-        <v>14797</v>
+        <v>13199.75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" s="13">
-        <v>52799</v>
+        <v>60142</v>
       </c>
       <c r="F13" s="13">
-        <v>13199.75</v>
+        <v>8591.7142857142862</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13">
-        <v>60142</v>
+        <v>117888</v>
       </c>
       <c r="F14" s="13">
-        <v>8591.7142857142862</v>
+        <v>13098.666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="13">
-        <v>117888</v>
+        <v>121377</v>
       </c>
       <c r="F15" s="13">
-        <v>13098.666666666666</v>
+        <v>11034.272727272728</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="13">
-        <v>121377</v>
+        <v>195852</v>
       </c>
       <c r="F16" s="13">
-        <v>11034.272727272728</v>
+        <v>15065.538461538461</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="13">
-        <v>195852</v>
+        <v>122013</v>
       </c>
       <c r="F17" s="13">
-        <v>15065.538461538461</v>
+        <v>12201.3</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="57">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13">
-        <v>122013</v>
+        <v>98838</v>
       </c>
       <c r="F18" s="13">
-        <v>12201.3</v>
+        <v>8985.2727272727279</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="57">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19" s="13">
-        <v>98838</v>
+        <v>221726</v>
       </c>
       <c r="F19" s="13">
-        <v>8985.2727272727279</v>
+        <v>13857.875</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="13">
         <v>16</v>
       </c>
       <c r="E20" s="13">
-        <v>221726</v>
+        <v>167889</v>
       </c>
       <c r="F20" s="13">
-        <v>13857.875</v>
+        <v>10493.0625</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="57">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21" s="13">
-        <v>167889</v>
+        <v>257410</v>
       </c>
       <c r="F21" s="13">
-        <v>10493.0625</v>
+        <v>12870.5</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E22" s="13">
-        <v>257410</v>
+        <v>308865</v>
       </c>
       <c r="F22" s="13">
-        <v>12870.5</v>
+        <v>11030.892857142857</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="57">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13">
         <v>28</v>
       </c>
       <c r="E23" s="13">
-        <v>308865</v>
+        <v>315964</v>
       </c>
       <c r="F23" s="13">
-        <v>11030.892857142857</v>
+        <v>11284.428571428571</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="57">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E24" s="13">
-        <v>315964</v>
+        <v>174454</v>
       </c>
       <c r="F24" s="13">
-        <v>11284.428571428571</v>
+        <v>13419.538461538461</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="57">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="13">
-        <v>174454</v>
+        <v>182707</v>
       </c>
       <c r="F25" s="13">
-        <v>13419.538461538461</v>
+        <v>10747.470588235294</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="57">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E26" s="13">
-        <v>182707</v>
+        <v>317648</v>
       </c>
       <c r="F26" s="13">
-        <v>10747.470588235294</v>
+        <v>11344.571428571429</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="57">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="13">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E27" s="13">
-        <v>317648</v>
+        <v>440521</v>
       </c>
       <c r="F27" s="13">
-        <v>11344.571428571429</v>
+        <v>12236.694444444445</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="57">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="13">
-        <v>440521</v>
+        <v>468795</v>
       </c>
       <c r="F28" s="13">
-        <v>12236.694444444445</v>
+        <v>14205.90909090909</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="57">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="13">
-        <v>468795</v>
+        <v>400866</v>
       </c>
       <c r="F29" s="13">
-        <v>14205.90909090909</v>
+        <v>11790.176470588236</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="57">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="13">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E30" s="13">
-        <v>400866</v>
+        <v>278326</v>
       </c>
       <c r="F30" s="13">
-        <v>11790.176470588236</v>
+        <v>9597.4482758620688</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="57">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E31" s="13">
-        <v>278326</v>
+        <v>402386</v>
       </c>
       <c r="F31" s="13">
-        <v>9597.4482758620688</v>
+        <v>11177.388888888889</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="57">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="13">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E32" s="13">
-        <v>402386</v>
+        <v>484093</v>
       </c>
       <c r="F32" s="13">
-        <v>11177.388888888889</v>
+        <v>10085.270833333334</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="57">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="13">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E33" s="13">
-        <v>484093</v>
+        <v>615337</v>
       </c>
       <c r="F33" s="13">
-        <v>10085.270833333334</v>
+        <v>11610.132075471698</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="57">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E34" s="13">
-        <v>615337</v>
+        <v>588025</v>
       </c>
       <c r="F34" s="13">
-        <v>11610.132075471698</v>
+        <v>10138.362068965518</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="57">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="13">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E35" s="13">
-        <v>588025</v>
+        <v>1003368</v>
       </c>
       <c r="F35" s="13">
-        <v>10138.362068965518</v>
+        <v>12088.77108433735</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="57">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36" s="13">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E36" s="13">
-        <v>1003368</v>
+        <v>1024877</v>
       </c>
       <c r="F36" s="13">
-        <v>12088.77108433735</v>
+        <v>13485.223684210527</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="57">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="13">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E37" s="13">
-        <v>1024877</v>
+        <v>2412756</v>
       </c>
       <c r="F37" s="13">
-        <v>13485.223684210527</v>
+        <v>18998.078740157482</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="13">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="E38" s="13">
-        <v>2412756</v>
+        <v>4973106</v>
       </c>
       <c r="F38" s="13">
-        <v>18998.078740157482</v>
+        <v>22812.412844036699</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="57">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" s="13">
-        <v>218</v>
+        <v>462</v>
       </c>
       <c r="E39" s="13">
-        <v>4973106</v>
+        <v>10910482</v>
       </c>
       <c r="F39" s="13">
-        <v>22812.412844036699</v>
+        <v>23615.761904761905</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="57">
-        <v>51</v>
+      <c r="C40" s="59">
+        <v>52</v>
       </c>
       <c r="D40" s="13">
-        <v>462</v>
+        <v>693</v>
       </c>
       <c r="E40" s="13">
-        <v>10910482</v>
+        <v>17277321</v>
       </c>
       <c r="F40" s="13">
-        <v>23615.761904761905</v>
+        <v>24931.199134199134</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="59">
-        <v>52</v>
+      <c r="C41" s="57">
+        <v>53</v>
       </c>
       <c r="D41" s="13">
-        <v>693</v>
+        <v>970</v>
       </c>
       <c r="E41" s="13">
-        <v>17277321</v>
+        <v>26175973</v>
       </c>
       <c r="F41" s="13">
-        <v>24931.199134199134</v>
+        <v>26985.539175257731</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" s="13">
-        <v>970</v>
+        <v>1255</v>
       </c>
       <c r="E42" s="13">
-        <v>26175973</v>
+        <v>35751895</v>
       </c>
       <c r="F42" s="13">
-        <v>26985.539175257731</v>
+        <v>28487.565737051791</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="13">
-        <v>1255</v>
+        <v>1602</v>
       </c>
       <c r="E43" s="13">
-        <v>35751895</v>
+        <v>46525246</v>
       </c>
       <c r="F43" s="13">
-        <v>28487.565737051791</v>
+        <v>29041.976279650436</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="13">
-        <v>1602</v>
+        <v>1862</v>
       </c>
       <c r="E44" s="13">
-        <v>46525246</v>
+        <v>54455419</v>
       </c>
       <c r="F44" s="13">
-        <v>29041.976279650436</v>
+        <v>29245.660042964555</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="13">
-        <v>1862</v>
+        <v>2132</v>
       </c>
       <c r="E45" s="13">
-        <v>54455419</v>
+        <v>62488372</v>
       </c>
       <c r="F45" s="13">
-        <v>29245.660042964555</v>
+        <v>29309.742964352721</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="57">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" s="13">
-        <v>2132</v>
+        <v>2594</v>
       </c>
       <c r="E46" s="13">
-        <v>62488372</v>
+        <v>79883350</v>
       </c>
       <c r="F46" s="13">
-        <v>29309.742964352721</v>
+        <v>30795.431765612953</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="57">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" s="13">
-        <v>2594</v>
+        <v>3150</v>
       </c>
       <c r="E47" s="13">
-        <v>79883350</v>
+        <v>97645331</v>
       </c>
       <c r="F47" s="13">
-        <v>30795.431765612953</v>
+        <v>30998.517777777779</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="57">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="13">
-        <v>3150</v>
+        <v>3794</v>
       </c>
       <c r="E48" s="13">
-        <v>97645331</v>
+        <v>113809307</v>
       </c>
       <c r="F48" s="13">
-        <v>30998.517777777779</v>
+        <v>29997.181602530312</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="57">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="13">
-        <v>3794</v>
+        <v>5242</v>
       </c>
       <c r="E49" s="13">
-        <v>113809307</v>
+        <v>145309098</v>
       </c>
       <c r="F49" s="13">
-        <v>29997.181602530312</v>
+        <v>27720.163677985503</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="57">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="13">
-        <v>5242</v>
+        <v>6417</v>
       </c>
       <c r="E50" s="13">
-        <v>145309098</v>
+        <v>159651687</v>
       </c>
       <c r="F50" s="13">
-        <v>27720.163677985503</v>
+        <v>24879.489948574101</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51" s="13">
-        <v>6417</v>
+        <v>7921</v>
       </c>
       <c r="E51" s="13">
-        <v>159651687</v>
+        <v>177222202</v>
       </c>
       <c r="F51" s="13">
-        <v>24879.489948574101</v>
+        <v>22373.715692463073</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="57">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="13">
-        <v>7921</v>
+        <v>8671</v>
       </c>
       <c r="E52" s="13">
-        <v>177222202</v>
+        <v>190931043</v>
       </c>
       <c r="F52" s="13">
-        <v>22373.715692463073</v>
+        <v>22019.495213931496</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="57">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="13">
-        <v>8671</v>
+        <v>8942</v>
       </c>
       <c r="E53" s="13">
-        <v>190931043</v>
+        <v>193296167</v>
       </c>
       <c r="F53" s="13">
-        <v>22019.495213931496</v>
+        <v>21616.659248490272</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="57">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" s="13">
-        <v>8942</v>
+        <v>9500</v>
       </c>
       <c r="E54" s="13">
-        <v>193296167</v>
+        <v>200239997</v>
       </c>
       <c r="F54" s="13">
-        <v>21616.659248490272</v>
+        <v>21077.894421052632</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="57">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55" s="13">
-        <v>9500</v>
+        <v>9963</v>
       </c>
       <c r="E55" s="13">
-        <v>200239997</v>
+        <v>204434446</v>
       </c>
       <c r="F55" s="13">
-        <v>21077.894421052632</v>
+        <v>20519.366255144032</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="57">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56" s="13">
-        <v>9963</v>
+        <v>10104</v>
       </c>
       <c r="E56" s="13">
-        <v>204434446</v>
+        <v>204570951</v>
       </c>
       <c r="F56" s="13">
-        <v>20519.366255144032</v>
+        <v>20246.531175771972</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="57">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="13">
-        <v>10104</v>
+        <v>10871</v>
       </c>
       <c r="E57" s="13">
-        <v>204570951</v>
+        <v>222830940</v>
       </c>
       <c r="F57" s="13">
-        <v>20246.531175771972</v>
+        <v>20497.740778217274</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="57">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58" s="13">
-        <v>10871</v>
+        <v>7558</v>
       </c>
       <c r="E58" s="13">
-        <v>222830940</v>
+        <v>150019748</v>
       </c>
       <c r="F58" s="13">
-        <v>20497.740778217274</v>
+        <v>19849.133103995766</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="57">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59" s="13">
-        <v>7558</v>
+        <v>7287</v>
       </c>
       <c r="E59" s="13">
-        <v>150019748</v>
+        <v>144167105</v>
       </c>
       <c r="F59" s="13">
-        <v>19849.133103995766</v>
+        <v>19784.150542061205</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="57">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="13">
-        <v>7287</v>
+        <v>7136</v>
       </c>
       <c r="E60" s="13">
-        <v>144167105</v>
+        <v>141348966</v>
       </c>
       <c r="F60" s="13">
-        <v>19784.150542061205</v>
+        <v>19807.870795964125</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="57">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" s="13">
-        <v>7136</v>
+        <v>7174</v>
       </c>
       <c r="E61" s="13">
-        <v>141348966</v>
+        <v>143748574</v>
       </c>
       <c r="F61" s="13">
-        <v>19807.870795964125</v>
+        <v>20037.437134095344</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="57">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62" s="13">
-        <v>7174</v>
+        <v>5969</v>
       </c>
       <c r="E62" s="13">
-        <v>143748574</v>
+        <v>116677629</v>
       </c>
       <c r="F62" s="13">
-        <v>20037.437134095344</v>
+        <v>19547.265706148435</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="57">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" s="13">
-        <v>5969</v>
+        <v>5501</v>
       </c>
       <c r="E63" s="13">
-        <v>116677629</v>
+        <v>106495210</v>
       </c>
       <c r="F63" s="13">
-        <v>19547.265706148435</v>
+        <v>19359.245591710598</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="57">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" s="13">
-        <v>5501</v>
+        <v>5038</v>
       </c>
       <c r="E64" s="13">
-        <v>106495210</v>
+        <v>95949708</v>
       </c>
       <c r="F64" s="13">
-        <v>19359.245591710598</v>
+        <v>19045.198094481937</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="57">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="13">
-        <v>5038</v>
+        <v>4688</v>
       </c>
       <c r="E65" s="13">
-        <v>95949708</v>
+        <v>90008265</v>
       </c>
       <c r="F65" s="13">
-        <v>19045.198094481937</v>
+        <v>19199.715230375426</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="57">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66" s="13">
-        <v>4688</v>
+        <v>4450</v>
       </c>
       <c r="E66" s="13">
-        <v>90008265</v>
+        <v>83169225</v>
       </c>
       <c r="F66" s="13">
-        <v>19199.715230375426</v>
+        <v>18689.713483146068</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="57">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" s="13">
-        <v>4450</v>
+        <v>4042</v>
       </c>
       <c r="E67" s="13">
-        <v>83169225</v>
+        <v>77699049</v>
       </c>
       <c r="F67" s="13">
-        <v>18689.713483146068</v>
+        <v>19222.921573478478</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="57">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68" s="13">
-        <v>4042</v>
+        <v>3948</v>
       </c>
       <c r="E68" s="13">
-        <v>77699049</v>
+        <v>73731923</v>
       </c>
       <c r="F68" s="13">
-        <v>19222.921573478478</v>
+        <v>18675.765704154001</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="57">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="13">
-        <v>3948</v>
+        <v>3758</v>
       </c>
       <c r="E69" s="13">
-        <v>73731923</v>
+        <v>69139434</v>
       </c>
       <c r="F69" s="13">
-        <v>18675.765704154001</v>
+        <v>18397.933475252794</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="57">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70" s="13">
-        <v>3758</v>
+        <v>3216</v>
       </c>
       <c r="E70" s="13">
-        <v>69139434</v>
+        <v>58967842</v>
       </c>
       <c r="F70" s="13">
-        <v>18397.933475252794</v>
+        <v>18335.771766169153</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="57">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="13">
-        <v>3216</v>
+        <v>3049</v>
       </c>
       <c r="E71" s="13">
-        <v>58967842</v>
+        <v>55585251</v>
       </c>
       <c r="F71" s="13">
-        <v>18335.771766169153</v>
+        <v>18230.649721220074</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="57">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="13">
-        <v>3049</v>
+        <v>2839</v>
       </c>
       <c r="E72" s="13">
-        <v>55585251</v>
+        <v>50471954</v>
       </c>
       <c r="F72" s="13">
-        <v>18230.649721220074</v>
+        <v>17778.074674181051</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="57">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73" s="13">
-        <v>2839</v>
+        <v>2651</v>
       </c>
       <c r="E73" s="13">
-        <v>50471954</v>
+        <v>48719517</v>
       </c>
       <c r="F73" s="13">
-        <v>17778.074674181051</v>
+        <v>18377.788381742739</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="57">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" s="13">
-        <v>2651</v>
+        <v>2381</v>
       </c>
       <c r="E74" s="13">
-        <v>48719517</v>
+        <v>43517289</v>
       </c>
       <c r="F74" s="13">
-        <v>18377.788381742739</v>
+        <v>18276.895842083159</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="57">
-        <v>86</v>
+      <c r="C75" s="59">
+        <v>87</v>
       </c>
       <c r="D75" s="13">
-        <v>2381</v>
+        <v>2082</v>
       </c>
       <c r="E75" s="13">
-        <v>43517289</v>
+        <v>36191452</v>
       </c>
       <c r="F75" s="13">
-        <v>18276.895842083159</v>
+        <v>17383.022094140251</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="59">
-        <v>87</v>
+      <c r="C76" s="57">
+        <v>88</v>
       </c>
       <c r="D76" s="13">
-        <v>2082</v>
+        <v>1843</v>
       </c>
       <c r="E76" s="13">
-        <v>36191452</v>
+        <v>31569762</v>
       </c>
       <c r="F76" s="13">
-        <v>17383.022094140251</v>
+        <v>17129.550732501357</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="57">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" s="13">
-        <v>1843</v>
+        <v>1526</v>
       </c>
       <c r="E77" s="13">
-        <v>31569762</v>
+        <v>26272262</v>
       </c>
       <c r="F77" s="13">
-        <v>17129.550732501357</v>
+        <v>17216.423328964614</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="57">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78" s="13">
-        <v>1526</v>
+        <v>1333</v>
       </c>
       <c r="E78" s="13">
-        <v>26272262</v>
+        <v>21622238</v>
       </c>
       <c r="F78" s="13">
-        <v>17216.423328964614</v>
+        <v>16220.733683420855</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="57">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79" s="13">
-        <v>1333</v>
+        <v>1119</v>
       </c>
       <c r="E79" s="13">
-        <v>21622238</v>
+        <v>17406934</v>
       </c>
       <c r="F79" s="13">
-        <v>16220.733683420855</v>
+        <v>15555.794459338695</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="57">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80" s="13">
-        <v>1119</v>
+        <v>858</v>
       </c>
       <c r="E80" s="13">
-        <v>17406934</v>
+        <v>13020968</v>
       </c>
       <c r="F80" s="13">
-        <v>15555.794459338695</v>
+        <v>15175.95337995338</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="57">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D81" s="13">
-        <v>858</v>
+        <v>718</v>
       </c>
       <c r="E81" s="13">
-        <v>13020968</v>
+        <v>10415704</v>
       </c>
       <c r="F81" s="13">
-        <v>15175.95337995338</v>
+        <v>14506.551532033427</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="57">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D82" s="13">
-        <v>718</v>
+        <v>552</v>
       </c>
       <c r="E82" s="13">
-        <v>10415704</v>
+        <v>8983354</v>
       </c>
       <c r="F82" s="13">
-        <v>14506.551532033427</v>
+        <v>16274.192028985508</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="57">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D83" s="13">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="E83" s="13">
-        <v>8983354</v>
+        <v>7081852</v>
       </c>
       <c r="F83" s="13">
-        <v>16274.192028985508</v>
+        <v>14423.323828920571</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="57">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D84" s="13">
-        <v>491</v>
+        <v>319</v>
       </c>
       <c r="E84" s="13">
-        <v>7081852</v>
+        <v>4563036</v>
       </c>
       <c r="F84" s="13">
-        <v>14423.323828920571</v>
+        <v>14304.188087774295</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="57">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D85" s="13">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="E85" s="13">
-        <v>4563036</v>
+        <v>3085069</v>
       </c>
       <c r="F85" s="13">
-        <v>14304.188087774295</v>
+        <v>13017.168776371309</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="57">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D86" s="13">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="E86" s="13">
-        <v>3085069</v>
+        <v>2132269</v>
       </c>
       <c r="F86" s="13">
-        <v>13017.168776371309</v>
+        <v>13081.40490797546</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="57">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D87" s="13">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="E87" s="13">
-        <v>2132269</v>
+        <v>1647046</v>
       </c>
       <c r="F87" s="13">
-        <v>13081.40490797546</v>
+        <v>14705.767857142857</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="57">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D88" s="13">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="E88" s="13">
-        <v>1647046</v>
+        <v>3055022</v>
       </c>
       <c r="F88" s="13">
-        <v>14705.767857142857</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="57">
-        <v>100</v>
-      </c>
-      <c r="D89" s="13">
-        <v>212</v>
-      </c>
-      <c r="E89" s="13">
-        <v>3055022</v>
-      </c>
-      <c r="F89" s="13">
         <v>14410.481132075472</v>
       </c>
     </row>
@@ -13232,8 +13218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:M41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13325,15 +13311,15 @@
         <v>81</v>
       </c>
       <c r="L8" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="91" t="s">
         <v>155</v>
-      </c>
-      <c r="M8" s="91" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B9" s="69">
         <v>18</v>
@@ -17067,7 +17053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M10" sqref="M10:M61"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -4838,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,6 +5208,12 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="65"/>
+    </row>
+    <row r="22" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f>22672.36/22152.1</f>
+        <v>1.0234858094717882</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8738,7 +8744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="L11" sqref="L11:L88"/>
     </sheetView>
   </sheetViews>
@@ -12015,7 +12021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -17053,7 +17059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M10" sqref="M10:M61"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -4840,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_MemberData_AV2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
@@ -1570,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1732,23 +1732,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Sum'!A1" display="Sum"/>
-    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1"/>
-    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2"/>
-    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3"/>
-    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4"/>
-    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP"/>
-    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP"/>
-    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP"/>
-    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP"/>
-    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1"/>
-    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2"/>
-    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3"/>
-    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4"/>
-    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP"/>
-    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP"/>
-    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP"/>
-    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP"/>
+    <hyperlink ref="B2" location="'Sum'!A1" display="Sum" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Actives_t1'!A1" display="Actives_t1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'Actives_t2'!A1" display="Actives_t2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Actives_t3'!A1" display="Actives_t3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="'Actives_t4'!A1" display="Actives_t4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="'Actives_t5_noHPP'!A1" display="Actives_t5_noHPP" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="'Actives_t6_noHPP'!A1" display="Actives_t6_noHPP" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="'Actives_t5_HPP'!A1" display="Actives_t5_HPP" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="'Actives_t6_HPP'!A1" display="Actives_t6_HPP" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="'Other_t1'!A1" display="Other_t1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="'Other_t2'!A1" display="Other_t2" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="'Other_t3'!A1" display="Other_t3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="'Other_t4'!A1" display="Other_t4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="'Other_t5_noHPP'!A1" display="Other_t5_noHPP" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="'Other_t6_noHPP'!A1" display="Other_t6_noHPP" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="'Other_t5_HPP'!A1" display="Other_t5_HPP" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" location="'Other_t6_HPP'!A1" display="Other_t6_HPP" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1756,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2726,14 +2726,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,17 +2893,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
@@ -4830,18 +4830,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5217,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6249,14 +6249,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7602,17 +7602,17 @@
     <row r="34" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -8734,14 +8734,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
@@ -12011,14 +12011,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -13214,14 +13214,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17048,7 +17048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17056,10 +17056,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M10" sqref="M10:M61"/>
     </sheetView>
   </sheetViews>
@@ -19406,7 +19406,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
